--- a/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.745112720920588</v>
+        <v>1.745112720920645</v>
       </c>
       <c r="C2">
-        <v>0.6457816345377125</v>
+        <v>0.6457816345374567</v>
       </c>
       <c r="D2">
-        <v>0.2082426170104981</v>
+        <v>0.2082426170103986</v>
       </c>
       <c r="E2">
-        <v>0.0532145790459424</v>
+        <v>0.05321457904593885</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>2.756755763317685</v>
       </c>
       <c r="H2">
-        <v>2.06693869183043</v>
+        <v>2.066938691830416</v>
       </c>
       <c r="I2">
-        <v>0.006668583001102846</v>
+        <v>0.006668583001087303</v>
       </c>
       <c r="J2">
         <v>0.5504535190982267</v>
       </c>
       <c r="K2">
-        <v>0.1698650709795508</v>
+        <v>0.1698650709795686</v>
       </c>
       <c r="L2">
-        <v>0.5556002897470194</v>
+        <v>0.5556002897470051</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.501869936554101</v>
+        <v>1.501869936554073</v>
       </c>
       <c r="C3">
-        <v>0.5546454485550498</v>
+        <v>0.554645448554794</v>
       </c>
       <c r="D3">
-        <v>0.1816125007482015</v>
+        <v>0.1816125007480593</v>
       </c>
       <c r="E3">
-        <v>0.04862557363163944</v>
+        <v>0.04862557363162523</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.483078609881289</v>
+        <v>2.483078609881318</v>
       </c>
       <c r="H3">
-        <v>1.881412413157094</v>
+        <v>1.881412413157108</v>
       </c>
       <c r="I3">
-        <v>0.006599069899179133</v>
+        <v>0.006599069899181575</v>
       </c>
       <c r="J3">
-        <v>0.4734299274610123</v>
+        <v>0.4734299274609839</v>
       </c>
       <c r="K3">
-        <v>0.1487392146377786</v>
+        <v>0.1487392146378035</v>
       </c>
       <c r="L3">
         <v>0.4805977700706734</v>
@@ -491,13 +491,13 @@
         <v>1.35536763593754</v>
       </c>
       <c r="C4">
-        <v>0.4998421321459148</v>
+        <v>0.4998421321458864</v>
       </c>
       <c r="D4">
-        <v>0.1656402426717989</v>
+        <v>0.1656402426720121</v>
       </c>
       <c r="E4">
-        <v>0.04589586124541611</v>
+        <v>0.04589586124540546</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>2.319782426345739</v>
       </c>
       <c r="H4">
-        <v>1.770834312732532</v>
+        <v>1.770834312732546</v>
       </c>
       <c r="I4">
-        <v>0.006558940671568037</v>
+        <v>0.006558940671604452</v>
       </c>
       <c r="J4">
-        <v>0.4270612570102301</v>
+        <v>0.4270612570102443</v>
       </c>
       <c r="K4">
-        <v>0.1360898409821267</v>
+        <v>0.1360898409821303</v>
       </c>
       <c r="L4">
-        <v>0.4355407222740268</v>
+        <v>0.435540722274034</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.296282424214269</v>
+        <v>1.296282424214212</v>
       </c>
       <c r="C5">
-        <v>0.4777568342551604</v>
+        <v>0.477756834254734</v>
       </c>
       <c r="D5">
-        <v>0.1592147028047464</v>
+        <v>0.1592147028048885</v>
       </c>
       <c r="E5">
-        <v>0.04480336025823028</v>
+        <v>0.04480336025826048</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>1.726515418117799</v>
       </c>
       <c r="I5">
-        <v>0.006543162860525475</v>
+        <v>0.006543162860486174</v>
       </c>
       <c r="J5">
-        <v>0.408364782822197</v>
+        <v>0.4083647828221757</v>
       </c>
       <c r="K5">
-        <v>0.1310061701269447</v>
+        <v>0.131006170126966</v>
       </c>
       <c r="L5">
-        <v>0.4173969616535018</v>
+        <v>0.4173969616535089</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.286505782457681</v>
+        <v>1.286505782457652</v>
       </c>
       <c r="C6">
         <v>0.4741033598660636</v>
       </c>
       <c r="D6">
-        <v>0.1581524480209566</v>
+        <v>0.1581524480209424</v>
       </c>
       <c r="E6">
-        <v>0.04462309022336619</v>
+        <v>0.04462309022333422</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.243476078036949</v>
+        <v>2.243476078036977</v>
       </c>
       <c r="H6">
         <v>1.719198497773121</v>
       </c>
       <c r="I6">
-        <v>0.006540575879079302</v>
+        <v>0.006540575879070865</v>
       </c>
       <c r="J6">
-        <v>0.4052713620339503</v>
+        <v>0.4052713620339432</v>
       </c>
       <c r="K6">
-        <v>0.1301660490720202</v>
+        <v>0.1301660490720167</v>
       </c>
       <c r="L6">
         <v>0.4143964300927081</v>
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.354568425831843</v>
+        <v>1.354568425831729</v>
       </c>
       <c r="C7">
-        <v>0.4995433336587496</v>
+        <v>0.499543333658778</v>
       </c>
       <c r="D7">
-        <v>0.1655532633873946</v>
+        <v>0.1655532633874941</v>
       </c>
       <c r="E7">
-        <v>0.04588104972097362</v>
+        <v>0.04588104972092921</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.318895098149795</v>
+        <v>2.318895098149781</v>
       </c>
       <c r="H7">
-        <v>1.770233726906284</v>
+        <v>1.770233726906312</v>
       </c>
       <c r="I7">
-        <v>0.00655872564101978</v>
+        <v>0.006558725641067298</v>
       </c>
       <c r="J7">
         <v>0.4268083451940399</v>
       </c>
       <c r="K7">
-        <v>0.1360210055786943</v>
+        <v>0.1360210055786908</v>
       </c>
       <c r="L7">
-        <v>0.4352951902640854</v>
+        <v>0.4352951902640996</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.660587256305149</v>
+        <v>1.660587256305178</v>
       </c>
       <c r="C8">
-        <v>0.61409108140532</v>
+        <v>0.6140910814048652</v>
       </c>
       <c r="D8">
-        <v>0.1989743923679299</v>
+        <v>0.1989743923677878</v>
       </c>
       <c r="E8">
-        <v>0.05161262259829513</v>
+        <v>0.05161262259827026</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.661319484726008</v>
+        <v>2.661319484726036</v>
       </c>
       <c r="H8">
-        <v>2.002216133660554</v>
+        <v>2.002216133660539</v>
       </c>
       <c r="I8">
-        <v>0.006644043042300929</v>
+        <v>0.006644043042279613</v>
       </c>
       <c r="J8">
-        <v>0.5236829352891732</v>
+        <v>0.5236829352892016</v>
       </c>
       <c r="K8">
-        <v>0.1625077789618175</v>
+        <v>0.1625077789618423</v>
       </c>
       <c r="L8">
-        <v>0.5295122000904726</v>
+        <v>0.5295122000904797</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.28843666702187</v>
+        <v>2.288436667021983</v>
       </c>
       <c r="C9">
-        <v>0.8500647500314074</v>
+        <v>0.8500647500314358</v>
       </c>
       <c r="D9">
-        <v>0.2681238601255842</v>
+        <v>0.2681238601258258</v>
       </c>
       <c r="E9">
-        <v>0.0636630873278996</v>
+        <v>0.06366308732793868</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.377498542763192</v>
+        <v>3.377498542763263</v>
       </c>
       <c r="H9">
         <v>2.488465465942525</v>
       </c>
       <c r="I9">
-        <v>0.006834989196451424</v>
+        <v>0.006834989196441654</v>
       </c>
       <c r="J9">
-        <v>0.7226786439736514</v>
+        <v>0.722678643973623</v>
       </c>
       <c r="K9">
-        <v>0.2175060131633018</v>
+        <v>0.2175060131633089</v>
       </c>
       <c r="L9">
         <v>0.7238313664377571</v>
@@ -719,13 +719,13 @@
         <v>2.774834361234298</v>
       </c>
       <c r="C10">
-        <v>1.033848081905859</v>
+        <v>1.033848081905887</v>
       </c>
       <c r="D10">
-        <v>0.3220917628062807</v>
+        <v>0.3220917628064512</v>
       </c>
       <c r="E10">
-        <v>0.07318971421595677</v>
+        <v>0.0731897142159319</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>2.872532190373732</v>
       </c>
       <c r="I10">
-        <v>0.006995123487648414</v>
+        <v>0.006995123487631094</v>
       </c>
       <c r="J10">
-        <v>0.877087196606567</v>
+        <v>0.8770871966065528</v>
       </c>
       <c r="K10">
         <v>0.260577866792076</v>
       </c>
       <c r="L10">
-        <v>0.8750829675475842</v>
+        <v>0.8750829675475984</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.003740706839665</v>
+        <v>3.003740706839721</v>
       </c>
       <c r="C11">
-        <v>1.120649985286775</v>
+        <v>1.120649985286434</v>
       </c>
       <c r="D11">
-        <v>0.3475843389107496</v>
+        <v>0.3475843389107069</v>
       </c>
       <c r="E11">
-        <v>0.07771675551441248</v>
+        <v>0.07771675551438761</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.210294724091995</v>
+        <v>4.210294724091966</v>
       </c>
       <c r="H11">
-        <v>3.055113684048351</v>
+        <v>3.055113684048379</v>
       </c>
       <c r="I11">
-        <v>0.007073742259319005</v>
+        <v>0.00707374225930435</v>
       </c>
       <c r="J11">
         <v>0.9498327654687699</v>
       </c>
       <c r="K11">
-        <v>0.2809628497677323</v>
+        <v>0.2809628497677252</v>
       </c>
       <c r="L11">
-        <v>0.9464382216084601</v>
+        <v>0.946438221608453</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.091735747887299</v>
+        <v>3.091735747887412</v>
       </c>
       <c r="C12">
-        <v>1.154072191111197</v>
+        <v>1.154072191111595</v>
       </c>
       <c r="D12">
-        <v>0.3573982471356771</v>
+        <v>0.3573982471357198</v>
       </c>
       <c r="E12">
-        <v>0.07946343254814892</v>
+        <v>0.07946343254813115</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.313764075959256</v>
+        <v>4.313764075959227</v>
       </c>
       <c r="H12">
         <v>3.125584443971846</v>
       </c>
       <c r="I12">
-        <v>0.007104489827147731</v>
+        <v>0.007104489827181926</v>
       </c>
       <c r="J12">
-        <v>0.9778109666795984</v>
+        <v>0.9778109666796269</v>
       </c>
       <c r="K12">
-        <v>0.2888168202193313</v>
+        <v>0.2888168202192887</v>
       </c>
       <c r="L12">
-        <v>0.973894893928275</v>
+        <v>0.9738948939282608</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.072722259372767</v>
+        <v>3.072722259372654</v>
       </c>
       <c r="C13">
-        <v>1.146847929606679</v>
+        <v>1.146847929606622</v>
       </c>
       <c r="D13">
-        <v>0.3552770732361239</v>
+        <v>0.3552770732365502</v>
       </c>
       <c r="E13">
-        <v>0.07908573364859706</v>
+        <v>0.0790857336485864</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>4.291389650267263</v>
       </c>
       <c r="H13">
-        <v>3.110344589997723</v>
+        <v>3.110344589997695</v>
       </c>
       <c r="I13">
-        <v>0.007097821769716628</v>
+        <v>0.007097821769732615</v>
       </c>
       <c r="J13">
         <v>0.9717649391647143</v>
       </c>
       <c r="K13">
-        <v>0.2871189733391759</v>
+        <v>0.2871189733391475</v>
       </c>
       <c r="L13">
-        <v>0.9679609971638001</v>
+        <v>0.9679609971637717</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.010952445319901</v>
+        <v>3.010952445320015</v>
       </c>
       <c r="C14">
-        <v>1.123388000857119</v>
+        <v>1.123388000856835</v>
       </c>
       <c r="D14">
-        <v>0.3483883634604297</v>
+        <v>0.3483883634606144</v>
       </c>
       <c r="E14">
-        <v>0.07785977792965681</v>
+        <v>0.07785977792973497</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>3.060883424198892</v>
       </c>
       <c r="I14">
-        <v>0.007076251387009957</v>
+        <v>0.007076251387049037</v>
       </c>
       <c r="J14">
         <v>0.9521254639002592</v>
       </c>
       <c r="K14">
-        <v>0.281606171814289</v>
+        <v>0.2816061718142251</v>
       </c>
       <c r="L14">
-        <v>0.94868792510227</v>
+        <v>0.9486879251022913</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.973294600275892</v>
+        <v>2.973294600276006</v>
       </c>
       <c r="C15">
-        <v>1.109093025376183</v>
+        <v>1.109093025376694</v>
       </c>
       <c r="D15">
-        <v>0.3441905264836151</v>
+        <v>0.3441905264832315</v>
       </c>
       <c r="E15">
-        <v>0.07711320984584447</v>
+        <v>0.07711320984585157</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.174542678613932</v>
+        <v>4.17454267861396</v>
       </c>
       <c r="H15">
-        <v>3.030766833486425</v>
+        <v>3.030766833486396</v>
       </c>
       <c r="I15">
-        <v>0.007063170812600994</v>
+        <v>0.007063170812642738</v>
       </c>
       <c r="J15">
         <v>0.9401541475466502</v>
       </c>
       <c r="K15">
-        <v>0.278247626185923</v>
+        <v>0.2782476261859799</v>
       </c>
       <c r="L15">
-        <v>0.9369416308867642</v>
+        <v>0.9369416308867571</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.760046137170036</v>
+        <v>2.760046137169979</v>
       </c>
       <c r="C16">
-        <v>1.028247289509324</v>
+        <v>1.028247289509238</v>
       </c>
       <c r="D16">
-        <v>0.32044677017673</v>
+        <v>0.3204467701766731</v>
       </c>
       <c r="E16">
-        <v>0.0728981283983714</v>
+        <v>0.07289812839827903</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.924849341440137</v>
+        <v>3.924849341440193</v>
       </c>
       <c r="H16">
-        <v>2.860774774004142</v>
+        <v>2.86077477400417</v>
       </c>
       <c r="I16">
-        <v>0.006990113686562438</v>
+        <v>0.006990113686607735</v>
       </c>
       <c r="J16">
         <v>0.8723893096257598</v>
       </c>
       <c r="K16">
-        <v>0.2592632930919407</v>
+        <v>0.2592632930919052</v>
       </c>
       <c r="L16">
-        <v>0.8704767319498714</v>
+        <v>0.8704767319498856</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,13 +985,13 @@
         <v>2.631324701316714</v>
       </c>
       <c r="C17">
-        <v>0.9795313721722891</v>
+        <v>0.9795313721725734</v>
       </c>
       <c r="D17">
-        <v>0.3061386751585928</v>
+        <v>0.3061386751588202</v>
       </c>
       <c r="E17">
-        <v>0.0703648848127969</v>
+        <v>0.07036488481275782</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>3.774763493804642</v>
       </c>
       <c r="H17">
-        <v>2.758638169919095</v>
+        <v>2.758638169919053</v>
       </c>
       <c r="I17">
-        <v>0.006946870763484991</v>
+        <v>0.006946870763534285</v>
       </c>
       <c r="J17">
-        <v>0.8315062870265564</v>
+        <v>0.8315062870265706</v>
       </c>
       <c r="K17">
-        <v>0.2478335562462988</v>
+        <v>0.2478335562462632</v>
       </c>
       <c r="L17">
-        <v>0.8304018698087674</v>
+        <v>0.8304018698087745</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.557992186988258</v>
+        <v>2.557992186988201</v>
       </c>
       <c r="C18">
-        <v>0.9518059580970828</v>
+        <v>0.951805958097566</v>
       </c>
       <c r="D18">
-        <v>0.2979960371494457</v>
+        <v>0.2979960371490336</v>
       </c>
       <c r="E18">
-        <v>0.06892571650714174</v>
+        <v>0.06892571650717727</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>3.689483869387715</v>
       </c>
       <c r="H18">
-        <v>2.700618853403569</v>
+        <v>2.700618853403597</v>
       </c>
       <c r="I18">
-        <v>0.006922531909622442</v>
+        <v>0.006922531909620666</v>
       </c>
       <c r="J18">
-        <v>0.8082223359382965</v>
+        <v>0.8082223359382681</v>
       </c>
       <c r="K18">
         <v>0.2413325450811215</v>
       </c>
       <c r="L18">
-        <v>0.8075871806875128</v>
+        <v>0.8075871806875199</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.533278077174373</v>
+        <v>2.533278077174202</v>
       </c>
       <c r="C19">
-        <v>0.9424666409824738</v>
+        <v>0.9424666409819338</v>
       </c>
       <c r="D19">
-        <v>0.2952533225228251</v>
+        <v>0.2952533225226546</v>
       </c>
       <c r="E19">
-        <v>0.06844138188897375</v>
+        <v>0.06844138188898796</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.660781109974124</v>
+        <v>3.660781109974153</v>
       </c>
       <c r="H19">
         <v>2.681093757102872</v>
       </c>
       <c r="I19">
-        <v>0.006914378719348857</v>
+        <v>0.006914378719350189</v>
       </c>
       <c r="J19">
-        <v>0.8003764588718525</v>
+        <v>0.8003764588719093</v>
       </c>
       <c r="K19">
-        <v>0.2391433804515017</v>
+        <v>0.2391433804515088</v>
       </c>
       <c r="L19">
         <v>0.7999009918328639</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.644952941063366</v>
+        <v>2.644952941063536</v>
       </c>
       <c r="C20">
-        <v>0.9846861422200561</v>
+        <v>0.984686142220113</v>
       </c>
       <c r="D20">
-        <v>0.3076526234916486</v>
+        <v>0.3076526234918475</v>
       </c>
       <c r="E20">
-        <v>0.07063267066332557</v>
+        <v>0.07063267066331846</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>3.79063018670999</v>
       </c>
       <c r="H20">
-        <v>2.7694341965543</v>
+        <v>2.769434196554329</v>
       </c>
       <c r="I20">
-        <v>0.006951417865626031</v>
+        <v>0.00695141786557496</v>
       </c>
       <c r="J20">
-        <v>0.8358339802691575</v>
+        <v>0.8358339802691432</v>
       </c>
       <c r="K20">
-        <v>0.2490425678512267</v>
+        <v>0.249042567851248</v>
       </c>
       <c r="L20">
         <v>0.8346430851229272</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.029058221186176</v>
+        <v>3.029058221186403</v>
       </c>
       <c r="C21">
         <v>1.130262953424278</v>
       </c>
       <c r="D21">
-        <v>0.3504071729238376</v>
+        <v>0.3504071729234113</v>
       </c>
       <c r="E21">
-        <v>0.07821895196610384</v>
+        <v>0.07821895196609674</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>4.240043370236322</v>
       </c>
       <c r="H21">
-        <v>3.075373496151158</v>
+        <v>3.075373496151187</v>
       </c>
       <c r="I21">
-        <v>0.007082559345159556</v>
+        <v>0.007082559345191974</v>
       </c>
       <c r="J21">
         <v>0.9578817344075219</v>
       </c>
       <c r="K21">
-        <v>0.2832215796195641</v>
+        <v>0.2832215796196067</v>
       </c>
       <c r="L21">
-        <v>0.9543364547483861</v>
+        <v>0.9543364547483932</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.287872658619563</v>
+        <v>3.287872658619392</v>
       </c>
       <c r="C22">
-        <v>1.228678761799301</v>
+        <v>1.228678761799642</v>
       </c>
       <c r="D22">
-        <v>0.3792993008407279</v>
+        <v>0.3792993008409269</v>
       </c>
       <c r="E22">
         <v>0.08336843949509287</v>
@@ -1187,22 +1187,22 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.545113556532755</v>
+        <v>4.545113556532783</v>
       </c>
       <c r="H22">
         <v>3.283197411994735</v>
       </c>
       <c r="I22">
-        <v>0.00717404554827672</v>
+        <v>0.007174045548274943</v>
       </c>
       <c r="J22">
-        <v>1.04020089334125</v>
+        <v>1.040200893341279</v>
       </c>
       <c r="K22">
-        <v>0.3063563401370217</v>
+        <v>0.3063563401370004</v>
       </c>
       <c r="L22">
-        <v>1.035144680998179</v>
+        <v>1.035144680998151</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.148946696576672</v>
+        <v>3.148946696576729</v>
       </c>
       <c r="C23">
-        <v>1.175818343193043</v>
+        <v>1.175818343193498</v>
       </c>
       <c r="D23">
-        <v>0.3637828661337892</v>
+        <v>0.3637828661335902</v>
       </c>
       <c r="E23">
-        <v>0.08060084518705324</v>
+        <v>0.08060084518700705</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>3.171482953390665</v>
       </c>
       <c r="I23">
-        <v>0.007124633935170266</v>
+        <v>0.007124633935168934</v>
       </c>
       <c r="J23">
         <v>0.9960054317535594</v>
       </c>
       <c r="K23">
-        <v>0.2939282151981715</v>
+        <v>0.2939282151982283</v>
       </c>
       <c r="L23">
-        <v>0.9917537422464875</v>
+        <v>0.9917537422464804</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.638789539119159</v>
+        <v>2.638789539118989</v>
       </c>
       <c r="C24">
-        <v>0.9823547990391432</v>
+        <v>0.9823547990388874</v>
       </c>
       <c r="D24">
-        <v>0.3069679098931459</v>
+        <v>0.3069679098929896</v>
       </c>
       <c r="E24">
-        <v>0.07051155135836495</v>
+        <v>0.07051155135839693</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.783453740486635</v>
+        <v>3.783453740486607</v>
       </c>
       <c r="H24">
-        <v>2.764551146082653</v>
+        <v>2.764551146082638</v>
       </c>
       <c r="I24">
-        <v>0.006949360505251967</v>
+        <v>0.006949360505233759</v>
       </c>
       <c r="J24">
-        <v>0.8338767493513046</v>
+        <v>0.833876749351262</v>
       </c>
       <c r="K24">
-        <v>0.2484957568976824</v>
+        <v>0.2484957568976611</v>
       </c>
       <c r="L24">
-        <v>0.8327249363070024</v>
+        <v>0.8327249363069882</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.11483459101305</v>
+        <v>2.114834591013107</v>
       </c>
       <c r="C25">
-        <v>0.7846803406805236</v>
+        <v>0.7846803406808078</v>
       </c>
       <c r="D25">
-        <v>0.2489385953237644</v>
+        <v>0.2489385953235086</v>
       </c>
       <c r="E25">
-        <v>0.06029918904748399</v>
+        <v>0.06029918904746268</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.17789883153641</v>
+        <v>3.177898831536467</v>
       </c>
       <c r="H25">
-        <v>2.352830141366667</v>
+        <v>2.352830141366681</v>
       </c>
       <c r="I25">
-        <v>0.006780286741660646</v>
+        <v>0.006780286741663755</v>
       </c>
       <c r="J25">
-        <v>0.6676212389979881</v>
+        <v>0.6676212389980023</v>
       </c>
       <c r="K25">
-        <v>0.2022237785450542</v>
+        <v>0.2022237785450187</v>
       </c>
       <c r="L25">
-        <v>0.669986005427738</v>
+        <v>0.6699860054277309</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.745112720920645</v>
+        <v>1.745112720920588</v>
       </c>
       <c r="C2">
-        <v>0.6457816345374567</v>
+        <v>0.6457816345377125</v>
       </c>
       <c r="D2">
-        <v>0.2082426170103986</v>
+        <v>0.2082426170104981</v>
       </c>
       <c r="E2">
-        <v>0.05321457904593885</v>
+        <v>0.0532145790459424</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>2.756755763317685</v>
       </c>
       <c r="H2">
-        <v>2.066938691830416</v>
+        <v>2.06693869183043</v>
       </c>
       <c r="I2">
-        <v>0.006668583001087303</v>
+        <v>0.006668583001102846</v>
       </c>
       <c r="J2">
         <v>0.5504535190982267</v>
       </c>
       <c r="K2">
-        <v>0.1698650709795686</v>
+        <v>0.1698650709795508</v>
       </c>
       <c r="L2">
-        <v>0.5556002897470051</v>
+        <v>0.5556002897470194</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.501869936554073</v>
+        <v>1.501869936554101</v>
       </c>
       <c r="C3">
-        <v>0.554645448554794</v>
+        <v>0.5546454485550498</v>
       </c>
       <c r="D3">
-        <v>0.1816125007480593</v>
+        <v>0.1816125007482015</v>
       </c>
       <c r="E3">
-        <v>0.04862557363162523</v>
+        <v>0.04862557363163944</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.483078609881318</v>
+        <v>2.483078609881289</v>
       </c>
       <c r="H3">
-        <v>1.881412413157108</v>
+        <v>1.881412413157094</v>
       </c>
       <c r="I3">
-        <v>0.006599069899181575</v>
+        <v>0.006599069899179133</v>
       </c>
       <c r="J3">
-        <v>0.4734299274609839</v>
+        <v>0.4734299274610123</v>
       </c>
       <c r="K3">
-        <v>0.1487392146378035</v>
+        <v>0.1487392146377786</v>
       </c>
       <c r="L3">
         <v>0.4805977700706734</v>
@@ -491,13 +491,13 @@
         <v>1.35536763593754</v>
       </c>
       <c r="C4">
-        <v>0.4998421321458864</v>
+        <v>0.4998421321459148</v>
       </c>
       <c r="D4">
-        <v>0.1656402426720121</v>
+        <v>0.1656402426717989</v>
       </c>
       <c r="E4">
-        <v>0.04589586124540546</v>
+        <v>0.04589586124541611</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>2.319782426345739</v>
       </c>
       <c r="H4">
-        <v>1.770834312732546</v>
+        <v>1.770834312732532</v>
       </c>
       <c r="I4">
-        <v>0.006558940671604452</v>
+        <v>0.006558940671568037</v>
       </c>
       <c r="J4">
-        <v>0.4270612570102443</v>
+        <v>0.4270612570102301</v>
       </c>
       <c r="K4">
-        <v>0.1360898409821303</v>
+        <v>0.1360898409821267</v>
       </c>
       <c r="L4">
-        <v>0.435540722274034</v>
+        <v>0.4355407222740268</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.296282424214212</v>
+        <v>1.296282424214269</v>
       </c>
       <c r="C5">
-        <v>0.477756834254734</v>
+        <v>0.4777568342551604</v>
       </c>
       <c r="D5">
-        <v>0.1592147028048885</v>
+        <v>0.1592147028047464</v>
       </c>
       <c r="E5">
-        <v>0.04480336025826048</v>
+        <v>0.04480336025823028</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>1.726515418117799</v>
       </c>
       <c r="I5">
-        <v>0.006543162860486174</v>
+        <v>0.006543162860525475</v>
       </c>
       <c r="J5">
-        <v>0.4083647828221757</v>
+        <v>0.408364782822197</v>
       </c>
       <c r="K5">
-        <v>0.131006170126966</v>
+        <v>0.1310061701269447</v>
       </c>
       <c r="L5">
-        <v>0.4173969616535089</v>
+        <v>0.4173969616535018</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.286505782457652</v>
+        <v>1.286505782457681</v>
       </c>
       <c r="C6">
         <v>0.4741033598660636</v>
       </c>
       <c r="D6">
-        <v>0.1581524480209424</v>
+        <v>0.1581524480209566</v>
       </c>
       <c r="E6">
-        <v>0.04462309022333422</v>
+        <v>0.04462309022336619</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.243476078036977</v>
+        <v>2.243476078036949</v>
       </c>
       <c r="H6">
         <v>1.719198497773121</v>
       </c>
       <c r="I6">
-        <v>0.006540575879070865</v>
+        <v>0.006540575879079302</v>
       </c>
       <c r="J6">
-        <v>0.4052713620339432</v>
+        <v>0.4052713620339503</v>
       </c>
       <c r="K6">
-        <v>0.1301660490720167</v>
+        <v>0.1301660490720202</v>
       </c>
       <c r="L6">
         <v>0.4143964300927081</v>
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.354568425831729</v>
+        <v>1.354568425831843</v>
       </c>
       <c r="C7">
-        <v>0.499543333658778</v>
+        <v>0.4995433336587496</v>
       </c>
       <c r="D7">
-        <v>0.1655532633874941</v>
+        <v>0.1655532633873946</v>
       </c>
       <c r="E7">
-        <v>0.04588104972092921</v>
+        <v>0.04588104972097362</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.318895098149781</v>
+        <v>2.318895098149795</v>
       </c>
       <c r="H7">
-        <v>1.770233726906312</v>
+        <v>1.770233726906284</v>
       </c>
       <c r="I7">
-        <v>0.006558725641067298</v>
+        <v>0.00655872564101978</v>
       </c>
       <c r="J7">
         <v>0.4268083451940399</v>
       </c>
       <c r="K7">
-        <v>0.1360210055786908</v>
+        <v>0.1360210055786943</v>
       </c>
       <c r="L7">
-        <v>0.4352951902640996</v>
+        <v>0.4352951902640854</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.660587256305178</v>
+        <v>1.660587256305149</v>
       </c>
       <c r="C8">
-        <v>0.6140910814048652</v>
+        <v>0.61409108140532</v>
       </c>
       <c r="D8">
-        <v>0.1989743923677878</v>
+        <v>0.1989743923679299</v>
       </c>
       <c r="E8">
-        <v>0.05161262259827026</v>
+        <v>0.05161262259829513</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.661319484726036</v>
+        <v>2.661319484726008</v>
       </c>
       <c r="H8">
-        <v>2.002216133660539</v>
+        <v>2.002216133660554</v>
       </c>
       <c r="I8">
-        <v>0.006644043042279613</v>
+        <v>0.006644043042300929</v>
       </c>
       <c r="J8">
-        <v>0.5236829352892016</v>
+        <v>0.5236829352891732</v>
       </c>
       <c r="K8">
-        <v>0.1625077789618423</v>
+        <v>0.1625077789618175</v>
       </c>
       <c r="L8">
-        <v>0.5295122000904797</v>
+        <v>0.5295122000904726</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.288436667021983</v>
+        <v>2.28843666702187</v>
       </c>
       <c r="C9">
-        <v>0.8500647500314358</v>
+        <v>0.8500647500314074</v>
       </c>
       <c r="D9">
-        <v>0.2681238601258258</v>
+        <v>0.2681238601255842</v>
       </c>
       <c r="E9">
-        <v>0.06366308732793868</v>
+        <v>0.0636630873278996</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.377498542763263</v>
+        <v>3.377498542763192</v>
       </c>
       <c r="H9">
         <v>2.488465465942525</v>
       </c>
       <c r="I9">
-        <v>0.006834989196441654</v>
+        <v>0.006834989196451424</v>
       </c>
       <c r="J9">
-        <v>0.722678643973623</v>
+        <v>0.7226786439736514</v>
       </c>
       <c r="K9">
-        <v>0.2175060131633089</v>
+        <v>0.2175060131633018</v>
       </c>
       <c r="L9">
         <v>0.7238313664377571</v>
@@ -719,13 +719,13 @@
         <v>2.774834361234298</v>
       </c>
       <c r="C10">
-        <v>1.033848081905887</v>
+        <v>1.033848081905859</v>
       </c>
       <c r="D10">
-        <v>0.3220917628064512</v>
+        <v>0.3220917628062807</v>
       </c>
       <c r="E10">
-        <v>0.0731897142159319</v>
+        <v>0.07318971421595677</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>2.872532190373732</v>
       </c>
       <c r="I10">
-        <v>0.006995123487631094</v>
+        <v>0.006995123487648414</v>
       </c>
       <c r="J10">
-        <v>0.8770871966065528</v>
+        <v>0.877087196606567</v>
       </c>
       <c r="K10">
         <v>0.260577866792076</v>
       </c>
       <c r="L10">
-        <v>0.8750829675475984</v>
+        <v>0.8750829675475842</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.003740706839721</v>
+        <v>3.003740706839665</v>
       </c>
       <c r="C11">
-        <v>1.120649985286434</v>
+        <v>1.120649985286775</v>
       </c>
       <c r="D11">
-        <v>0.3475843389107069</v>
+        <v>0.3475843389107496</v>
       </c>
       <c r="E11">
-        <v>0.07771675551438761</v>
+        <v>0.07771675551441248</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.210294724091966</v>
+        <v>4.210294724091995</v>
       </c>
       <c r="H11">
-        <v>3.055113684048379</v>
+        <v>3.055113684048351</v>
       </c>
       <c r="I11">
-        <v>0.00707374225930435</v>
+        <v>0.007073742259319005</v>
       </c>
       <c r="J11">
         <v>0.9498327654687699</v>
       </c>
       <c r="K11">
-        <v>0.2809628497677252</v>
+        <v>0.2809628497677323</v>
       </c>
       <c r="L11">
-        <v>0.946438221608453</v>
+        <v>0.9464382216084601</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.091735747887412</v>
+        <v>3.091735747887299</v>
       </c>
       <c r="C12">
-        <v>1.154072191111595</v>
+        <v>1.154072191111197</v>
       </c>
       <c r="D12">
-        <v>0.3573982471357198</v>
+        <v>0.3573982471356771</v>
       </c>
       <c r="E12">
-        <v>0.07946343254813115</v>
+        <v>0.07946343254814892</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.313764075959227</v>
+        <v>4.313764075959256</v>
       </c>
       <c r="H12">
         <v>3.125584443971846</v>
       </c>
       <c r="I12">
-        <v>0.007104489827181926</v>
+        <v>0.007104489827147731</v>
       </c>
       <c r="J12">
-        <v>0.9778109666796269</v>
+        <v>0.9778109666795984</v>
       </c>
       <c r="K12">
-        <v>0.2888168202192887</v>
+        <v>0.2888168202193313</v>
       </c>
       <c r="L12">
-        <v>0.9738948939282608</v>
+        <v>0.973894893928275</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.072722259372654</v>
+        <v>3.072722259372767</v>
       </c>
       <c r="C13">
-        <v>1.146847929606622</v>
+        <v>1.146847929606679</v>
       </c>
       <c r="D13">
-        <v>0.3552770732365502</v>
+        <v>0.3552770732361239</v>
       </c>
       <c r="E13">
-        <v>0.0790857336485864</v>
+        <v>0.07908573364859706</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>4.291389650267263</v>
       </c>
       <c r="H13">
-        <v>3.110344589997695</v>
+        <v>3.110344589997723</v>
       </c>
       <c r="I13">
-        <v>0.007097821769732615</v>
+        <v>0.007097821769716628</v>
       </c>
       <c r="J13">
         <v>0.9717649391647143</v>
       </c>
       <c r="K13">
-        <v>0.2871189733391475</v>
+        <v>0.2871189733391759</v>
       </c>
       <c r="L13">
-        <v>0.9679609971637717</v>
+        <v>0.9679609971638001</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.010952445320015</v>
+        <v>3.010952445319901</v>
       </c>
       <c r="C14">
-        <v>1.123388000856835</v>
+        <v>1.123388000857119</v>
       </c>
       <c r="D14">
-        <v>0.3483883634606144</v>
+        <v>0.3483883634604297</v>
       </c>
       <c r="E14">
-        <v>0.07785977792973497</v>
+        <v>0.07785977792965681</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>3.060883424198892</v>
       </c>
       <c r="I14">
-        <v>0.007076251387049037</v>
+        <v>0.007076251387009957</v>
       </c>
       <c r="J14">
         <v>0.9521254639002592</v>
       </c>
       <c r="K14">
-        <v>0.2816061718142251</v>
+        <v>0.281606171814289</v>
       </c>
       <c r="L14">
-        <v>0.9486879251022913</v>
+        <v>0.94868792510227</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.973294600276006</v>
+        <v>2.973294600275892</v>
       </c>
       <c r="C15">
-        <v>1.109093025376694</v>
+        <v>1.109093025376183</v>
       </c>
       <c r="D15">
-        <v>0.3441905264832315</v>
+        <v>0.3441905264836151</v>
       </c>
       <c r="E15">
-        <v>0.07711320984585157</v>
+        <v>0.07711320984584447</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.17454267861396</v>
+        <v>4.174542678613932</v>
       </c>
       <c r="H15">
-        <v>3.030766833486396</v>
+        <v>3.030766833486425</v>
       </c>
       <c r="I15">
-        <v>0.007063170812642738</v>
+        <v>0.007063170812600994</v>
       </c>
       <c r="J15">
         <v>0.9401541475466502</v>
       </c>
       <c r="K15">
-        <v>0.2782476261859799</v>
+        <v>0.278247626185923</v>
       </c>
       <c r="L15">
-        <v>0.9369416308867571</v>
+        <v>0.9369416308867642</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.760046137169979</v>
+        <v>2.760046137170036</v>
       </c>
       <c r="C16">
-        <v>1.028247289509238</v>
+        <v>1.028247289509324</v>
       </c>
       <c r="D16">
-        <v>0.3204467701766731</v>
+        <v>0.32044677017673</v>
       </c>
       <c r="E16">
-        <v>0.07289812839827903</v>
+        <v>0.0728981283983714</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.924849341440193</v>
+        <v>3.924849341440137</v>
       </c>
       <c r="H16">
-        <v>2.86077477400417</v>
+        <v>2.860774774004142</v>
       </c>
       <c r="I16">
-        <v>0.006990113686607735</v>
+        <v>0.006990113686562438</v>
       </c>
       <c r="J16">
         <v>0.8723893096257598</v>
       </c>
       <c r="K16">
-        <v>0.2592632930919052</v>
+        <v>0.2592632930919407</v>
       </c>
       <c r="L16">
-        <v>0.8704767319498856</v>
+        <v>0.8704767319498714</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,13 +985,13 @@
         <v>2.631324701316714</v>
       </c>
       <c r="C17">
-        <v>0.9795313721725734</v>
+        <v>0.9795313721722891</v>
       </c>
       <c r="D17">
-        <v>0.3061386751588202</v>
+        <v>0.3061386751585928</v>
       </c>
       <c r="E17">
-        <v>0.07036488481275782</v>
+        <v>0.0703648848127969</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>3.774763493804642</v>
       </c>
       <c r="H17">
-        <v>2.758638169919053</v>
+        <v>2.758638169919095</v>
       </c>
       <c r="I17">
-        <v>0.006946870763534285</v>
+        <v>0.006946870763484991</v>
       </c>
       <c r="J17">
-        <v>0.8315062870265706</v>
+        <v>0.8315062870265564</v>
       </c>
       <c r="K17">
-        <v>0.2478335562462632</v>
+        <v>0.2478335562462988</v>
       </c>
       <c r="L17">
-        <v>0.8304018698087745</v>
+        <v>0.8304018698087674</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.557992186988201</v>
+        <v>2.557992186988258</v>
       </c>
       <c r="C18">
-        <v>0.951805958097566</v>
+        <v>0.9518059580970828</v>
       </c>
       <c r="D18">
-        <v>0.2979960371490336</v>
+        <v>0.2979960371494457</v>
       </c>
       <c r="E18">
-        <v>0.06892571650717727</v>
+        <v>0.06892571650714174</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>3.689483869387715</v>
       </c>
       <c r="H18">
-        <v>2.700618853403597</v>
+        <v>2.700618853403569</v>
       </c>
       <c r="I18">
-        <v>0.006922531909620666</v>
+        <v>0.006922531909622442</v>
       </c>
       <c r="J18">
-        <v>0.8082223359382681</v>
+        <v>0.8082223359382965</v>
       </c>
       <c r="K18">
         <v>0.2413325450811215</v>
       </c>
       <c r="L18">
-        <v>0.8075871806875199</v>
+        <v>0.8075871806875128</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.533278077174202</v>
+        <v>2.533278077174373</v>
       </c>
       <c r="C19">
-        <v>0.9424666409819338</v>
+        <v>0.9424666409824738</v>
       </c>
       <c r="D19">
-        <v>0.2952533225226546</v>
+        <v>0.2952533225228251</v>
       </c>
       <c r="E19">
-        <v>0.06844138188898796</v>
+        <v>0.06844138188897375</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.660781109974153</v>
+        <v>3.660781109974124</v>
       </c>
       <c r="H19">
         <v>2.681093757102872</v>
       </c>
       <c r="I19">
-        <v>0.006914378719350189</v>
+        <v>0.006914378719348857</v>
       </c>
       <c r="J19">
-        <v>0.8003764588719093</v>
+        <v>0.8003764588718525</v>
       </c>
       <c r="K19">
-        <v>0.2391433804515088</v>
+        <v>0.2391433804515017</v>
       </c>
       <c r="L19">
         <v>0.7999009918328639</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.644952941063536</v>
+        <v>2.644952941063366</v>
       </c>
       <c r="C20">
-        <v>0.984686142220113</v>
+        <v>0.9846861422200561</v>
       </c>
       <c r="D20">
-        <v>0.3076526234918475</v>
+        <v>0.3076526234916486</v>
       </c>
       <c r="E20">
-        <v>0.07063267066331846</v>
+        <v>0.07063267066332557</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>3.79063018670999</v>
       </c>
       <c r="H20">
-        <v>2.769434196554329</v>
+        <v>2.7694341965543</v>
       </c>
       <c r="I20">
-        <v>0.00695141786557496</v>
+        <v>0.006951417865626031</v>
       </c>
       <c r="J20">
-        <v>0.8358339802691432</v>
+        <v>0.8358339802691575</v>
       </c>
       <c r="K20">
-        <v>0.249042567851248</v>
+        <v>0.2490425678512267</v>
       </c>
       <c r="L20">
         <v>0.8346430851229272</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.029058221186403</v>
+        <v>3.029058221186176</v>
       </c>
       <c r="C21">
         <v>1.130262953424278</v>
       </c>
       <c r="D21">
-        <v>0.3504071729234113</v>
+        <v>0.3504071729238376</v>
       </c>
       <c r="E21">
-        <v>0.07821895196609674</v>
+        <v>0.07821895196610384</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>4.240043370236322</v>
       </c>
       <c r="H21">
-        <v>3.075373496151187</v>
+        <v>3.075373496151158</v>
       </c>
       <c r="I21">
-        <v>0.007082559345191974</v>
+        <v>0.007082559345159556</v>
       </c>
       <c r="J21">
         <v>0.9578817344075219</v>
       </c>
       <c r="K21">
-        <v>0.2832215796196067</v>
+        <v>0.2832215796195641</v>
       </c>
       <c r="L21">
-        <v>0.9543364547483932</v>
+        <v>0.9543364547483861</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.287872658619392</v>
+        <v>3.287872658619563</v>
       </c>
       <c r="C22">
-        <v>1.228678761799642</v>
+        <v>1.228678761799301</v>
       </c>
       <c r="D22">
-        <v>0.3792993008409269</v>
+        <v>0.3792993008407279</v>
       </c>
       <c r="E22">
         <v>0.08336843949509287</v>
@@ -1187,22 +1187,22 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.545113556532783</v>
+        <v>4.545113556532755</v>
       </c>
       <c r="H22">
         <v>3.283197411994735</v>
       </c>
       <c r="I22">
-        <v>0.007174045548274943</v>
+        <v>0.00717404554827672</v>
       </c>
       <c r="J22">
-        <v>1.040200893341279</v>
+        <v>1.04020089334125</v>
       </c>
       <c r="K22">
-        <v>0.3063563401370004</v>
+        <v>0.3063563401370217</v>
       </c>
       <c r="L22">
-        <v>1.035144680998151</v>
+        <v>1.035144680998179</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.148946696576729</v>
+        <v>3.148946696576672</v>
       </c>
       <c r="C23">
-        <v>1.175818343193498</v>
+        <v>1.175818343193043</v>
       </c>
       <c r="D23">
-        <v>0.3637828661335902</v>
+        <v>0.3637828661337892</v>
       </c>
       <c r="E23">
-        <v>0.08060084518700705</v>
+        <v>0.08060084518705324</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>3.171482953390665</v>
       </c>
       <c r="I23">
-        <v>0.007124633935168934</v>
+        <v>0.007124633935170266</v>
       </c>
       <c r="J23">
         <v>0.9960054317535594</v>
       </c>
       <c r="K23">
-        <v>0.2939282151982283</v>
+        <v>0.2939282151981715</v>
       </c>
       <c r="L23">
-        <v>0.9917537422464804</v>
+        <v>0.9917537422464875</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.638789539118989</v>
+        <v>2.638789539119159</v>
       </c>
       <c r="C24">
-        <v>0.9823547990388874</v>
+        <v>0.9823547990391432</v>
       </c>
       <c r="D24">
-        <v>0.3069679098929896</v>
+        <v>0.3069679098931459</v>
       </c>
       <c r="E24">
-        <v>0.07051155135839693</v>
+        <v>0.07051155135836495</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.783453740486607</v>
+        <v>3.783453740486635</v>
       </c>
       <c r="H24">
-        <v>2.764551146082638</v>
+        <v>2.764551146082653</v>
       </c>
       <c r="I24">
-        <v>0.006949360505233759</v>
+        <v>0.006949360505251967</v>
       </c>
       <c r="J24">
-        <v>0.833876749351262</v>
+        <v>0.8338767493513046</v>
       </c>
       <c r="K24">
-        <v>0.2484957568976611</v>
+        <v>0.2484957568976824</v>
       </c>
       <c r="L24">
-        <v>0.8327249363069882</v>
+        <v>0.8327249363070024</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.114834591013107</v>
+        <v>2.11483459101305</v>
       </c>
       <c r="C25">
-        <v>0.7846803406808078</v>
+        <v>0.7846803406805236</v>
       </c>
       <c r="D25">
-        <v>0.2489385953235086</v>
+        <v>0.2489385953237644</v>
       </c>
       <c r="E25">
-        <v>0.06029918904746268</v>
+        <v>0.06029918904748399</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.177898831536467</v>
+        <v>3.17789883153641</v>
       </c>
       <c r="H25">
-        <v>2.352830141366681</v>
+        <v>2.352830141366667</v>
       </c>
       <c r="I25">
-        <v>0.006780286741663755</v>
+        <v>0.006780286741660646</v>
       </c>
       <c r="J25">
-        <v>0.6676212389980023</v>
+        <v>0.6676212389979881</v>
       </c>
       <c r="K25">
-        <v>0.2022237785450187</v>
+        <v>0.2022237785450542</v>
       </c>
       <c r="L25">
-        <v>0.6699860054277309</v>
+        <v>0.669986005427738</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.745112720920588</v>
+        <v>1.745191760904561</v>
       </c>
       <c r="C2">
-        <v>0.6457816345377125</v>
+        <v>0.6450182771817481</v>
       </c>
       <c r="D2">
-        <v>0.2082426170104981</v>
+        <v>0.2082538526871787</v>
       </c>
       <c r="E2">
-        <v>0.0532145790459424</v>
+        <v>0.05323931643964031</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.756755763317685</v>
+        <v>0.8805880110335096</v>
       </c>
       <c r="H2">
-        <v>2.06693869183043</v>
+        <v>1.871567632714005</v>
       </c>
       <c r="I2">
-        <v>0.006668583001102846</v>
+        <v>2.061343474082022</v>
       </c>
       <c r="J2">
-        <v>0.5504535190982267</v>
+        <v>0.006670862355672602</v>
       </c>
       <c r="K2">
-        <v>0.1698650709795508</v>
+        <v>0.5502737899888217</v>
       </c>
       <c r="L2">
-        <v>0.5556002897470194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1697939148892473</v>
+      </c>
+      <c r="M2">
+        <v>0.5555207440584908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.501869936554101</v>
+        <v>1.501972094888231</v>
       </c>
       <c r="C3">
-        <v>0.5546454485550498</v>
+        <v>0.5539916410187971</v>
       </c>
       <c r="D3">
-        <v>0.1816125007482015</v>
+        <v>0.1816243950901253</v>
       </c>
       <c r="E3">
-        <v>0.04862557363163944</v>
+        <v>0.04864908435781601</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.483078609881289</v>
+        <v>0.7866768336210441</v>
       </c>
       <c r="H3">
-        <v>1.881412413157094</v>
+        <v>1.692885824488144</v>
       </c>
       <c r="I3">
-        <v>0.006599069899179133</v>
+        <v>1.876454197211132</v>
       </c>
       <c r="J3">
-        <v>0.4734299274610123</v>
+        <v>0.006601962174486609</v>
       </c>
       <c r="K3">
-        <v>0.1487392146377786</v>
+        <v>0.4732833647660897</v>
       </c>
       <c r="L3">
-        <v>0.4805977700706734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1486776916715016</v>
+      </c>
+      <c r="M3">
+        <v>0.4805338474013183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.35536763593754</v>
+        <v>1.355477567826711</v>
       </c>
       <c r="C4">
-        <v>0.4998421321459148</v>
+        <v>0.499252548879241</v>
       </c>
       <c r="D4">
-        <v>0.1656402426717989</v>
+        <v>0.1656522648547991</v>
       </c>
       <c r="E4">
-        <v>0.04589586124541611</v>
+        <v>0.04591868041562996</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.319782426345739</v>
+        <v>0.7305629447346007</v>
       </c>
       <c r="H4">
-        <v>1.770834312732532</v>
+        <v>1.586356947592122</v>
       </c>
       <c r="I4">
-        <v>0.006558940671568037</v>
+        <v>1.76626100169041</v>
       </c>
       <c r="J4">
-        <v>0.4270612570102301</v>
+        <v>0.006562225539071598</v>
       </c>
       <c r="K4">
-        <v>0.1360898409821267</v>
+        <v>0.426932869710221</v>
       </c>
       <c r="L4">
-        <v>0.4355407222740268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1360338819551252</v>
+      </c>
+      <c r="M4">
+        <v>0.4354847164061439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.296282424214269</v>
+        <v>1.296394112825965</v>
       </c>
       <c r="C5">
-        <v>0.4777568342551604</v>
+        <v>0.4771927710287969</v>
       </c>
       <c r="D5">
-        <v>0.1592147028047464</v>
+        <v>0.1592267204586193</v>
       </c>
       <c r="E5">
-        <v>0.04480336025823028</v>
+        <v>0.04482591342136999</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.254291093110908</v>
+        <v>0.7080382137434071</v>
       </c>
       <c r="H5">
-        <v>1.726515418117799</v>
+        <v>1.543654074962035</v>
       </c>
       <c r="I5">
-        <v>0.006543162860525475</v>
+        <v>1.722097701039345</v>
       </c>
       <c r="J5">
-        <v>0.408364782822197</v>
+        <v>0.006546611976921746</v>
       </c>
       <c r="K5">
-        <v>0.1310061701269447</v>
+        <v>0.4082433251386419</v>
       </c>
       <c r="L5">
-        <v>0.4173969616535018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1309524046571866</v>
+      </c>
+      <c r="M5">
+        <v>0.4173438172139825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.286505782457681</v>
+        <v>1.286617683023678</v>
       </c>
       <c r="C6">
-        <v>0.4741033598660636</v>
+        <v>0.4735434978904323</v>
       </c>
       <c r="D6">
-        <v>0.1581524480209566</v>
+        <v>0.1581644618444074</v>
       </c>
       <c r="E6">
-        <v>0.04462309022336619</v>
+        <v>0.04464560017716757</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.243476078036949</v>
+        <v>0.7043173659169071</v>
       </c>
       <c r="H6">
-        <v>1.719198497773121</v>
+        <v>1.536603560940932</v>
       </c>
       <c r="I6">
-        <v>0.006540575879079302</v>
+        <v>1.714806549285555</v>
       </c>
       <c r="J6">
-        <v>0.4052713620339503</v>
+        <v>0.006544052531171518</v>
       </c>
       <c r="K6">
-        <v>0.1301660490720202</v>
+        <v>0.4051510281758084</v>
       </c>
       <c r="L6">
-        <v>0.4143964300927081</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1301126437693014</v>
+      </c>
+      <c r="M6">
+        <v>0.4143437402817014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.354568425831843</v>
+        <v>1.35467838687552</v>
       </c>
       <c r="C7">
-        <v>0.4995433336587496</v>
+        <v>0.4989540970642281</v>
       </c>
       <c r="D7">
-        <v>0.1655532633873946</v>
+        <v>0.1655652857230479</v>
       </c>
       <c r="E7">
-        <v>0.04588104972097362</v>
+        <v>0.0459038652393442</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.318895098149795</v>
+        <v>0.7302578422396664</v>
       </c>
       <c r="H7">
-        <v>1.770233726906284</v>
+        <v>1.585778288265502</v>
       </c>
       <c r="I7">
-        <v>0.00655872564101978</v>
+        <v>1.765662518972334</v>
       </c>
       <c r="J7">
-        <v>0.4268083451940399</v>
+        <v>0.006562012706170961</v>
       </c>
       <c r="K7">
-        <v>0.1360210055786943</v>
+        <v>0.426680053190104</v>
       </c>
       <c r="L7">
-        <v>0.4352951902640854</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1359650764159177</v>
+      </c>
+      <c r="M7">
+        <v>0.435239224393591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.660587256305149</v>
+        <v>1.660675731142817</v>
       </c>
       <c r="C8">
-        <v>0.61409108140532</v>
+        <v>0.6133661998664195</v>
       </c>
       <c r="D8">
-        <v>0.1989743923679299</v>
+        <v>0.1989859209773073</v>
       </c>
       <c r="E8">
-        <v>0.05161262259829513</v>
+        <v>0.05163692448996571</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.661319484726008</v>
+        <v>0.8478564038145038</v>
       </c>
       <c r="H8">
-        <v>2.002216133660554</v>
+        <v>1.809239672596348</v>
       </c>
       <c r="I8">
-        <v>0.006644043042300929</v>
+        <v>1.996842039189005</v>
       </c>
       <c r="J8">
-        <v>0.5236829352891732</v>
+        <v>0.006646530472724788</v>
       </c>
       <c r="K8">
-        <v>0.1625077789618175</v>
+        <v>0.5235151434310339</v>
       </c>
       <c r="L8">
-        <v>0.5295122000904726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1624400265161796</v>
+      </c>
+      <c r="M8">
+        <v>0.5294384255524491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.28843666702187</v>
+        <v>2.2884212825291</v>
       </c>
       <c r="C9">
-        <v>0.8500647500314074</v>
+        <v>0.8490438353284446</v>
       </c>
       <c r="D9">
-        <v>0.2681238601255842</v>
+        <v>0.2681315191686906</v>
       </c>
       <c r="E9">
-        <v>0.0636630873278996</v>
+        <v>0.06369076770332782</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.377498542763192</v>
+        <v>1.093133075696443</v>
       </c>
       <c r="H9">
-        <v>2.488465465942525</v>
+        <v>2.277341106045441</v>
       </c>
       <c r="I9">
-        <v>0.006834989196451424</v>
+        <v>2.481451733950522</v>
       </c>
       <c r="J9">
-        <v>0.7226786439736514</v>
+        <v>0.006836027926537369</v>
       </c>
       <c r="K9">
-        <v>0.2175060131633018</v>
+        <v>0.7224121486237394</v>
       </c>
       <c r="L9">
-        <v>0.7238313664377571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2174115172661288</v>
+      </c>
+      <c r="M9">
+        <v>0.7237063551088525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.774834361234298</v>
+        <v>2.774686911907281</v>
       </c>
       <c r="C10">
-        <v>1.033848081905859</v>
+        <v>1.032581498374441</v>
       </c>
       <c r="D10">
-        <v>0.3220917628062807</v>
+        <v>0.3220935764924917</v>
       </c>
       <c r="E10">
-        <v>0.07318971421595677</v>
+        <v>0.07322009980682864</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.94212331104228</v>
+        <v>1.286065157568231</v>
       </c>
       <c r="H10">
-        <v>2.872532190373732</v>
+        <v>2.646853897881982</v>
       </c>
       <c r="I10">
-        <v>0.006995123487648414</v>
+        <v>2.864248075368479</v>
       </c>
       <c r="J10">
-        <v>0.877087196606567</v>
+        <v>0.006995153995715597</v>
       </c>
       <c r="K10">
-        <v>0.260577866792076</v>
+        <v>0.8767287316973977</v>
       </c>
       <c r="L10">
-        <v>0.8750829675475842</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2604602307176762</v>
+      </c>
+      <c r="M10">
+        <v>0.8749052553347454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.003740706839665</v>
+        <v>3.003515863526616</v>
       </c>
       <c r="C11">
-        <v>1.120649985286775</v>
+        <v>1.119262727952616</v>
       </c>
       <c r="D11">
-        <v>0.3475843389107496</v>
+        <v>0.3475824710903481</v>
       </c>
       <c r="E11">
-        <v>0.07771675551441248</v>
+        <v>0.07774839674972966</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.210294724091995</v>
+        <v>1.377598624367522</v>
       </c>
       <c r="H11">
-        <v>3.055113684048351</v>
+        <v>2.8224611115279</v>
       </c>
       <c r="I11">
-        <v>0.007073742259319005</v>
+        <v>3.046230171551997</v>
       </c>
       <c r="J11">
-        <v>0.9498327654687699</v>
+        <v>0.007073321353646911</v>
       </c>
       <c r="K11">
-        <v>0.2809628497677323</v>
+        <v>0.9494263796135414</v>
       </c>
       <c r="L11">
-        <v>0.9464382216084601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.280833541842135</v>
+      </c>
+      <c r="M11">
+        <v>0.9462317848946853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.091735747887299</v>
+        <v>3.09147855315814</v>
       </c>
       <c r="C12">
-        <v>1.154072191111197</v>
+        <v>1.152637661479162</v>
       </c>
       <c r="D12">
-        <v>0.3573982471356771</v>
+        <v>0.357394797420568</v>
       </c>
       <c r="E12">
-        <v>0.07946343254814892</v>
+        <v>0.07949554982197071</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.313764075959256</v>
+        <v>1.412900345799358</v>
       </c>
       <c r="H12">
-        <v>3.125584443971846</v>
+        <v>2.890231527213842</v>
       </c>
       <c r="I12">
-        <v>0.007104489827147731</v>
+        <v>3.116470124954546</v>
       </c>
       <c r="J12">
-        <v>0.9778109666795984</v>
+        <v>0.007103898485190552</v>
       </c>
       <c r="K12">
-        <v>0.2888168202193313</v>
+        <v>0.9773853627658013</v>
       </c>
       <c r="L12">
-        <v>0.973894893928275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.288682886098286</v>
+      </c>
+      <c r="M12">
+        <v>0.973676738376156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.072722259372767</v>
+        <v>3.072472177610507</v>
       </c>
       <c r="C13">
-        <v>1.146847929606679</v>
+        <v>1.14542365632883</v>
       </c>
       <c r="D13">
-        <v>0.3552770732361239</v>
+        <v>0.355273973320223</v>
       </c>
       <c r="E13">
-        <v>0.07908573364859706</v>
+        <v>0.07911774843501007</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.291389650267263</v>
+        <v>1.405267297077984</v>
       </c>
       <c r="H13">
-        <v>3.110344589997723</v>
+        <v>2.87557602730638</v>
       </c>
       <c r="I13">
-        <v>0.007097821769716628</v>
+        <v>3.10128016280099</v>
       </c>
       <c r="J13">
-        <v>0.9717649391647143</v>
+        <v>0.007097267121715323</v>
       </c>
       <c r="K13">
-        <v>0.2871189733391759</v>
+        <v>0.9713435254453486</v>
       </c>
       <c r="L13">
-        <v>0.9679609971638001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2869860454949702</v>
+      </c>
+      <c r="M13">
+        <v>0.9677454058045143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.010952445319901</v>
+        <v>3.010725005046879</v>
       </c>
       <c r="C14">
-        <v>1.123388000857119</v>
+        <v>1.121996887882688</v>
       </c>
       <c r="D14">
-        <v>0.3483883634604297</v>
+        <v>0.3483863695300187</v>
       </c>
       <c r="E14">
-        <v>0.07785977792965681</v>
+        <v>0.07789145833936573</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.218766930704504</v>
+        <v>1.380489475187801</v>
       </c>
       <c r="H14">
-        <v>3.060883424198892</v>
+        <v>2.828009934659264</v>
       </c>
       <c r="I14">
-        <v>0.007076251387009957</v>
+        <v>3.051981004551948</v>
       </c>
       <c r="J14">
-        <v>0.9521254639002592</v>
+        <v>0.007075816452851935</v>
       </c>
       <c r="K14">
-        <v>0.281606171814289</v>
+        <v>0.9517175197145349</v>
       </c>
       <c r="L14">
-        <v>0.94868792510227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2814764876964446</v>
+      </c>
+      <c r="M14">
+        <v>0.9484805421712323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.973294600275892</v>
+        <v>2.973080613665047</v>
       </c>
       <c r="C15">
-        <v>1.109093025376183</v>
+        <v>1.107722009088207</v>
       </c>
       <c r="D15">
-        <v>0.3441905264836151</v>
+        <v>0.344189184164776</v>
       </c>
       <c r="E15">
-        <v>0.07711320984584447</v>
+        <v>0.07714468540281061</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.174542678613932</v>
+        <v>1.365398861324621</v>
       </c>
       <c r="H15">
-        <v>3.030766833486425</v>
+        <v>2.799046132159219</v>
       </c>
       <c r="I15">
-        <v>0.007063170812600994</v>
+        <v>3.021963125385327</v>
       </c>
       <c r="J15">
-        <v>0.9401541475466502</v>
+        <v>0.007062809254213764</v>
       </c>
       <c r="K15">
-        <v>0.278247626185923</v>
+        <v>0.9397543077537591</v>
       </c>
       <c r="L15">
-        <v>0.9369416308867642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2781199006775452</v>
+      </c>
+      <c r="M15">
+        <v>0.9367391609670435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.760046137170036</v>
+        <v>2.759903352556023</v>
       </c>
       <c r="C16">
-        <v>1.028247289509324</v>
+        <v>1.026988389111466</v>
       </c>
       <c r="D16">
-        <v>0.32044677017673</v>
+        <v>0.320448800617811</v>
       </c>
       <c r="E16">
-        <v>0.0728981283983714</v>
+        <v>0.07292843219726919</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.924849341440137</v>
+        <v>1.280167104527095</v>
       </c>
       <c r="H16">
-        <v>2.860774774004142</v>
+        <v>2.635544451583883</v>
       </c>
       <c r="I16">
-        <v>0.006990113686562438</v>
+        <v>2.852529338636458</v>
       </c>
       <c r="J16">
-        <v>0.8723893096257598</v>
+        <v>0.006990173798075094</v>
       </c>
       <c r="K16">
-        <v>0.2592632930919407</v>
+        <v>0.8720338381619399</v>
       </c>
       <c r="L16">
-        <v>0.8704767319498714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2591463934050395</v>
+      </c>
+      <c r="M16">
+        <v>0.8703007885924379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.631324701316714</v>
+        <v>2.63122080299695</v>
       </c>
       <c r="C17">
-        <v>0.9795313721722891</v>
+        <v>0.9783387765360771</v>
       </c>
       <c r="D17">
-        <v>0.3061386751585928</v>
+        <v>0.3061424867463103</v>
       </c>
       <c r="E17">
-        <v>0.0703648848127969</v>
+        <v>0.0703944743421161</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.774763493804642</v>
+        <v>1.228910502876062</v>
       </c>
       <c r="H17">
-        <v>2.758638169919095</v>
+        <v>2.537293223303152</v>
       </c>
       <c r="I17">
-        <v>0.006946870763484991</v>
+        <v>2.75072922927292</v>
       </c>
       <c r="J17">
-        <v>0.8315062870265564</v>
+        <v>0.006947191064639924</v>
       </c>
       <c r="K17">
-        <v>0.2478335562462988</v>
+        <v>0.8311763484903025</v>
       </c>
       <c r="L17">
-        <v>0.8304018698087674</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2477229777103744</v>
+      </c>
+      <c r="M17">
+        <v>0.8302408806251194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.557992186988258</v>
+        <v>2.557909064326964</v>
       </c>
       <c r="C18">
-        <v>0.9518059580970828</v>
+        <v>0.9506506804950732</v>
       </c>
       <c r="D18">
-        <v>0.2979960371494457</v>
+        <v>0.2980007799104527</v>
       </c>
       <c r="E18">
-        <v>0.06892571650714174</v>
+        <v>0.0689548977994825</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.689483869387715</v>
+        <v>1.1997770150777</v>
       </c>
       <c r="H18">
-        <v>2.700618853403569</v>
+        <v>2.481475956850232</v>
       </c>
       <c r="I18">
-        <v>0.006922531909622442</v>
+        <v>2.692901483879936</v>
       </c>
       <c r="J18">
-        <v>0.8082223359382965</v>
+        <v>0.006923002584112048</v>
       </c>
       <c r="K18">
-        <v>0.2413325450811215</v>
+        <v>0.8079065245631369</v>
       </c>
       <c r="L18">
-        <v>0.8075871806875128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2412254974786663</v>
+      </c>
+      <c r="M18">
+        <v>0.8074343568624442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.533278077174373</v>
+        <v>2.533201730611154</v>
       </c>
       <c r="C19">
-        <v>0.9424666409824738</v>
+        <v>0.9413238660063712</v>
       </c>
       <c r="D19">
-        <v>0.2952533225228251</v>
+        <v>0.2952583656285839</v>
       </c>
       <c r="E19">
-        <v>0.06844138188897375</v>
+        <v>0.06847042548045934</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.660781109974124</v>
+        <v>1.189969922446551</v>
       </c>
       <c r="H19">
-        <v>2.681093757102872</v>
+        <v>2.462691058461189</v>
       </c>
       <c r="I19">
-        <v>0.006914378719348857</v>
+        <v>2.673440931890084</v>
       </c>
       <c r="J19">
-        <v>0.8003764588718525</v>
+        <v>0.00691490044553067</v>
       </c>
       <c r="K19">
-        <v>0.2391433804515017</v>
+        <v>0.8000653400961681</v>
       </c>
       <c r="L19">
-        <v>0.7999009918328639</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2390375114806105</v>
+      </c>
+      <c r="M19">
+        <v>0.799750862076948</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.644952941063366</v>
+        <v>2.64484507150604</v>
       </c>
       <c r="C20">
-        <v>0.9846861422200561</v>
+        <v>0.98348657499875</v>
       </c>
       <c r="D20">
-        <v>0.3076526234916486</v>
+        <v>0.3076562553932831</v>
       </c>
       <c r="E20">
-        <v>0.07063267066332557</v>
+        <v>0.0706623359783336</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.79063018670999</v>
+        <v>1.234330179377821</v>
       </c>
       <c r="H20">
-        <v>2.7694341965543</v>
+        <v>2.547679088843324</v>
       </c>
       <c r="I20">
-        <v>0.006951417865626031</v>
+        <v>2.761489644441426</v>
       </c>
       <c r="J20">
-        <v>0.8358339802691575</v>
+        <v>0.006951710398142463</v>
       </c>
       <c r="K20">
-        <v>0.2490425678512267</v>
+        <v>0.8355013828278715</v>
       </c>
       <c r="L20">
-        <v>0.8346430851229272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2489313275392604</v>
+      </c>
+      <c r="M20">
+        <v>0.8344805501934189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.029058221186176</v>
+        <v>3.028824218188618</v>
       </c>
       <c r="C21">
-        <v>1.130262953424278</v>
+        <v>1.128862145874905</v>
       </c>
       <c r="D21">
-        <v>0.3504071729238376</v>
+        <v>0.3504048596095402</v>
       </c>
       <c r="E21">
-        <v>0.07821895196610384</v>
+        <v>0.07825073060515564</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.240043370236322</v>
+        <v>1.387749094740144</v>
       </c>
       <c r="H21">
-        <v>3.075373496151158</v>
+        <v>2.8419450614509</v>
       </c>
       <c r="I21">
-        <v>0.007082559345159556</v>
+        <v>3.066423601422485</v>
       </c>
       <c r="J21">
-        <v>0.9578817344075219</v>
+        <v>0.007082089239367928</v>
       </c>
       <c r="K21">
-        <v>0.2832215796195641</v>
+        <v>0.9574698647496547</v>
       </c>
       <c r="L21">
-        <v>0.9543364547483861</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2830909487197459</v>
+      </c>
+      <c r="M21">
+        <v>0.9541266850796433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.287872658619563</v>
+        <v>3.287538126558729</v>
       </c>
       <c r="C22">
-        <v>1.228678761799301</v>
+        <v>1.227137063597354</v>
       </c>
       <c r="D22">
-        <v>0.3792993008407279</v>
+        <v>0.3792919806541875</v>
       </c>
       <c r="E22">
-        <v>0.08336843949509287</v>
+        <v>0.08340160024426879</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.545113556532755</v>
+        <v>1.491804704039197</v>
       </c>
       <c r="H22">
-        <v>3.283197411994735</v>
+        <v>3.04178910901723</v>
       </c>
       <c r="I22">
-        <v>0.00717404554827672</v>
+        <v>3.273567705524599</v>
       </c>
       <c r="J22">
-        <v>1.04020089334125</v>
+        <v>0.007173079604544164</v>
       </c>
       <c r="K22">
-        <v>0.3063563401370217</v>
+        <v>1.039730845496067</v>
       </c>
       <c r="L22">
-        <v>1.035144680998179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.3062118070065409</v>
+      </c>
+      <c r="M22">
+        <v>1.034899034801128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.148946696576672</v>
+        <v>3.14866769058608</v>
       </c>
       <c r="C23">
-        <v>1.175818343193043</v>
+        <v>1.174352812037512</v>
       </c>
       <c r="D23">
-        <v>0.3637828661337892</v>
+        <v>0.3637783370537022</v>
       </c>
       <c r="E23">
-        <v>0.08060084518705324</v>
+        <v>0.08063326950956196</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.381144766894664</v>
+        <v>1.435885133736491</v>
       </c>
       <c r="H23">
-        <v>3.171482953390665</v>
+        <v>2.93436886151477</v>
       </c>
       <c r="I23">
-        <v>0.007124633935170266</v>
+        <v>3.162218440351779</v>
       </c>
       <c r="J23">
-        <v>0.9960054317535594</v>
+        <v>0.007123932604940819</v>
       </c>
       <c r="K23">
-        <v>0.2939282151981715</v>
+        <v>0.9955670940878889</v>
       </c>
       <c r="L23">
-        <v>0.9917537422464875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2937912308333281</v>
+      </c>
+      <c r="M23">
+        <v>0.991527764151229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.638789539119159</v>
+        <v>2.638683469840942</v>
       </c>
       <c r="C24">
-        <v>0.9823547990391432</v>
+        <v>0.9811583861460633</v>
       </c>
       <c r="D24">
-        <v>0.3069679098931459</v>
+        <v>0.3069716233167554</v>
       </c>
       <c r="E24">
-        <v>0.07051155135836495</v>
+        <v>0.0705411824029909</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.783453740486635</v>
+        <v>1.231878908593927</v>
       </c>
       <c r="H24">
-        <v>2.764551146082653</v>
+        <v>2.542981570329374</v>
       </c>
       <c r="I24">
-        <v>0.006949360505251967</v>
+        <v>2.75662269972797</v>
       </c>
       <c r="J24">
-        <v>0.8338767493513046</v>
+        <v>0.006949665589490728</v>
       </c>
       <c r="K24">
-        <v>0.2484957568976824</v>
+        <v>0.8335453557062067</v>
       </c>
       <c r="L24">
-        <v>0.8327249363070024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2483848160930151</v>
+      </c>
+      <c r="M24">
+        <v>0.8325631015432791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.11483459101305</v>
+        <v>2.114855584939789</v>
       </c>
       <c r="C25">
-        <v>0.7846803406805236</v>
+        <v>0.7837436420018378</v>
       </c>
       <c r="D25">
-        <v>0.2489385953237644</v>
+        <v>0.2489477234484951</v>
       </c>
       <c r="E25">
-        <v>0.06029918904748399</v>
+        <v>0.06032591043706859</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.17789883153641</v>
+        <v>1.024847431407935</v>
       </c>
       <c r="H25">
-        <v>2.352830141366667</v>
+        <v>2.146802478343147</v>
       </c>
       <c r="I25">
-        <v>0.006780286741660646</v>
+        <v>2.346269392341512</v>
       </c>
       <c r="J25">
-        <v>0.6676212389979881</v>
+        <v>0.006781706117321651</v>
       </c>
       <c r="K25">
-        <v>0.2022237785450542</v>
+        <v>0.667384321333067</v>
       </c>
       <c r="L25">
-        <v>0.669986005427738</v>
+        <v>0.2021370195544918</v>
+      </c>
+      <c r="M25">
+        <v>0.6698770717705358</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.745191760904561</v>
+        <v>3.418078497369891</v>
       </c>
       <c r="C2">
-        <v>0.6450182771817481</v>
+        <v>0.3911793699691941</v>
       </c>
       <c r="D2">
-        <v>0.2082538526871787</v>
+        <v>0.1869911734442695</v>
       </c>
       <c r="E2">
-        <v>0.05323931643964031</v>
+        <v>0.03135104215099593</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8805880110335096</v>
+        <v>0.0008629067202887697</v>
       </c>
       <c r="H2">
-        <v>1.871567632714005</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.061343474082022</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006670862355672602</v>
+        <v>0.03655671797247351</v>
       </c>
       <c r="K2">
-        <v>0.5502737899888217</v>
+        <v>0.7915072802392302</v>
       </c>
       <c r="L2">
-        <v>0.1697939148892473</v>
+        <v>0.2814534668392668</v>
       </c>
       <c r="M2">
-        <v>0.5555207440584908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.6271246327301441</v>
+      </c>
+      <c r="N2">
+        <v>2.563252710731732</v>
+      </c>
+      <c r="O2">
+        <v>2.71521000209961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.501972094888231</v>
+        <v>3.055854793139076</v>
       </c>
       <c r="C3">
-        <v>0.5539916410187971</v>
+        <v>0.3371712501969455</v>
       </c>
       <c r="D3">
-        <v>0.1816243950901253</v>
+        <v>0.1781132228452265</v>
       </c>
       <c r="E3">
-        <v>0.04864908435781601</v>
+        <v>0.03159349360893415</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7866768336210441</v>
+        <v>0.00087238160133855</v>
       </c>
       <c r="H3">
-        <v>1.692885824488144</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.876454197211132</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006601962174486609</v>
+        <v>0.03244993716407407</v>
       </c>
       <c r="K3">
-        <v>0.4732833647660897</v>
+        <v>0.7009198418846623</v>
       </c>
       <c r="L3">
-        <v>0.1486776916715016</v>
+        <v>0.2627020964627746</v>
       </c>
       <c r="M3">
-        <v>0.4805338474013183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.5664247027061933</v>
+      </c>
+      <c r="N3">
+        <v>2.572749349951707</v>
+      </c>
+      <c r="O3">
+        <v>2.572208206219258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.355477567826711</v>
+        <v>2.839227088202563</v>
       </c>
       <c r="C4">
-        <v>0.499252548879241</v>
+        <v>0.3046379916384581</v>
       </c>
       <c r="D4">
-        <v>0.1656522648547991</v>
+        <v>0.1729297476751341</v>
       </c>
       <c r="E4">
-        <v>0.04591868041562996</v>
+        <v>0.03175769994339195</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7305629447346007</v>
+        <v>0.0008783559084185527</v>
       </c>
       <c r="H4">
-        <v>1.586356947592122</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.76626100169041</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.006562225539071598</v>
+        <v>0.02995613415541243</v>
       </c>
       <c r="K4">
-        <v>0.426932869710221</v>
+        <v>0.6466490740437578</v>
       </c>
       <c r="L4">
-        <v>0.1360338819551252</v>
+        <v>0.2516349721536315</v>
       </c>
       <c r="M4">
-        <v>0.4354847164061439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.5302129374634603</v>
+      </c>
+      <c r="N4">
+        <v>2.58101242225969</v>
+      </c>
+      <c r="O4">
+        <v>2.488853857343898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.296394112825965</v>
+        <v>2.752256339216387</v>
       </c>
       <c r="C5">
-        <v>0.4771927710287969</v>
+        <v>0.2915166014309989</v>
       </c>
       <c r="D5">
-        <v>0.1592267204586193</v>
+        <v>0.1708802593622067</v>
       </c>
       <c r="E5">
-        <v>0.04482591342136999</v>
+        <v>0.03182841243553813</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7080382137434071</v>
+        <v>0.0008808317351034829</v>
       </c>
       <c r="H5">
-        <v>1.543654074962035</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.722097701039345</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.006546611976921746</v>
+        <v>0.02894529935775836</v>
       </c>
       <c r="K5">
-        <v>0.4082433251386419</v>
+        <v>0.6248363625351772</v>
       </c>
       <c r="L5">
-        <v>0.1309524046571866</v>
+        <v>0.2472285526774556</v>
       </c>
       <c r="M5">
-        <v>0.4173438172139825</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5156972392578467</v>
+      </c>
+      <c r="N5">
+        <v>2.584958186708533</v>
+      </c>
+      <c r="O5">
+        <v>2.455915381263566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.286617683023678</v>
+        <v>2.737889793143552</v>
       </c>
       <c r="C6">
-        <v>0.4735434978904323</v>
+        <v>0.2893454297615108</v>
       </c>
       <c r="D6">
-        <v>0.1581644618444074</v>
+        <v>0.170543613707359</v>
       </c>
       <c r="E6">
-        <v>0.04464560017716757</v>
+        <v>0.03184038188495331</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.7043173659169071</v>
+        <v>0.0008812453869122232</v>
       </c>
       <c r="H6">
-        <v>1.536603560940932</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.714806549285555</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.006544052531171518</v>
+        <v>0.02877773433256792</v>
       </c>
       <c r="K6">
-        <v>0.4051510281758084</v>
+        <v>0.6212316750247169</v>
       </c>
       <c r="L6">
-        <v>0.1301126437693014</v>
+        <v>0.2465028821537985</v>
       </c>
       <c r="M6">
-        <v>0.4143437402817014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5133007708779047</v>
+      </c>
+      <c r="N6">
+        <v>2.585647404346645</v>
+      </c>
+      <c r="O6">
+        <v>2.45050564775282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.35467838687552</v>
+        <v>2.838049063613823</v>
       </c>
       <c r="C7">
-        <v>0.4989540970642281</v>
+        <v>0.3044605079536211</v>
       </c>
       <c r="D7">
-        <v>0.1655652857230479</v>
+        <v>0.1729018588491371</v>
       </c>
       <c r="E7">
-        <v>0.0459038652393442</v>
+        <v>0.03175863829745484</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7302578422396664</v>
+        <v>0.0008783891290008398</v>
       </c>
       <c r="H7">
-        <v>1.585778288265502</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.765662518972334</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.006562012706170961</v>
+        <v>0.02994248175977532</v>
       </c>
       <c r="K7">
-        <v>0.426680053190104</v>
+        <v>0.6463537190407678</v>
       </c>
       <c r="L7">
-        <v>0.1359650764159177</v>
+        <v>0.2515751374416553</v>
       </c>
       <c r="M7">
-        <v>0.435239224393591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.5300162301032216</v>
+      </c>
+      <c r="N7">
+        <v>2.58106333554673</v>
+      </c>
+      <c r="O7">
+        <v>2.488405583813076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.660675731142817</v>
+        <v>3.291892100000211</v>
       </c>
       <c r="C8">
-        <v>0.6133661998664195</v>
+        <v>0.3724133404785448</v>
       </c>
       <c r="D8">
-        <v>0.1989859209773073</v>
+        <v>0.183871694558519</v>
       </c>
       <c r="E8">
-        <v>0.05163692448996571</v>
+        <v>0.03143141712623709</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8478564038145038</v>
+        <v>0.0008661422967112665</v>
       </c>
       <c r="H8">
-        <v>1.809239672596348</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.996842039189005</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.006646530472724788</v>
+        <v>0.0351339416115195</v>
       </c>
       <c r="K8">
-        <v>0.5235151434310339</v>
+        <v>0.7599695027328863</v>
       </c>
       <c r="L8">
-        <v>0.1624400265161796</v>
+        <v>0.2748898868257754</v>
       </c>
       <c r="M8">
-        <v>0.5294384255524491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.605959780950073</v>
+      </c>
+      <c r="N8">
+        <v>2.566001539276741</v>
+      </c>
+      <c r="O8">
+        <v>2.664923021792475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.2884212825291</v>
+        <v>4.235088071994426</v>
       </c>
       <c r="C9">
-        <v>0.8490438353284446</v>
+        <v>0.5117459382001073</v>
       </c>
       <c r="D9">
-        <v>0.2681315191686906</v>
+        <v>0.2077313340559925</v>
       </c>
       <c r="E9">
-        <v>0.06369076770332782</v>
+        <v>0.03091456699932182</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.093133075696443</v>
+        <v>0.0008432775936112462</v>
       </c>
       <c r="H9">
-        <v>2.277341106045441</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.481451733950522</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.006836027926537369</v>
+        <v>0.04561418288410835</v>
       </c>
       <c r="K9">
-        <v>0.7224121486237394</v>
+        <v>0.9953173365078101</v>
       </c>
       <c r="L9">
-        <v>0.2174115172661288</v>
+        <v>0.3245882343958186</v>
       </c>
       <c r="M9">
-        <v>0.7237063551088525</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.7645482314599192</v>
+      </c>
+      <c r="N9">
+        <v>2.557420776341459</v>
+      </c>
+      <c r="O9">
+        <v>3.050880252249712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.774686911907281</v>
+        <v>4.972053451311979</v>
       </c>
       <c r="C10">
-        <v>1.032581498374441</v>
+        <v>0.6195456422640007</v>
       </c>
       <c r="D10">
-        <v>0.3220935764924917</v>
+        <v>0.2270438360454108</v>
       </c>
       <c r="E10">
-        <v>0.07322009980682864</v>
+        <v>0.03061598125683673</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.286065157568231</v>
+        <v>0.0008270374799472839</v>
       </c>
       <c r="H10">
-        <v>2.646853897881982</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.864248075368479</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.006995153995715597</v>
+        <v>0.0536221962469412</v>
       </c>
       <c r="K10">
-        <v>0.8767287316973977</v>
+        <v>1.178760534808177</v>
       </c>
       <c r="L10">
-        <v>0.2604602307176762</v>
+        <v>0.3642134016781</v>
       </c>
       <c r="M10">
-        <v>0.8749052553347454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.8889446252048003</v>
+      </c>
+      <c r="N10">
+        <v>2.5664946578502</v>
+      </c>
+      <c r="O10">
+        <v>3.36578522401733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.003515863526616</v>
+        <v>5.319869908577687</v>
       </c>
       <c r="C11">
-        <v>1.119262727952616</v>
+        <v>0.6702166329009742</v>
       </c>
       <c r="D11">
-        <v>0.3475824710903481</v>
+        <v>0.2363075110939121</v>
       </c>
       <c r="E11">
-        <v>0.07774839674972966</v>
+        <v>0.03049913549237981</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.377598624367522</v>
+        <v>0.0008197339683563582</v>
       </c>
       <c r="H11">
-        <v>2.8224611115279</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3.046230171551997</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.007073321353646911</v>
+        <v>0.05736495350812021</v>
       </c>
       <c r="K11">
-        <v>0.9494263796135414</v>
+        <v>1.265249470024827</v>
       </c>
       <c r="L11">
-        <v>0.280833541842135</v>
+        <v>0.3830935875973438</v>
       </c>
       <c r="M11">
-        <v>0.9462317848946853</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.9477632294241261</v>
+      </c>
+      <c r="N11">
+        <v>2.57464053777295</v>
+      </c>
+      <c r="O11">
+        <v>3.517687153277677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.09147855315814</v>
+        <v>5.453675922060654</v>
       </c>
       <c r="C12">
-        <v>1.152637661479162</v>
+        <v>0.6896829703590015</v>
       </c>
       <c r="D12">
-        <v>0.357394797420568</v>
+        <v>0.2398929543763018</v>
       </c>
       <c r="E12">
-        <v>0.07949554982197071</v>
+        <v>0.03045775687838859</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.412900345799358</v>
+        <v>0.0008169769049159714</v>
       </c>
       <c r="H12">
-        <v>2.890231527213842</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3.116470124954546</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.007103898485190552</v>
+        <v>0.05879979507360034</v>
       </c>
       <c r="K12">
-        <v>0.9773853627658013</v>
+        <v>1.298510152801668</v>
       </c>
       <c r="L12">
-        <v>0.288682886098286</v>
+        <v>0.390383102045206</v>
       </c>
       <c r="M12">
-        <v>0.973676738376156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.9704068740381544</v>
+      </c>
+      <c r="N12">
+        <v>2.578369268967066</v>
+      </c>
+      <c r="O12">
+        <v>3.576630636770275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.072472177610507</v>
+        <v>5.424760185009234</v>
       </c>
       <c r="C13">
-        <v>1.14542365632883</v>
+        <v>0.6854774057712802</v>
       </c>
       <c r="D13">
-        <v>0.355273973320223</v>
+        <v>0.2391171672530703</v>
       </c>
       <c r="E13">
-        <v>0.07911774843501007</v>
+        <v>0.03046653847578806</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.405267297077984</v>
+        <v>0.0008175703652233563</v>
       </c>
       <c r="H13">
-        <v>2.87557602730638</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3.10128016280099</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.007097267121715323</v>
+        <v>0.05848994055111945</v>
       </c>
       <c r="K13">
-        <v>0.9713435254453486</v>
+        <v>1.291322966516418</v>
       </c>
       <c r="L13">
-        <v>0.2869860454949702</v>
+        <v>0.3888066501583296</v>
       </c>
       <c r="M13">
-        <v>0.9677454058045143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.9655128257668082</v>
+      </c>
+      <c r="N13">
+        <v>2.577536418781364</v>
+      </c>
+      <c r="O13">
+        <v>3.563869784132592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.010725005046879</v>
+        <v>5.330834419509983</v>
       </c>
       <c r="C14">
-        <v>1.121996887882688</v>
+        <v>0.6718122899626451</v>
       </c>
       <c r="D14">
-        <v>0.3483863695300187</v>
+        <v>0.2366008805631594</v>
       </c>
       <c r="E14">
-        <v>0.07789145833936573</v>
+        <v>0.03049567288638855</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.380489475187801</v>
+        <v>0.0008195069920557685</v>
       </c>
       <c r="H14">
-        <v>2.828009934659264</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>3.051981004551948</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.007075816452851935</v>
+        <v>0.05748262739135157</v>
       </c>
       <c r="K14">
-        <v>0.9517175197145349</v>
+        <v>1.267975192457328</v>
       </c>
       <c r="L14">
-        <v>0.2814764876964446</v>
+        <v>0.3836903880733189</v>
       </c>
       <c r="M14">
-        <v>0.9484805421712323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.9496184052000345</v>
+      </c>
+      <c r="N14">
+        <v>2.574933981681795</v>
+      </c>
+      <c r="O14">
+        <v>3.522506873590103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.973080613665047</v>
+        <v>5.273584303175369</v>
       </c>
       <c r="C15">
-        <v>1.107722009088207</v>
+        <v>0.6634796591634711</v>
       </c>
       <c r="D15">
-        <v>0.344189184164776</v>
+        <v>0.2350699523104964</v>
       </c>
       <c r="E15">
-        <v>0.07714468540281061</v>
+        <v>0.03051389660435433</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.365398861324621</v>
+        <v>0.0008206942427401143</v>
       </c>
       <c r="H15">
-        <v>2.799046132159219</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3.021963125385327</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.007062809254213764</v>
+        <v>0.05686800548384596</v>
       </c>
       <c r="K15">
-        <v>0.9397543077537591</v>
+        <v>1.253742629943346</v>
       </c>
       <c r="L15">
-        <v>0.2781199006775452</v>
+        <v>0.3805753099185409</v>
       </c>
       <c r="M15">
-        <v>0.9367391609670435</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.9399324294255749</v>
+      </c>
+      <c r="N15">
+        <v>2.573425915909525</v>
+      </c>
+      <c r="O15">
+        <v>3.497361714388077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.759903352556023</v>
+        <v>4.949599476042295</v>
       </c>
       <c r="C16">
-        <v>1.026988389111466</v>
+        <v>0.6162706104396705</v>
       </c>
       <c r="D16">
-        <v>0.320448800617811</v>
+        <v>0.2264487765553724</v>
       </c>
       <c r="E16">
-        <v>0.07292843219726919</v>
+        <v>0.03062401072465804</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.280167104527095</v>
+        <v>0.0008275161879991444</v>
       </c>
       <c r="H16">
-        <v>2.635544451583883</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.852529338636458</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.006990173798075094</v>
+        <v>0.05337986951805362</v>
       </c>
       <c r="K16">
-        <v>0.8720338381619399</v>
+        <v>1.173175386769501</v>
       </c>
       <c r="L16">
-        <v>0.2591463934050395</v>
+        <v>0.3629981432532645</v>
       </c>
       <c r="M16">
-        <v>0.8703007885924379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8851496568388626</v>
+      </c>
+      <c r="N16">
+        <v>2.566048617129326</v>
+      </c>
+      <c r="O16">
+        <v>3.35604677462824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.63122080299695</v>
+        <v>4.754257196270942</v>
       </c>
       <c r="C17">
-        <v>0.9783387765360771</v>
+        <v>0.5877566261759455</v>
       </c>
       <c r="D17">
-        <v>0.3061424867463103</v>
+        <v>0.2212883166560857</v>
       </c>
       <c r="E17">
-        <v>0.0703944743421161</v>
+        <v>0.03069651581210397</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.228910502876062</v>
+        <v>0.0008317204527816765</v>
       </c>
       <c r="H17">
-        <v>2.537293223303152</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.75072922927292</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.006947191064639924</v>
+        <v>0.05126771447847744</v>
       </c>
       <c r="K17">
-        <v>0.8311763484903025</v>
+        <v>1.124576812247426</v>
       </c>
       <c r="L17">
-        <v>0.2477229777103744</v>
+        <v>0.3524454516974913</v>
       </c>
       <c r="M17">
-        <v>0.8302408806251194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8521466269565678</v>
+      </c>
+      <c r="N17">
+        <v>2.56259634979267</v>
+      </c>
+      <c r="O17">
+        <v>3.271689076105574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.557909064326964</v>
+        <v>4.643064970588796</v>
       </c>
       <c r="C18">
-        <v>0.9506506804950732</v>
+        <v>0.5715068391293698</v>
       </c>
       <c r="D18">
-        <v>0.2980007799104527</v>
+        <v>0.218364593949417</v>
       </c>
       <c r="E18">
-        <v>0.0689548977994825</v>
+        <v>0.03073999601128419</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.1997770150777</v>
+        <v>0.0008341467938051426</v>
       </c>
       <c r="H18">
-        <v>2.481475956850232</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.692901483879936</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.006923002584112048</v>
+        <v>0.05006204428467598</v>
       </c>
       <c r="K18">
-        <v>0.8079065245631369</v>
+        <v>1.096905455137517</v>
       </c>
       <c r="L18">
-        <v>0.2412254974786663</v>
+        <v>0.3464551005432384</v>
       </c>
       <c r="M18">
-        <v>0.8074343568624442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8333707217996675</v>
+      </c>
+      <c r="N18">
+        <v>2.560984433374472</v>
+      </c>
+      <c r="O18">
+        <v>3.223970982617487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.533201730611154</v>
+        <v>4.605608861798657</v>
       </c>
       <c r="C19">
-        <v>0.9413238660063712</v>
+        <v>0.566029592585096</v>
       </c>
       <c r="D19">
-        <v>0.2952583656285839</v>
+        <v>0.2173820568607709</v>
       </c>
       <c r="E19">
-        <v>0.06847042548045934</v>
+        <v>0.03075501902582101</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.189969922446551</v>
+        <v>0.0008349698114422655</v>
       </c>
       <c r="H19">
-        <v>2.462691058461189</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.673440931890084</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.00691490044553067</v>
+        <v>0.04965531301203896</v>
       </c>
       <c r="K19">
-        <v>0.8000653400961681</v>
+        <v>1.087582675521134</v>
       </c>
       <c r="L19">
-        <v>0.2390375114806105</v>
+        <v>0.3444400017944105</v>
       </c>
       <c r="M19">
-        <v>0.799750862076948</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8270475954181862</v>
+      </c>
+      <c r="N19">
+        <v>2.560500983340404</v>
+      </c>
+      <c r="O19">
+        <v>3.207947213279738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.64484507150604</v>
+        <v>4.774929333970647</v>
       </c>
       <c r="C20">
-        <v>0.98348657499875</v>
+        <v>0.590776094807751</v>
       </c>
       <c r="D20">
-        <v>0.3076562553932831</v>
+        <v>0.2218329978853859</v>
       </c>
       <c r="E20">
-        <v>0.0706623359783336</v>
+        <v>0.03068861265582878</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.234330179377821</v>
+        <v>0.0008312720810034856</v>
       </c>
       <c r="H20">
-        <v>2.547679088843324</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.761489644441426</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.006951710398142463</v>
+        <v>0.05149158471768445</v>
       </c>
       <c r="K20">
-        <v>0.8355013828278715</v>
+        <v>1.129720613245311</v>
       </c>
       <c r="L20">
-        <v>0.2489313275392604</v>
+        <v>0.3535604820450544</v>
       </c>
       <c r="M20">
-        <v>0.8344805501934189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8556381388601864</v>
+      </c>
+      <c r="N20">
+        <v>2.562924718310342</v>
+      </c>
+      <c r="O20">
+        <v>3.280584860002321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.028824218188618</v>
+        <v>5.358363326658662</v>
       </c>
       <c r="C21">
-        <v>1.128862145874905</v>
+        <v>0.6758181332876063</v>
       </c>
       <c r="D21">
-        <v>0.3504048596095402</v>
+        <v>0.2373377966291201</v>
       </c>
       <c r="E21">
-        <v>0.07825073060515564</v>
+        <v>0.03048703633768568</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.387749094740144</v>
+        <v>0.0008189379539432483</v>
       </c>
       <c r="H21">
-        <v>2.8419450614509</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>3.066423601422485</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.007082089239367928</v>
+        <v>0.05777799600477351</v>
       </c>
       <c r="K21">
-        <v>0.9574698647496547</v>
+        <v>1.27481855552017</v>
       </c>
       <c r="L21">
-        <v>0.2830909487197459</v>
+        <v>0.3851892105615775</v>
       </c>
       <c r="M21">
-        <v>0.9541266850796433</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9542765017958388</v>
+      </c>
+      <c r="N21">
+        <v>2.57568032602569</v>
+      </c>
+      <c r="O21">
+        <v>3.534616044069054</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.287538126558729</v>
+        <v>5.752049135451216</v>
       </c>
       <c r="C22">
-        <v>1.227137063597354</v>
+        <v>0.7330453170079352</v>
       </c>
       <c r="D22">
-        <v>0.3792919806541875</v>
+        <v>0.2479276823219152</v>
       </c>
       <c r="E22">
-        <v>0.08340160024426879</v>
+        <v>0.03037209532956098</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.491804704039197</v>
+        <v>0.0008109251482447422</v>
       </c>
       <c r="H22">
-        <v>3.04178910901723</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.273567705524599</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.007173079604544164</v>
+        <v>0.06199059380935523</v>
       </c>
       <c r="K22">
-        <v>1.039730845496067</v>
+        <v>1.372657509593097</v>
       </c>
       <c r="L22">
-        <v>0.3062118070065409</v>
+        <v>0.406686156231288</v>
       </c>
       <c r="M22">
-        <v>1.034899034801128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.020929078556669</v>
+      </c>
+      <c r="N22">
+        <v>2.587808797685398</v>
+      </c>
+      <c r="O22">
+        <v>3.709027019698453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.14866769058608</v>
+        <v>5.540692976719242</v>
       </c>
       <c r="C23">
-        <v>1.174352812037512</v>
+        <v>0.7023352702100851</v>
       </c>
       <c r="D23">
-        <v>0.3637783370537022</v>
+        <v>0.2422306869245574</v>
       </c>
       <c r="E23">
-        <v>0.08063326950956196</v>
+        <v>0.03043185215989919</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.435885133736491</v>
+        <v>0.0008151985970090026</v>
       </c>
       <c r="H23">
-        <v>2.93436886151477</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.162218440351779</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.007123932604940819</v>
+        <v>0.05973155400722163</v>
       </c>
       <c r="K23">
-        <v>0.9955670940878889</v>
+        <v>1.32013715291896</v>
       </c>
       <c r="L23">
-        <v>0.2937912308333281</v>
+        <v>0.3951309813623993</v>
       </c>
       <c r="M23">
-        <v>0.991527764151229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9851370058447344</v>
+      </c>
+      <c r="N23">
+        <v>2.580964209369768</v>
+      </c>
+      <c r="O23">
+        <v>3.615107791452715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.638683469840942</v>
+        <v>4.765580016121987</v>
       </c>
       <c r="C24">
-        <v>0.9811583861460633</v>
+        <v>0.5894105499592399</v>
       </c>
       <c r="D24">
-        <v>0.3069716233167554</v>
+        <v>0.2215866139145675</v>
       </c>
       <c r="E24">
-        <v>0.0705411824029909</v>
+        <v>0.03069218008858643</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.231878908593927</v>
+        <v>0.0008314747608974819</v>
       </c>
       <c r="H24">
-        <v>2.542981570329374</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.75662269972797</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.006949665589490728</v>
+        <v>0.05139034631753603</v>
       </c>
       <c r="K24">
-        <v>0.8335453557062067</v>
+        <v>1.127394269468951</v>
       </c>
       <c r="L24">
-        <v>0.2483848160930151</v>
+        <v>0.3530561397084426</v>
       </c>
       <c r="M24">
-        <v>0.8325631015432791</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8540590133383645</v>
+      </c>
+      <c r="N24">
+        <v>2.562775106489994</v>
+      </c>
+      <c r="O24">
+        <v>3.276560658840864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.114855584939789</v>
+        <v>3.973120000146253</v>
       </c>
       <c r="C25">
-        <v>0.7837436420018378</v>
+        <v>0.4732364306267129</v>
       </c>
       <c r="D25">
-        <v>0.2489477234484951</v>
+        <v>0.2009914551948384</v>
       </c>
       <c r="E25">
-        <v>0.06032591043706859</v>
+        <v>0.03104054882242879</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.024847431407935</v>
+        <v>0.0008493536931241718</v>
       </c>
       <c r="H25">
-        <v>2.146802478343147</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.346269392341512</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.006781706117321651</v>
+        <v>0.04273487947732235</v>
       </c>
       <c r="K25">
-        <v>0.667384321333067</v>
+        <v>0.9300289519004821</v>
       </c>
       <c r="L25">
-        <v>0.2021370195544918</v>
+        <v>0.3106515755657426</v>
       </c>
       <c r="M25">
-        <v>0.6698770717705358</v>
+        <v>0.7204198647069902</v>
+      </c>
+      <c r="N25">
+        <v>2.557248936692133</v>
+      </c>
+      <c r="O25">
+        <v>2.941527029795935</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.418078497369891</v>
+        <v>3.128740459103653</v>
       </c>
       <c r="C2">
-        <v>0.3911793699691941</v>
+        <v>0.7808217826007819</v>
       </c>
       <c r="D2">
-        <v>0.1869911734442695</v>
+        <v>0.3518830728822309</v>
       </c>
       <c r="E2">
-        <v>0.03135104215099593</v>
+        <v>0.1022000991167857</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008629067202887697</v>
+        <v>1.928394035077218</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.113926727780296</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03655671797247351</v>
+        <v>0.03137242825758335</v>
       </c>
       <c r="K2">
-        <v>0.7915072802392302</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2814534668392668</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6271246327301441</v>
+        <v>0.9214070282891953</v>
       </c>
       <c r="N2">
-        <v>2.563252710731732</v>
+        <v>0.9635686907317691</v>
       </c>
       <c r="O2">
-        <v>2.71521000209961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.055854793139076</v>
+        <v>2.711027175681011</v>
       </c>
       <c r="C3">
-        <v>0.3371712501969455</v>
+        <v>0.6738070099985407</v>
       </c>
       <c r="D3">
-        <v>0.1781132228452265</v>
+        <v>0.3242994358531632</v>
       </c>
       <c r="E3">
-        <v>0.03159349360893415</v>
+        <v>0.0962316352273298</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00087238160133855</v>
+        <v>1.754914019372308</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.04272475665141</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03244993716407407</v>
+        <v>0.03095585227081799</v>
       </c>
       <c r="K3">
-        <v>0.7009198418846623</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2627020964627746</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5664247027061933</v>
+        <v>0.8055394756627408</v>
       </c>
       <c r="N3">
-        <v>2.572749349951707</v>
+        <v>1.014466437792514</v>
       </c>
       <c r="O3">
-        <v>2.572208206219258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.839227088202563</v>
+        <v>2.458593144094493</v>
       </c>
       <c r="C4">
-        <v>0.3046379916384581</v>
+        <v>0.6090772376468578</v>
       </c>
       <c r="D4">
-        <v>0.1729297476751341</v>
+        <v>0.3079762466196456</v>
       </c>
       <c r="E4">
-        <v>0.03175769994339195</v>
+        <v>0.09274313306315562</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008783559084185527</v>
+        <v>1.653037990288141</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.001478154815146</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02995613415541243</v>
+        <v>0.03074590391530485</v>
       </c>
       <c r="K4">
-        <v>0.6466490740437578</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2516349721536315</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5302129374634603</v>
+        <v>0.7357630561570687</v>
       </c>
       <c r="N4">
-        <v>2.58101242225969</v>
+        <v>1.047474894124655</v>
       </c>
       <c r="O4">
-        <v>2.488853857343898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.752256339216387</v>
+        <v>2.356604559246819</v>
       </c>
       <c r="C5">
-        <v>0.2915166014309989</v>
+        <v>0.5829089542413328</v>
       </c>
       <c r="D5">
-        <v>0.1708802593622067</v>
+        <v>0.3014653865869832</v>
       </c>
       <c r="E5">
-        <v>0.03182841243553813</v>
+        <v>0.09136244417747719</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008808317351034829</v>
+        <v>1.612577272655329</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9852389244667279</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02894529935775836</v>
+        <v>0.03067123460078491</v>
       </c>
       <c r="K5">
-        <v>0.6248363625351772</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2472285526774556</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5156972392578467</v>
+        <v>0.707630861608834</v>
       </c>
       <c r="N5">
-        <v>2.584958186708533</v>
+        <v>1.061347205336112</v>
       </c>
       <c r="O5">
-        <v>2.455915381263566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.737889793143552</v>
+        <v>2.339718828869593</v>
       </c>
       <c r="C6">
-        <v>0.2893454297615108</v>
+        <v>0.5785753914696272</v>
       </c>
       <c r="D6">
-        <v>0.170543613707359</v>
+        <v>0.3003924113336183</v>
       </c>
       <c r="E6">
-        <v>0.03184038188495331</v>
+        <v>0.09113555851003952</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008812453869122232</v>
+        <v>1.605919384022286</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9825753347541593</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02877773433256792</v>
+        <v>0.03065947568394733</v>
       </c>
       <c r="K6">
-        <v>0.6212316750247169</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2465028821537985</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5133007708779047</v>
+        <v>0.7029766432856377</v>
       </c>
       <c r="N6">
-        <v>2.585647404346645</v>
+        <v>1.063675553095436</v>
       </c>
       <c r="O6">
-        <v>2.45050564775282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.838049063613823</v>
+        <v>2.457214298006704</v>
       </c>
       <c r="C7">
-        <v>0.3044605079536211</v>
+        <v>0.6087235198789358</v>
       </c>
       <c r="D7">
-        <v>0.1729018588491371</v>
+        <v>0.3078878847917395</v>
       </c>
       <c r="E7">
-        <v>0.03175863829745484</v>
+        <v>0.09272435126869283</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008783891290008398</v>
+        <v>1.652488194778499</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.001256908728863</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02994248175977532</v>
+        <v>0.03074485362466994</v>
       </c>
       <c r="K7">
-        <v>0.6463537190407678</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2515751374416553</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5300162301032216</v>
+        <v>0.735382483893531</v>
       </c>
       <c r="N7">
-        <v>2.58106333554673</v>
+        <v>1.047660302038899</v>
       </c>
       <c r="O7">
-        <v>2.488405583813076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.291892100000211</v>
+        <v>2.983787726326341</v>
       </c>
       <c r="C8">
-        <v>0.3724133404785448</v>
+        <v>0.7436973099210036</v>
       </c>
       <c r="D8">
-        <v>0.183871694558519</v>
+        <v>0.3422366158717409</v>
       </c>
       <c r="E8">
-        <v>0.03143141712623709</v>
+        <v>0.1001034758819337</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008661422967112665</v>
+        <v>1.86754398314153</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.088830284760974</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0351339416115195</v>
+        <v>0.03121887889394337</v>
       </c>
       <c r="K8">
-        <v>0.7599695027328863</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2748898868257754</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.605959780950073</v>
+        <v>0.8811461497870496</v>
       </c>
       <c r="N8">
-        <v>2.566001539276741</v>
+        <v>0.9807405215022413</v>
       </c>
       <c r="O8">
-        <v>2.664923021792475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.235088071994426</v>
+        <v>4.055338965337455</v>
       </c>
       <c r="C9">
-        <v>0.5117459382001073</v>
+        <v>1.017965564578788</v>
       </c>
       <c r="D9">
-        <v>0.2077313340559925</v>
+        <v>0.4151243966016267</v>
       </c>
       <c r="E9">
-        <v>0.03091456699932182</v>
+        <v>0.1161417209086046</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008432775936112462</v>
+        <v>2.331733313927714</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.282800861226605</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04561418288410835</v>
+        <v>0.03254406916856567</v>
       </c>
       <c r="K9">
-        <v>0.9953173365078101</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3245882343958186</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7645482314599192</v>
+        <v>1.179913948304645</v>
       </c>
       <c r="N9">
-        <v>2.557420776341459</v>
+        <v>0.8644860340340088</v>
       </c>
       <c r="O9">
-        <v>3.050880252249712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.972053451311979</v>
+        <v>4.877121253834332</v>
       </c>
       <c r="C10">
-        <v>0.6195456422640007</v>
+        <v>1.228196451230758</v>
       </c>
       <c r="D10">
-        <v>0.2270438360454108</v>
+        <v>0.4730874080209446</v>
       </c>
       <c r="E10">
-        <v>0.03061598125683673</v>
+        <v>0.1291474276310609</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008270374799472839</v>
+        <v>2.707502793570114</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.442990319338918</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0536221962469412</v>
+        <v>0.03380902117899609</v>
       </c>
       <c r="K10">
-        <v>1.178760534808177</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3642134016781</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8889446252048003</v>
+        <v>1.410569260801097</v>
       </c>
       <c r="N10">
-        <v>2.5664946578502</v>
+        <v>0.7898198492641839</v>
       </c>
       <c r="O10">
-        <v>3.36578522401733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.319869908577687</v>
+        <v>5.261254228339396</v>
       </c>
       <c r="C11">
-        <v>0.6702166329009742</v>
+        <v>1.326481625566714</v>
       </c>
       <c r="D11">
-        <v>0.2363075110939121</v>
+        <v>0.5006837615838435</v>
       </c>
       <c r="E11">
-        <v>0.03049913549237981</v>
+        <v>0.1353985173634982</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008197339683563582</v>
+        <v>2.888284409007497</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.520773014593317</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05736495350812021</v>
+        <v>0.034460754184515</v>
       </c>
       <c r="K11">
-        <v>1.265249470024827</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3830935875973438</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9477632294241261</v>
+        <v>1.51876917907137</v>
       </c>
       <c r="N11">
-        <v>2.57464053777295</v>
+        <v>0.7586073235479276</v>
       </c>
       <c r="O11">
-        <v>3.517687153277677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.453675922060654</v>
+        <v>5.408465380890277</v>
       </c>
       <c r="C12">
-        <v>0.6896829703590015</v>
+        <v>1.364153574791374</v>
       </c>
       <c r="D12">
-        <v>0.2398929543763018</v>
+        <v>0.511336475765944</v>
       </c>
       <c r="E12">
-        <v>0.03045775687838859</v>
+        <v>0.1378204470834845</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008169769049159714</v>
+        <v>2.958379312246848</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.551037336070692</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05879979507360034</v>
+        <v>0.03471978310683355</v>
       </c>
       <c r="K12">
-        <v>1.298510152801668</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.390383102045206</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9704068740381544</v>
+        <v>1.560294264457781</v>
       </c>
       <c r="N12">
-        <v>2.578369268967066</v>
+        <v>0.7472253046517565</v>
       </c>
       <c r="O12">
-        <v>3.576630636770275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.424760185009234</v>
+        <v>5.376678418229517</v>
       </c>
       <c r="C13">
-        <v>0.6854774057712802</v>
+        <v>1.356018813881576</v>
       </c>
       <c r="D13">
-        <v>0.2391171672530703</v>
+        <v>0.509032763252776</v>
       </c>
       <c r="E13">
-        <v>0.03046653847578806</v>
+        <v>0.1372962893318181</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008175703652233563</v>
+        <v>2.943206463341483</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.544481559725824</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05848994055111945</v>
+        <v>0.03466343064299693</v>
       </c>
       <c r="K13">
-        <v>1.291322966516418</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3888066501583296</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9655128257668082</v>
+        <v>1.551325121687114</v>
       </c>
       <c r="N13">
-        <v>2.577536418781364</v>
+        <v>0.7496564440998625</v>
       </c>
       <c r="O13">
-        <v>3.563869784132592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.330834419509983</v>
+        <v>5.273328678047903</v>
       </c>
       <c r="C14">
-        <v>0.6718122899626451</v>
+        <v>1.329571379556683</v>
       </c>
       <c r="D14">
-        <v>0.2366008805631594</v>
+        <v>0.5015559459838528</v>
       </c>
       <c r="E14">
-        <v>0.03049567288638855</v>
+        <v>0.1355966318487276</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008195069920557685</v>
+        <v>2.894016975729159</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.523246007285735</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05748262739135157</v>
+        <v>0.03448181166826103</v>
       </c>
       <c r="K14">
-        <v>1.267975192457328</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3836903880733189</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9496184052000345</v>
+        <v>1.522173901256224</v>
       </c>
       <c r="N14">
-        <v>2.574933981681795</v>
+        <v>0.7576618912526314</v>
       </c>
       <c r="O14">
-        <v>3.522506873590103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.273584303175369</v>
+        <v>5.210260214654056</v>
       </c>
       <c r="C15">
-        <v>0.6634796591634711</v>
+        <v>1.313432943068449</v>
       </c>
       <c r="D15">
-        <v>0.2350699523104964</v>
+        <v>0.4970033890962213</v>
       </c>
       <c r="E15">
-        <v>0.03051389660435433</v>
+        <v>0.1345628888757986</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008206942427401143</v>
+        <v>2.864107254633637</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.510347378486841</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05686800548384596</v>
+        <v>0.03437219809154968</v>
       </c>
       <c r="K15">
-        <v>1.253742629943346</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3805753099185409</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9399324294255749</v>
+        <v>1.504392445718779</v>
       </c>
       <c r="N15">
-        <v>2.573425915909525</v>
+        <v>0.7626237649033243</v>
       </c>
       <c r="O15">
-        <v>3.497361714388077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.949599476042295</v>
+        <v>4.852246554791634</v>
       </c>
       <c r="C16">
-        <v>0.6162706104396705</v>
+        <v>1.221832573185907</v>
       </c>
       <c r="D16">
-        <v>0.2264487765553724</v>
+        <v>0.4713107807084214</v>
       </c>
       <c r="E16">
-        <v>0.03062401072465804</v>
+        <v>0.1287461876577503</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008275161879991444</v>
+        <v>2.695904597760688</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.438014395116539</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05337986951805362</v>
+        <v>0.03376806809756161</v>
       </c>
       <c r="K16">
-        <v>1.173175386769501</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3629981432532645</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8851496568388626</v>
+        <v>1.40357072419043</v>
       </c>
       <c r="N16">
-        <v>2.566048617129326</v>
+        <v>0.7919184897943268</v>
       </c>
       <c r="O16">
-        <v>3.35604677462824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.754257196270942</v>
+        <v>4.635433973083082</v>
       </c>
       <c r="C17">
-        <v>0.5877566261759455</v>
+        <v>1.166365901880965</v>
       </c>
       <c r="D17">
-        <v>0.2212883166560857</v>
+        <v>0.4558812526105385</v>
       </c>
       <c r="E17">
-        <v>0.03069651581210397</v>
+        <v>0.1252680159934094</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008317204527816765</v>
+        <v>2.595386932484672</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.394967718492751</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05126771447847744</v>
+        <v>0.03341784031871597</v>
       </c>
       <c r="K17">
-        <v>1.124576812247426</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3524454516974913</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8521466269565678</v>
+        <v>1.342612855207278</v>
       </c>
       <c r="N17">
-        <v>2.56259634979267</v>
+        <v>0.8106228858850315</v>
       </c>
       <c r="O17">
-        <v>3.271689076105574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.643064970588796</v>
+        <v>4.511680643928685</v>
       </c>
       <c r="C18">
-        <v>0.5715068391293698</v>
+        <v>1.13470749500442</v>
       </c>
       <c r="D18">
-        <v>0.218364593949417</v>
+        <v>0.4471205065600543</v>
       </c>
       <c r="E18">
-        <v>0.03073999601128419</v>
+        <v>0.12329852335629</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008341467938051426</v>
+        <v>2.538483317036196</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.370663762501692</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05006204428467598</v>
+        <v>0.03322349552167125</v>
       </c>
       <c r="K18">
-        <v>1.096905455137517</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3464551005432384</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8333707217996675</v>
+        <v>1.307854160532386</v>
       </c>
       <c r="N18">
-        <v>2.560984433374472</v>
+        <v>0.8216375317140105</v>
       </c>
       <c r="O18">
-        <v>3.223970982617487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.605608861798657</v>
+        <v>4.469935750790228</v>
       </c>
       <c r="C19">
-        <v>0.566029592585096</v>
+        <v>1.124028459000442</v>
       </c>
       <c r="D19">
-        <v>0.2173820568607709</v>
+        <v>0.4441730990849635</v>
       </c>
       <c r="E19">
-        <v>0.03075501902582101</v>
+        <v>0.1226368332841759</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008349698114422655</v>
+        <v>2.519367009123187</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.362510141657282</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04965531301203896</v>
+        <v>0.03315887695134734</v>
       </c>
       <c r="K19">
-        <v>1.087582675521134</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3444400017944105</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8270475954181862</v>
+        <v>1.296135141525966</v>
       </c>
       <c r="N19">
-        <v>2.560500983340404</v>
+        <v>0.8254097595296841</v>
       </c>
       <c r="O19">
-        <v>3.207947213279738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.774929333970647</v>
+        <v>4.658413740381661</v>
       </c>
       <c r="C20">
-        <v>0.590776094807751</v>
+        <v>1.172244620436118</v>
       </c>
       <c r="D20">
-        <v>0.2218329978853859</v>
+        <v>0.4575117863305991</v>
       </c>
       <c r="E20">
-        <v>0.03068861265582878</v>
+        <v>0.1256350134296724</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008312720810034856</v>
+        <v>2.605991364494542</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.39950227873598</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05149158471768445</v>
+        <v>0.03345437956798847</v>
       </c>
       <c r="K20">
-        <v>1.129720613245311</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3535604820450544</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8556381388601864</v>
+        <v>1.349070045605572</v>
       </c>
       <c r="N20">
-        <v>2.562924718310342</v>
+        <v>0.8086049547247427</v>
       </c>
       <c r="O20">
-        <v>3.280584860002321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.358363326658662</v>
+        <v>5.303635240971403</v>
       </c>
       <c r="C21">
-        <v>0.6758181332876063</v>
+        <v>1.337326696446326</v>
       </c>
       <c r="D21">
-        <v>0.2373377966291201</v>
+        <v>0.5037463467171506</v>
       </c>
       <c r="E21">
-        <v>0.03048703633768568</v>
+        <v>0.136094318322499</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008189379539432483</v>
+        <v>2.908418778990495</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.529460533056692</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05777799600477351</v>
+        <v>0.03453481468896413</v>
       </c>
       <c r="K21">
-        <v>1.27481855552017</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3851892105615775</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9542765017958388</v>
+        <v>1.530720632425655</v>
       </c>
       <c r="N21">
-        <v>2.57568032602569</v>
+        <v>0.7552982638666492</v>
       </c>
       <c r="O21">
-        <v>3.534616044069054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.752049135451216</v>
+        <v>5.735667070107013</v>
       </c>
       <c r="C22">
-        <v>0.7330453170079352</v>
+        <v>1.447902010200721</v>
       </c>
       <c r="D22">
-        <v>0.2479276823219152</v>
+        <v>0.5351587464463705</v>
       </c>
       <c r="E22">
-        <v>0.03037209532956098</v>
+        <v>0.1432531351623219</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008109251482447422</v>
+        <v>3.11573931004105</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.619174181722002</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06199059380935523</v>
+        <v>0.03531295386552813</v>
       </c>
       <c r="K22">
-        <v>1.372657509593097</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.406686156231288</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.020929078556669</v>
+        <v>1.652704238558286</v>
       </c>
       <c r="N22">
-        <v>2.587808797685398</v>
+        <v>0.7230329788246479</v>
       </c>
       <c r="O22">
-        <v>3.709027019698453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.540692976719242</v>
+        <v>5.50403905660221</v>
       </c>
       <c r="C23">
-        <v>0.7023352702100851</v>
+        <v>1.388613540938991</v>
       </c>
       <c r="D23">
-        <v>0.2422306869245574</v>
+        <v>0.5182744651744997</v>
       </c>
       <c r="E23">
-        <v>0.03043185215989919</v>
+        <v>0.1394003393354808</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008151985970090026</v>
+        <v>3.004122431553185</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.570817044656508</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05973155400722163</v>
+        <v>0.0348905938883739</v>
       </c>
       <c r="K23">
-        <v>1.32013715291896</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3951309813623993</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9851370058447344</v>
+        <v>1.587270676305536</v>
       </c>
       <c r="N23">
-        <v>2.580964209369768</v>
+        <v>0.740002764355097</v>
       </c>
       <c r="O23">
-        <v>3.615107791452715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.765580016121987</v>
+        <v>4.648021819226187</v>
       </c>
       <c r="C24">
-        <v>0.5894105499592399</v>
+        <v>1.169586140336946</v>
       </c>
       <c r="D24">
-        <v>0.2215866139145675</v>
+        <v>0.4567742816468012</v>
       </c>
       <c r="E24">
-        <v>0.03069218008858643</v>
+        <v>0.125469000454121</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008314747608974819</v>
+        <v>2.601194359524527</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.397450828247685</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05139034631753603</v>
+        <v>0.03343783844484705</v>
       </c>
       <c r="K24">
-        <v>1.127394269468951</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3530561397084426</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8540590133383645</v>
+        <v>1.346149862523291</v>
       </c>
       <c r="N24">
-        <v>2.562775106489994</v>
+        <v>0.8095164507678163</v>
       </c>
       <c r="O24">
-        <v>3.276560658840864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.973120000146253</v>
+        <v>3.760249873720909</v>
       </c>
       <c r="C25">
-        <v>0.4732364306267129</v>
+        <v>0.9424658035780737</v>
       </c>
       <c r="D25">
-        <v>0.2009914551948384</v>
+        <v>0.3947140716539792</v>
       </c>
       <c r="E25">
-        <v>0.03104054882242879</v>
+        <v>0.11160944530004</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008493536931241718</v>
+        <v>2.200761315552199</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.227549525269808</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04273487947732235</v>
+        <v>0.03213839428453369</v>
       </c>
       <c r="K25">
-        <v>0.9300289519004821</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3106515755657426</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7204198647069902</v>
+        <v>1.097390865833326</v>
       </c>
       <c r="N25">
-        <v>2.557248936692133</v>
+        <v>0.8941777582558217</v>
       </c>
       <c r="O25">
-        <v>2.941527029795935</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.128740459103653</v>
+        <v>1.651186608805858</v>
       </c>
       <c r="C2">
-        <v>0.7808217826007819</v>
+        <v>0.3382732131055093</v>
       </c>
       <c r="D2">
-        <v>0.3518830728822309</v>
+        <v>0.5597078713389152</v>
       </c>
       <c r="E2">
-        <v>0.1022000991167857</v>
+        <v>0.1943433289082286</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.928394035077218</v>
+        <v>2.062430422614398</v>
       </c>
       <c r="H2">
-        <v>1.113926727780296</v>
+        <v>1.689165945989373</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03137242825758335</v>
+        <v>0.07884750812304198</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9214070282891953</v>
+        <v>0.6770906075155807</v>
       </c>
       <c r="N2">
-        <v>0.9635686907317691</v>
+        <v>1.911571362190486</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.711027175681011</v>
+        <v>1.549061444081417</v>
       </c>
       <c r="C3">
-        <v>0.6738070099985407</v>
+        <v>0.3114674180820316</v>
       </c>
       <c r="D3">
-        <v>0.3242994358531632</v>
+        <v>0.5564725585529686</v>
       </c>
       <c r="E3">
-        <v>0.0962316352273298</v>
+        <v>0.1940779725982331</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.754914019372308</v>
+        <v>2.033396609915854</v>
       </c>
       <c r="H3">
-        <v>1.04272475665141</v>
+        <v>1.68286875242913</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03095585227081799</v>
+        <v>0.07916035238530128</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8055394756627408</v>
+        <v>0.6513079661504193</v>
       </c>
       <c r="N3">
-        <v>1.014466437792514</v>
+        <v>1.93147008805834</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.458593144094493</v>
+        <v>1.487287611493286</v>
       </c>
       <c r="C4">
-        <v>0.6090772376468578</v>
+        <v>0.2951818148058578</v>
       </c>
       <c r="D4">
-        <v>0.3079762466196456</v>
+        <v>0.5547536221390317</v>
       </c>
       <c r="E4">
-        <v>0.09274313306315562</v>
+        <v>0.1939988157787305</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.653037990288141</v>
+        <v>2.016913980249967</v>
       </c>
       <c r="H4">
-        <v>1.001478154815146</v>
+        <v>1.679906984083317</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03074590391530485</v>
+        <v>0.07937824518145398</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7357630561570687</v>
+        <v>0.6358753592373745</v>
       </c>
       <c r="N4">
-        <v>1.047474894124655</v>
+        <v>1.944371355053633</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.356604559246819</v>
+        <v>1.462347365127641</v>
       </c>
       <c r="C5">
-        <v>0.5829089542413328</v>
+        <v>0.2885885065411742</v>
       </c>
       <c r="D5">
-        <v>0.3014653865869832</v>
+        <v>0.5541203494441618</v>
       </c>
       <c r="E5">
-        <v>0.09136244417747719</v>
+        <v>0.193987609728179</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.612577272655329</v>
+        <v>2.010533473417524</v>
       </c>
       <c r="H5">
-        <v>0.9852389244667279</v>
+        <v>1.678926909167046</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03067123460078491</v>
+        <v>0.07947352758191251</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.707630861608834</v>
+        <v>0.6296862020989806</v>
       </c>
       <c r="N5">
-        <v>1.061347205336112</v>
+        <v>1.949800168251087</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.339718828869593</v>
+        <v>1.458220102212636</v>
       </c>
       <c r="C6">
-        <v>0.5785753914696272</v>
+        <v>0.2874962919598261</v>
       </c>
       <c r="D6">
-        <v>0.3003924113336183</v>
+        <v>0.5540192521527132</v>
       </c>
       <c r="E6">
-        <v>0.09113555851003952</v>
+        <v>0.1939870199982288</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.605919384022286</v>
+        <v>2.009494256681222</v>
       </c>
       <c r="H6">
-        <v>0.9825753347541593</v>
+        <v>1.678777852530004</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03065947568394733</v>
+        <v>0.07948974110662377</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7029766432856377</v>
+        <v>0.6286645126785686</v>
       </c>
       <c r="N6">
-        <v>1.063675553095436</v>
+        <v>1.950711961719463</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.457214298006704</v>
+        <v>1.486950316302341</v>
       </c>
       <c r="C7">
-        <v>0.6087235198789358</v>
+        <v>0.2950927206684923</v>
       </c>
       <c r="D7">
-        <v>0.3078878847917395</v>
+        <v>0.5547448095713179</v>
       </c>
       <c r="E7">
-        <v>0.09272435126869283</v>
+        <v>0.1939985794337886</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.652488194778499</v>
+        <v>2.016826571129428</v>
       </c>
       <c r="H7">
-        <v>1.001256908728863</v>
+        <v>1.679892848718453</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03074485362466994</v>
+        <v>0.07937950391786863</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.735382483893531</v>
+        <v>0.6357914866313408</v>
       </c>
       <c r="N7">
-        <v>1.047660302038899</v>
+        <v>1.94444387630822</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.983787726326341</v>
+        <v>1.615779814143423</v>
       </c>
       <c r="C8">
-        <v>0.7436973099210036</v>
+        <v>0.3289943860352764</v>
       </c>
       <c r="D8">
-        <v>0.3422366158717409</v>
+        <v>0.558536757117821</v>
       </c>
       <c r="E8">
-        <v>0.1001034758819337</v>
+        <v>0.194234437520695</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.86754398314153</v>
+        <v>2.052139508773251</v>
       </c>
       <c r="H8">
-        <v>1.088830284760974</v>
+        <v>1.686806506300428</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03121887889394337</v>
+        <v>0.0789500211012264</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8811461497870496</v>
+        <v>0.6681179262112593</v>
       </c>
       <c r="N8">
-        <v>0.9807405215022413</v>
+        <v>1.918290371995724</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.055338965337455</v>
+        <v>1.875871075697944</v>
       </c>
       <c r="C9">
-        <v>1.017965564578788</v>
+        <v>0.3968704406700567</v>
       </c>
       <c r="D9">
-        <v>0.4151243966016267</v>
+        <v>0.5681001486779991</v>
       </c>
       <c r="E9">
-        <v>0.1161417209086046</v>
+        <v>0.1953625840324378</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.331733313927714</v>
+        <v>2.132138566711262</v>
       </c>
       <c r="H9">
-        <v>1.282800861226605</v>
+        <v>1.707574508289412</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03254406916856567</v>
+        <v>0.07831257733798225</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.179913948304645</v>
+        <v>0.7346877889733179</v>
       </c>
       <c r="N9">
-        <v>0.8644860340340088</v>
+        <v>1.872442815619962</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.877121253834332</v>
+        <v>2.071621067362116</v>
       </c>
       <c r="C10">
-        <v>1.228196451230758</v>
+        <v>0.4476230934918135</v>
       </c>
       <c r="D10">
-        <v>0.4730874080209446</v>
+        <v>0.5764311560214139</v>
       </c>
       <c r="E10">
-        <v>0.1291474276310609</v>
+        <v>0.1965989080633292</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.707502793570114</v>
+        <v>2.197594380403331</v>
       </c>
       <c r="H10">
-        <v>1.442990319338918</v>
+        <v>1.727276783131032</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03380902117899609</v>
+        <v>0.07796916026171274</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.410569260801097</v>
+        <v>0.7855674583161658</v>
       </c>
       <c r="N10">
-        <v>0.7898198492641839</v>
+        <v>1.842097337966038</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.261254228339396</v>
+        <v>2.161711526190686</v>
       </c>
       <c r="C11">
-        <v>1.326481625566714</v>
+        <v>0.4709114998544237</v>
       </c>
       <c r="D11">
-        <v>0.5006837615838435</v>
+        <v>0.5805063334875058</v>
       </c>
       <c r="E11">
-        <v>0.1353985173634982</v>
+        <v>0.1972502302963832</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.888284409007497</v>
+        <v>2.228850787581479</v>
       </c>
       <c r="H11">
-        <v>1.520773014593317</v>
+        <v>1.737215751852489</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.034460754184515</v>
+        <v>0.07784007978664675</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.51876917907137</v>
+        <v>0.8091496472673469</v>
       </c>
       <c r="N11">
-        <v>0.7586073235479276</v>
+        <v>1.829022348869508</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.408465380890277</v>
+        <v>2.19597813796895</v>
       </c>
       <c r="C12">
-        <v>1.364153574791374</v>
+        <v>0.4797596083274129</v>
       </c>
       <c r="D12">
-        <v>0.511336475765944</v>
+        <v>0.5820906590661821</v>
       </c>
       <c r="E12">
-        <v>0.1378204470834845</v>
+        <v>0.1975096828493719</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.958379312246848</v>
+        <v>2.240901782126997</v>
       </c>
       <c r="H12">
-        <v>1.551037336070692</v>
+        <v>1.741120603507284</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03471978310683355</v>
+        <v>0.07779510534627221</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.560294264457781</v>
+        <v>0.8181429348386331</v>
       </c>
       <c r="N12">
-        <v>0.7472253046517565</v>
+        <v>1.824176528295368</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.376678418229517</v>
+        <v>2.188591458459939</v>
       </c>
       <c r="C13">
-        <v>1.356018813881576</v>
+        <v>0.4778527001197403</v>
       </c>
       <c r="D13">
-        <v>0.509032763252776</v>
+        <v>0.5817476145091121</v>
       </c>
       <c r="E13">
-        <v>0.1372962893318181</v>
+        <v>0.1974532349112792</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.943206463341483</v>
+        <v>2.238296795955307</v>
       </c>
       <c r="H13">
-        <v>1.544481559725824</v>
+        <v>1.740273332107876</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03466343064299693</v>
+        <v>0.07780461765298696</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.551325121687114</v>
+        <v>0.8162032507600259</v>
       </c>
       <c r="N13">
-        <v>0.7496564440998625</v>
+        <v>1.825215466673285</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.273328678047903</v>
+        <v>2.164527620583669</v>
       </c>
       <c r="C14">
-        <v>1.329571379556683</v>
+        <v>0.4716388494954344</v>
       </c>
       <c r="D14">
-        <v>0.5015559459838528</v>
+        <v>0.580635851669598</v>
       </c>
       <c r="E14">
-        <v>0.1355966318487276</v>
+        <v>0.1972713187132662</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.894016975729159</v>
+        <v>2.22983791216285</v>
       </c>
       <c r="H14">
-        <v>1.523246007285735</v>
+        <v>1.737534172327088</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03448181166826103</v>
+        <v>0.07783630142353459</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.522173901256224</v>
+        <v>0.8098882609060638</v>
       </c>
       <c r="N14">
-        <v>0.7576618912526314</v>
+        <v>1.82862156504082</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.210260214654056</v>
+        <v>2.149807570991811</v>
       </c>
       <c r="C15">
-        <v>1.313432943068449</v>
+        <v>0.4678365143207088</v>
       </c>
       <c r="D15">
-        <v>0.4970033890962213</v>
+        <v>0.5799602263626014</v>
       </c>
       <c r="E15">
-        <v>0.1345628888757986</v>
+        <v>0.1971615589300058</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.864107254633637</v>
+        <v>2.224684644522029</v>
       </c>
       <c r="H15">
-        <v>1.510347378486841</v>
+        <v>1.735874767302079</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03437219809154968</v>
+        <v>0.07785621734588943</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.504392445718779</v>
+        <v>0.8060283935432011</v>
       </c>
       <c r="N15">
-        <v>0.7626237649033243</v>
+        <v>1.830721639591836</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.852246554791634</v>
+        <v>2.06575454300031</v>
       </c>
       <c r="C16">
-        <v>1.221832573185907</v>
+        <v>0.4461052173797952</v>
       </c>
       <c r="D16">
-        <v>0.4713107807084214</v>
+        <v>0.5761705850669046</v>
       </c>
       <c r="E16">
-        <v>0.1287461876577503</v>
+        <v>0.1965581339183515</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.695904597760688</v>
+        <v>2.195581658413687</v>
       </c>
       <c r="H16">
-        <v>1.438014395116539</v>
+        <v>1.726646960973568</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03376806809756161</v>
+        <v>0.0779781423502115</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.40357072419043</v>
+        <v>0.7840351311713931</v>
       </c>
       <c r="N16">
-        <v>0.7919184897943268</v>
+        <v>1.842966539181162</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.635433973083082</v>
+        <v>2.014458773608112</v>
       </c>
       <c r="C17">
-        <v>1.166365901880965</v>
+        <v>0.4328254910337819</v>
       </c>
       <c r="D17">
-        <v>0.4558812526105385</v>
+        <v>0.5739189273820102</v>
       </c>
       <c r="E17">
-        <v>0.1252680159934094</v>
+        <v>0.1962107425558948</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.595386932484672</v>
+        <v>2.178108467223524</v>
       </c>
       <c r="H17">
-        <v>1.394967718492751</v>
+        <v>1.721236612265329</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03341784031871597</v>
+        <v>0.07805989278869419</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.342612855207278</v>
+        <v>0.7706551380115485</v>
       </c>
       <c r="N17">
-        <v>0.8106228858850315</v>
+        <v>1.850665551208955</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.511680643928685</v>
+        <v>1.985052874265648</v>
       </c>
       <c r="C18">
-        <v>1.13470749500442</v>
+        <v>0.4252062151333007</v>
       </c>
       <c r="D18">
-        <v>0.4471205065600543</v>
+        <v>0.5726506860980294</v>
       </c>
       <c r="E18">
-        <v>0.12329852335629</v>
+        <v>0.1960192994813603</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.538483317036196</v>
+        <v>2.168197553777304</v>
       </c>
       <c r="H18">
-        <v>1.370663762501692</v>
+        <v>1.718216569254707</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03322349552167125</v>
+        <v>0.07810946801127017</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.307854160532386</v>
+        <v>0.7630004052516739</v>
       </c>
       <c r="N18">
-        <v>0.8216375317140105</v>
+        <v>1.855162434906667</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.469935750790228</v>
+        <v>1.975113344990518</v>
       </c>
       <c r="C19">
-        <v>1.124028459000442</v>
+        <v>0.4226296876708489</v>
       </c>
       <c r="D19">
-        <v>0.4441730990849635</v>
+        <v>0.5722258900796646</v>
       </c>
       <c r="E19">
-        <v>0.1226368332841759</v>
+        <v>0.1959559164700053</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.519367009123187</v>
+        <v>2.164865736191985</v>
       </c>
       <c r="H19">
-        <v>1.362510141657282</v>
+        <v>1.717209785495953</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03315887695134734</v>
+        <v>0.07812669199791245</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.296135141525966</v>
+        <v>0.7604156882039632</v>
       </c>
       <c r="N19">
-        <v>0.8254097595296841</v>
+        <v>1.856696771584289</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.658413740381661</v>
+        <v>2.019909136200624</v>
       </c>
       <c r="C20">
-        <v>1.172244620436118</v>
+        <v>0.4342371844109607</v>
       </c>
       <c r="D20">
-        <v>0.4575117863305991</v>
+        <v>0.5741558402562816</v>
       </c>
       <c r="E20">
-        <v>0.1256350134296724</v>
+        <v>0.1962468568000588</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.605991364494542</v>
+        <v>2.17995409665744</v>
       </c>
       <c r="H20">
-        <v>1.39950227873598</v>
+        <v>1.721803041698877</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03345437956798847</v>
+        <v>0.07805092591270224</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.349070045605572</v>
+        <v>0.7720752059562841</v>
       </c>
       <c r="N20">
-        <v>0.8086049547247427</v>
+        <v>1.849838873054772</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.303635240971403</v>
+        <v>2.171591635576419</v>
       </c>
       <c r="C21">
-        <v>1.337326696446326</v>
+        <v>0.4734632095788811</v>
       </c>
       <c r="D21">
-        <v>0.5037463467171506</v>
+        <v>0.5809612858245998</v>
       </c>
       <c r="E21">
-        <v>0.136094318322499</v>
+        <v>0.1973244040159088</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.908418778990495</v>
+        <v>2.232316643619725</v>
       </c>
       <c r="H21">
-        <v>1.529460533056692</v>
+        <v>1.738334892014279</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03453481468896413</v>
+        <v>0.07782688911517255</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.530720632425655</v>
+        <v>0.8117414072291069</v>
       </c>
       <c r="N21">
-        <v>0.7552982638666492</v>
+        <v>1.827618246843443</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.735667070107013</v>
+        <v>2.271607525083994</v>
       </c>
       <c r="C22">
-        <v>1.447902010200721</v>
+        <v>0.4992706388929378</v>
       </c>
       <c r="D22">
-        <v>0.5351587464463705</v>
+        <v>0.5856489124038831</v>
       </c>
       <c r="E22">
-        <v>0.1432531351623219</v>
+        <v>0.1981033281190392</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.11573931004105</v>
+        <v>2.267791986272414</v>
       </c>
       <c r="H22">
-        <v>1.619174181722002</v>
+        <v>1.749962692576105</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03531295386552813</v>
+        <v>0.07770323394790069</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.652704238558286</v>
+        <v>0.8380342850147571</v>
       </c>
       <c r="N22">
-        <v>0.7230329788246479</v>
+        <v>1.813710347095089</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.50403905660221</v>
+        <v>2.21814594617058</v>
       </c>
       <c r="C23">
-        <v>1.388613540938991</v>
+        <v>0.4854809431089393</v>
       </c>
       <c r="D23">
-        <v>0.5182744651744997</v>
+        <v>0.5831250519739797</v>
       </c>
       <c r="E23">
-        <v>0.1394003393354808</v>
+        <v>0.1976807592942507</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.004122431553185</v>
+        <v>2.248742769355175</v>
       </c>
       <c r="H23">
-        <v>1.570817044656508</v>
+        <v>1.743681122058007</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0348905938883739</v>
+        <v>0.07776714703722476</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.587270676305536</v>
+        <v>0.8239674023279946</v>
       </c>
       <c r="N23">
-        <v>0.740002764355097</v>
+        <v>1.821076848627449</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.648021819226187</v>
+        <v>2.017444763485116</v>
       </c>
       <c r="C24">
-        <v>1.169586140336946</v>
+        <v>0.4335989098506161</v>
       </c>
       <c r="D24">
-        <v>0.4567742816468012</v>
+        <v>0.5740486501391615</v>
       </c>
       <c r="E24">
-        <v>0.125469000454121</v>
+        <v>0.1962305037716163</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.601194359524527</v>
+        <v>2.179119268316128</v>
       </c>
       <c r="H24">
-        <v>1.397450828247685</v>
+        <v>1.721546677315757</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03343783844484705</v>
+        <v>0.07805497181434262</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.346149862523291</v>
+        <v>0.7714330761431256</v>
       </c>
       <c r="N24">
-        <v>0.8095164507678163</v>
+        <v>1.850212394324771</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.760249873720909</v>
+        <v>1.80469941938594</v>
       </c>
       <c r="C25">
-        <v>0.9424658035780737</v>
+        <v>0.3783553781983926</v>
       </c>
       <c r="D25">
-        <v>0.3947140716539792</v>
+        <v>0.5652844467021794</v>
       </c>
       <c r="E25">
-        <v>0.11160944530004</v>
+        <v>0.1949859595523549</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.200761315552199</v>
+        <v>2.109332783032102</v>
       </c>
       <c r="H25">
-        <v>1.227549525269808</v>
+        <v>1.701179342361058</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03213839428453369</v>
+        <v>0.07846309337674029</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.097390865833326</v>
+        <v>0.716335246645464</v>
       </c>
       <c r="N25">
-        <v>0.8941777582558217</v>
+        <v>1.884261152909367</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.651186608805858</v>
+        <v>3.128740459103767</v>
       </c>
       <c r="C2">
-        <v>0.3382732131055093</v>
+        <v>0.7808217826008956</v>
       </c>
       <c r="D2">
-        <v>0.5597078713389152</v>
+        <v>0.3518830728823445</v>
       </c>
       <c r="E2">
-        <v>0.1943433289082286</v>
+        <v>0.1022000991167893</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.062430422614398</v>
+        <v>1.92839403507719</v>
       </c>
       <c r="H2">
-        <v>1.689165945989373</v>
+        <v>1.113926727780182</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07884750812304198</v>
+        <v>0.03137242825759579</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6770906075155807</v>
+        <v>0.9214070282891882</v>
       </c>
       <c r="N2">
-        <v>1.911571362190486</v>
+        <v>0.9635686907317691</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.549061444081417</v>
+        <v>2.711027175680897</v>
       </c>
       <c r="C3">
-        <v>0.3114674180820316</v>
+        <v>0.6738070099982281</v>
       </c>
       <c r="D3">
-        <v>0.5564725585529686</v>
+        <v>0.324299435853149</v>
       </c>
       <c r="E3">
-        <v>0.1940779725982331</v>
+        <v>0.0962316352273227</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.033396609915854</v>
+        <v>1.754914019372251</v>
       </c>
       <c r="H3">
-        <v>1.68286875242913</v>
+        <v>1.042724756651296</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07916035238530128</v>
+        <v>0.03095585227086417</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6513079661504193</v>
+        <v>0.8055394756627408</v>
       </c>
       <c r="N3">
-        <v>1.93147008805834</v>
+        <v>1.014466437792521</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.487287611493286</v>
+        <v>2.458593144094436</v>
       </c>
       <c r="C4">
-        <v>0.2951818148058578</v>
+        <v>0.6090772376465736</v>
       </c>
       <c r="D4">
-        <v>0.5547536221390317</v>
+        <v>0.3079762466193756</v>
       </c>
       <c r="E4">
-        <v>0.1939988157787305</v>
+        <v>0.09274313306320892</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.016913980249967</v>
+        <v>1.653037990288169</v>
       </c>
       <c r="H4">
-        <v>1.679906984083317</v>
+        <v>1.001478154815032</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07937824518145398</v>
+        <v>0.03074590391535281</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6358753592373745</v>
+        <v>0.73576305615709</v>
       </c>
       <c r="N4">
-        <v>1.944371355053633</v>
+        <v>1.04747489412469</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.462347365127641</v>
+        <v>2.356604559246762</v>
       </c>
       <c r="C5">
-        <v>0.2885885065411742</v>
+        <v>0.5829089542414749</v>
       </c>
       <c r="D5">
-        <v>0.5541203494441618</v>
+        <v>0.3014653865869832</v>
       </c>
       <c r="E5">
-        <v>0.193987609728179</v>
+        <v>0.09136244417746653</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.010533473417524</v>
+        <v>1.612577272655301</v>
       </c>
       <c r="H5">
-        <v>1.678926909167046</v>
+        <v>0.9852389244667279</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07947352758191251</v>
+        <v>0.03067123460072452</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6296862020989806</v>
+        <v>0.707630861608834</v>
       </c>
       <c r="N5">
-        <v>1.949800168251087</v>
+        <v>1.061347205336034</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.458220102212636</v>
+        <v>2.33971882886965</v>
       </c>
       <c r="C6">
-        <v>0.2874962919598261</v>
+        <v>0.5785753914697693</v>
       </c>
       <c r="D6">
-        <v>0.5540192521527132</v>
+        <v>0.3003924113335898</v>
       </c>
       <c r="E6">
-        <v>0.1939870199982288</v>
+        <v>0.09113555851009281</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.009494256681222</v>
+        <v>1.605919384022229</v>
       </c>
       <c r="H6">
-        <v>1.678777852530004</v>
+        <v>0.9825753347541024</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07948974110662377</v>
+        <v>0.03065947568395444</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6286645126785686</v>
+        <v>0.7029766432856448</v>
       </c>
       <c r="N6">
-        <v>1.950711961719463</v>
+        <v>1.063675553095408</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.486950316302341</v>
+        <v>2.457214298006704</v>
       </c>
       <c r="C7">
-        <v>0.2950927206684923</v>
+        <v>0.6087235198784811</v>
       </c>
       <c r="D7">
-        <v>0.5547448095713179</v>
+        <v>0.3078878847916258</v>
       </c>
       <c r="E7">
-        <v>0.1939985794337886</v>
+        <v>0.09272435126869283</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.016826571129428</v>
+        <v>1.652488194778442</v>
       </c>
       <c r="H7">
-        <v>1.679892848718453</v>
+        <v>1.001256908728834</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07937950391786863</v>
+        <v>0.03074485362466284</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6357914866313408</v>
+        <v>0.7353824838935381</v>
       </c>
       <c r="N7">
-        <v>1.94444387630822</v>
+        <v>1.047660302038828</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.615779814143423</v>
+        <v>2.983787726326455</v>
       </c>
       <c r="C8">
-        <v>0.3289943860352764</v>
+        <v>0.7436973099209752</v>
       </c>
       <c r="D8">
-        <v>0.558536757117821</v>
+        <v>0.3422366158714709</v>
       </c>
       <c r="E8">
-        <v>0.194234437520695</v>
+        <v>0.1001034758819017</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.052139508773251</v>
+        <v>1.867543983141445</v>
       </c>
       <c r="H8">
-        <v>1.686806506300428</v>
+        <v>1.088830284761002</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0789500211012264</v>
+        <v>0.03121887889396469</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6681179262112593</v>
+        <v>0.8811461497870283</v>
       </c>
       <c r="N8">
-        <v>1.918290371995724</v>
+        <v>0.98074052150222</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.875871075697944</v>
+        <v>4.055338965337569</v>
       </c>
       <c r="C9">
-        <v>0.3968704406700567</v>
+        <v>1.017965564578759</v>
       </c>
       <c r="D9">
-        <v>0.5681001486779991</v>
+        <v>0.4151243966016267</v>
       </c>
       <c r="E9">
-        <v>0.1953625840324378</v>
+        <v>0.1161417209085904</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.132138566711262</v>
+        <v>2.3317333139276</v>
       </c>
       <c r="H9">
-        <v>1.707574508289412</v>
+        <v>1.282800861226605</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07831257733798225</v>
+        <v>0.03254406916862962</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7346877889733179</v>
+        <v>1.179913948304645</v>
       </c>
       <c r="N9">
-        <v>1.872442815619962</v>
+        <v>0.8644860340339946</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.071621067362116</v>
+        <v>4.877121253834332</v>
       </c>
       <c r="C10">
-        <v>0.4476230934918135</v>
+        <v>1.228196451230815</v>
       </c>
       <c r="D10">
-        <v>0.5764311560214139</v>
+        <v>0.4730874080204615</v>
       </c>
       <c r="E10">
-        <v>0.1965989080633292</v>
+        <v>0.1291474276310254</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.197594380403331</v>
+        <v>2.707502793570001</v>
       </c>
       <c r="H10">
-        <v>1.727276783131032</v>
+        <v>1.442990319338918</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07796916026171274</v>
+        <v>0.03380902117906714</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7855674583161658</v>
+        <v>1.410569260801097</v>
       </c>
       <c r="N10">
-        <v>1.842097337966038</v>
+        <v>0.7898198492641484</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.161711526190686</v>
+        <v>5.261254228339567</v>
       </c>
       <c r="C11">
-        <v>0.4709114998544237</v>
+        <v>1.326481625567112</v>
       </c>
       <c r="D11">
-        <v>0.5805063334875058</v>
+        <v>0.5006837615840709</v>
       </c>
       <c r="E11">
-        <v>0.1972502302963832</v>
+        <v>0.135398517363523</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.228850787581479</v>
+        <v>2.888284409007468</v>
       </c>
       <c r="H11">
-        <v>1.737215751852489</v>
+        <v>1.520773014593146</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07784007978664675</v>
+        <v>0.03446075418437289</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8091496472673469</v>
+        <v>1.518769179071356</v>
       </c>
       <c r="N11">
-        <v>1.829022348869508</v>
+        <v>0.7586073235478423</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.19597813796895</v>
+        <v>5.408465380890163</v>
       </c>
       <c r="C12">
-        <v>0.4797596083274129</v>
+        <v>1.364153574791374</v>
       </c>
       <c r="D12">
-        <v>0.5820906590661821</v>
+        <v>0.511336475765745</v>
       </c>
       <c r="E12">
-        <v>0.1975096828493719</v>
+        <v>0.13782044708352</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.240901782126997</v>
+        <v>2.958379312246876</v>
       </c>
       <c r="H12">
-        <v>1.741120603507284</v>
+        <v>1.551037336070692</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07779510534627221</v>
+        <v>0.03471978310692592</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8181429348386331</v>
+        <v>1.560294264457767</v>
       </c>
       <c r="N12">
-        <v>1.824176528295368</v>
+        <v>0.7472253046517849</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.188591458459939</v>
+        <v>5.376678418229915</v>
       </c>
       <c r="C13">
-        <v>0.4778527001197403</v>
+        <v>1.356018813881633</v>
       </c>
       <c r="D13">
-        <v>0.5817476145091121</v>
+        <v>0.5090327632526339</v>
       </c>
       <c r="E13">
-        <v>0.1974532349112792</v>
+        <v>0.1372962893317897</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.238296795955307</v>
+        <v>2.943206463341511</v>
       </c>
       <c r="H13">
-        <v>1.740273332107876</v>
+        <v>1.544481559725853</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07780461765298696</v>
+        <v>0.03466343064306798</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8162032507600259</v>
+        <v>1.551325121687071</v>
       </c>
       <c r="N13">
-        <v>1.825215466673285</v>
+        <v>0.7496564440999265</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.164527620583669</v>
+        <v>5.273328678047903</v>
       </c>
       <c r="C14">
-        <v>0.4716388494954344</v>
+        <v>1.329571379556626</v>
       </c>
       <c r="D14">
-        <v>0.580635851669598</v>
+        <v>0.5015559459839665</v>
       </c>
       <c r="E14">
-        <v>0.1972713187132662</v>
+        <v>0.1355966318486921</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.22983791216285</v>
+        <v>2.894016975729073</v>
       </c>
       <c r="H14">
-        <v>1.737534172327088</v>
+        <v>1.523246007285735</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07783630142353459</v>
+        <v>0.03448181166824327</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8098882609060638</v>
+        <v>1.522173901256238</v>
       </c>
       <c r="N14">
-        <v>1.82862156504082</v>
+        <v>0.7576618912526243</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.149807570991811</v>
+        <v>5.210260214654113</v>
       </c>
       <c r="C15">
-        <v>0.4678365143207088</v>
+        <v>1.313432943068108</v>
       </c>
       <c r="D15">
-        <v>0.5799602263626014</v>
+        <v>0.4970033890962497</v>
       </c>
       <c r="E15">
-        <v>0.1971615589300058</v>
+        <v>0.134562888875795</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.224684644522029</v>
+        <v>2.864107254633581</v>
       </c>
       <c r="H15">
-        <v>1.735874767302079</v>
+        <v>1.51034737848687</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07785621734588943</v>
+        <v>0.03437219809159586</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8060283935432011</v>
+        <v>1.504392445718807</v>
       </c>
       <c r="N15">
-        <v>1.830721639591836</v>
+        <v>0.762623764903239</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.06575454300031</v>
+        <v>4.852246554791691</v>
       </c>
       <c r="C16">
-        <v>0.4461052173797952</v>
+        <v>1.221832573185566</v>
       </c>
       <c r="D16">
-        <v>0.5761705850669046</v>
+        <v>0.4713107807082508</v>
       </c>
       <c r="E16">
-        <v>0.1965581339183515</v>
+        <v>0.1287461876577218</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.195581658413687</v>
+        <v>2.695904597760745</v>
       </c>
       <c r="H16">
-        <v>1.726646960973568</v>
+        <v>1.438014395116511</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0779781423502115</v>
+        <v>0.03376806809749411</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7840351311713931</v>
+        <v>1.403570724190416</v>
       </c>
       <c r="N16">
-        <v>1.842966539181162</v>
+        <v>0.7919184897943836</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.014458773608112</v>
+        <v>4.635433973083195</v>
       </c>
       <c r="C17">
-        <v>0.4328254910337819</v>
+        <v>1.166365901880965</v>
       </c>
       <c r="D17">
-        <v>0.5739189273820102</v>
+        <v>0.4558812526105953</v>
       </c>
       <c r="E17">
-        <v>0.1962107425558948</v>
+        <v>0.1252680159933739</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.178108467223524</v>
+        <v>2.595386932484786</v>
       </c>
       <c r="H17">
-        <v>1.721236612265329</v>
+        <v>1.394967718492751</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07805989278869419</v>
+        <v>0.03341784031877282</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7706551380115485</v>
+        <v>1.342612855207292</v>
       </c>
       <c r="N17">
-        <v>1.850665551208955</v>
+        <v>0.8106228858849462</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.985052874265648</v>
+        <v>4.511680643928571</v>
       </c>
       <c r="C18">
-        <v>0.4252062151333007</v>
+        <v>1.134707495004022</v>
       </c>
       <c r="D18">
-        <v>0.5726506860980294</v>
+        <v>0.4471205065599122</v>
       </c>
       <c r="E18">
-        <v>0.1960192994813603</v>
+        <v>0.1232985233562616</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.168197553777304</v>
+        <v>2.538483317036167</v>
       </c>
       <c r="H18">
-        <v>1.718216569254707</v>
+        <v>1.370663762501721</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07810946801127017</v>
+        <v>0.03322349552155401</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7630004052516739</v>
+        <v>1.307854160532372</v>
       </c>
       <c r="N18">
-        <v>1.855162434906667</v>
+        <v>0.821637531714039</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.975113344990518</v>
+        <v>4.469935750790171</v>
       </c>
       <c r="C19">
-        <v>0.4226296876708489</v>
+        <v>1.124028459000215</v>
       </c>
       <c r="D19">
-        <v>0.5722258900796646</v>
+        <v>0.4441730990847077</v>
       </c>
       <c r="E19">
-        <v>0.1959559164700053</v>
+        <v>0.1226368332841474</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.164865736191985</v>
+        <v>2.519367009123215</v>
       </c>
       <c r="H19">
-        <v>1.717209785495953</v>
+        <v>1.36251014165731</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07812669199791245</v>
+        <v>0.03315887695141839</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7604156882039632</v>
+        <v>1.296135141525966</v>
       </c>
       <c r="N19">
-        <v>1.856696771584289</v>
+        <v>0.8254097595297409</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.019909136200624</v>
+        <v>4.658413740381718</v>
       </c>
       <c r="C20">
-        <v>0.4342371844109607</v>
+        <v>1.172244620436118</v>
       </c>
       <c r="D20">
-        <v>0.5741558402562816</v>
+        <v>0.4575117863305991</v>
       </c>
       <c r="E20">
-        <v>0.1962468568000588</v>
+        <v>0.1256350134296724</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.17995409665744</v>
+        <v>2.605991364494429</v>
       </c>
       <c r="H20">
-        <v>1.721803041698877</v>
+        <v>1.399502278736009</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07805092591270224</v>
+        <v>0.03345437956792097</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7720752059562841</v>
+        <v>1.349070045605544</v>
       </c>
       <c r="N20">
-        <v>1.849838873054772</v>
+        <v>0.8086049547247214</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.171591635576419</v>
+        <v>5.303635240971516</v>
       </c>
       <c r="C21">
-        <v>0.4734632095788811</v>
+        <v>1.337326696446723</v>
       </c>
       <c r="D21">
-        <v>0.5809612858245998</v>
+        <v>0.5037463467172643</v>
       </c>
       <c r="E21">
-        <v>0.1973244040159088</v>
+        <v>0.1360943183225487</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.232316643619725</v>
+        <v>2.90841877899058</v>
       </c>
       <c r="H21">
-        <v>1.738334892014279</v>
+        <v>1.529460533056749</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07782688911517255</v>
+        <v>0.03453481468896413</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8117414072291069</v>
+        <v>1.530720632425655</v>
       </c>
       <c r="N21">
-        <v>1.827618246843443</v>
+        <v>0.7552982638666421</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.271607525083994</v>
+        <v>5.735667070106956</v>
       </c>
       <c r="C22">
-        <v>0.4992706388929378</v>
+        <v>1.447902010200494</v>
       </c>
       <c r="D22">
-        <v>0.5856489124038831</v>
+        <v>0.5351587464462284</v>
       </c>
       <c r="E22">
-        <v>0.1981033281190392</v>
+        <v>0.1432531351623609</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.267791986272414</v>
+        <v>3.115739310041022</v>
       </c>
       <c r="H22">
-        <v>1.749962692576105</v>
+        <v>1.619174181722087</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07770323394790069</v>
+        <v>0.03531295386574129</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8380342850147571</v>
+        <v>1.652704238558286</v>
       </c>
       <c r="N22">
-        <v>1.813710347095089</v>
+        <v>0.7230329788246479</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.21814594617058</v>
+        <v>5.504039056602323</v>
       </c>
       <c r="C23">
-        <v>0.4854809431089393</v>
+        <v>1.388613540938763</v>
       </c>
       <c r="D23">
-        <v>0.5831250519739797</v>
+        <v>0.518274465174585</v>
       </c>
       <c r="E23">
-        <v>0.1976807592942507</v>
+        <v>0.1394003393354737</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.248742769355175</v>
+        <v>3.004122431553185</v>
       </c>
       <c r="H23">
-        <v>1.743681122058007</v>
+        <v>1.570817044656536</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07776714703722476</v>
+        <v>0.03489059388842364</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8239674023279946</v>
+        <v>1.587270676305522</v>
       </c>
       <c r="N23">
-        <v>1.821076848627449</v>
+        <v>0.7400027643550828</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.017444763485116</v>
+        <v>4.648021819226187</v>
       </c>
       <c r="C24">
-        <v>0.4335989098506161</v>
+        <v>1.169586140336719</v>
       </c>
       <c r="D24">
-        <v>0.5740486501391615</v>
+        <v>0.4567742816468012</v>
       </c>
       <c r="E24">
-        <v>0.1962305037716163</v>
+        <v>0.1254690004541139</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.179119268316128</v>
+        <v>2.601194359524442</v>
       </c>
       <c r="H24">
-        <v>1.721546677315757</v>
+        <v>1.397450828247685</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07805497181434262</v>
+        <v>0.03343783844474757</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7714330761431256</v>
+        <v>1.346149862523276</v>
       </c>
       <c r="N24">
-        <v>1.850212394324771</v>
+        <v>0.8095164507678163</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.80469941938594</v>
+        <v>3.760249873720909</v>
       </c>
       <c r="C25">
-        <v>0.3783553781983926</v>
+        <v>0.9424658035785285</v>
       </c>
       <c r="D25">
-        <v>0.5652844467021794</v>
+        <v>0.3947140716541213</v>
       </c>
       <c r="E25">
-        <v>0.1949859595523549</v>
+        <v>0.111609445300008</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.109332783032102</v>
+        <v>2.200761315552199</v>
       </c>
       <c r="H25">
-        <v>1.701179342361058</v>
+        <v>1.227549525269723</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07846309337674029</v>
+        <v>0.03213839428453724</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.716335246645464</v>
+        <v>1.097390865833326</v>
       </c>
       <c r="N25">
-        <v>1.884261152909367</v>
+        <v>0.8941777582558146</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.128740459103767</v>
+        <v>0.9039784573645306</v>
       </c>
       <c r="C2">
-        <v>0.7808217826008956</v>
+        <v>0.1142805569504048</v>
       </c>
       <c r="D2">
-        <v>0.3518830728823445</v>
+        <v>0.278618855777566</v>
       </c>
       <c r="E2">
-        <v>0.1022000991167893</v>
+        <v>0.06952076874354773</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.92839403507719</v>
+        <v>0.5189989252200817</v>
       </c>
       <c r="H2">
-        <v>1.113926727780182</v>
+        <v>0.0140731248656927</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01106980640707711</v>
       </c>
       <c r="J2">
-        <v>0.03137242825759579</v>
+        <v>0.4367234490110476</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4827517749769861</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.03087745586112778</v>
       </c>
       <c r="M2">
-        <v>0.9214070282891882</v>
+        <v>0.7842523554227512</v>
       </c>
       <c r="N2">
-        <v>0.9635686907317691</v>
+        <v>0.2014161102907366</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2166377400804258</v>
+      </c>
+      <c r="P2">
+        <v>1.091974738502951</v>
+      </c>
+      <c r="Q2">
+        <v>1.96023660477843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.711027175680897</v>
+        <v>0.7892853040369232</v>
       </c>
       <c r="C3">
-        <v>0.6738070099982281</v>
+        <v>0.1070495311460391</v>
       </c>
       <c r="D3">
-        <v>0.324299435853149</v>
+        <v>0.2600617130551512</v>
       </c>
       <c r="E3">
-        <v>0.0962316352273227</v>
+        <v>0.06656290008623955</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.754914019372251</v>
+        <v>0.5080529181575102</v>
       </c>
       <c r="H3">
-        <v>1.042724756651296</v>
+        <v>0.01694077090234081</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01338993115257514</v>
       </c>
       <c r="J3">
-        <v>0.03095585227086417</v>
+        <v>0.4354810482510132</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.481634863748539</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.02902180636244722</v>
       </c>
       <c r="M3">
-        <v>0.8055394756627408</v>
+        <v>0.6831191676277371</v>
       </c>
       <c r="N3">
-        <v>1.014466437792521</v>
+        <v>0.1838666202501145</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1911663319538732</v>
+      </c>
+      <c r="P3">
+        <v>1.122441104900192</v>
+      </c>
+      <c r="Q3">
+        <v>1.934161031151262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.458593144094436</v>
+        <v>0.7185646483839037</v>
       </c>
       <c r="C4">
-        <v>0.6090772376465736</v>
+        <v>0.1026307761842205</v>
       </c>
       <c r="D4">
-        <v>0.3079762466193756</v>
+        <v>0.2487782573920612</v>
       </c>
       <c r="E4">
-        <v>0.09274313306320892</v>
+        <v>0.06473317152715019</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.653037990288169</v>
+        <v>0.5016862476346802</v>
       </c>
       <c r="H4">
-        <v>1.001478154815032</v>
+        <v>0.01890839711645659</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01502097461204333</v>
       </c>
       <c r="J4">
-        <v>0.03074590391535281</v>
+        <v>0.4349650238907898</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4811632068663343</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.02786975961514804</v>
       </c>
       <c r="M4">
-        <v>0.73576305615709</v>
+        <v>0.6209383075602517</v>
       </c>
       <c r="N4">
-        <v>1.04747489412469</v>
+        <v>0.1731555824226021</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1755129313106529</v>
+      </c>
+      <c r="P4">
+        <v>1.141737601153427</v>
+      </c>
+      <c r="Q4">
+        <v>1.91941063340208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.356604559246762</v>
+        <v>0.6890687832878371</v>
       </c>
       <c r="C5">
-        <v>0.5829089542414749</v>
+        <v>0.1009738332397561</v>
       </c>
       <c r="D5">
-        <v>0.3014653865869832</v>
+        <v>0.2441525076350928</v>
       </c>
       <c r="E5">
-        <v>0.09136244417746653</v>
+        <v>0.0639588233312427</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.612577272655301</v>
+        <v>0.4988303525158528</v>
       </c>
       <c r="H5">
-        <v>0.9852389244667279</v>
+        <v>0.0197660447051568</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01582417725392959</v>
       </c>
       <c r="J5">
-        <v>0.03067123460072452</v>
+        <v>0.4346362569201432</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4807113088405046</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.02739562583532118</v>
       </c>
       <c r="M5">
-        <v>0.707630861608834</v>
+        <v>0.5955601044725398</v>
       </c>
       <c r="N5">
-        <v>1.061347205336034</v>
+        <v>0.1689087811147516</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1690836691993738</v>
+      </c>
+      <c r="P5">
+        <v>1.149654227787602</v>
+      </c>
+      <c r="Q5">
+        <v>1.912595294123548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.33971882886965</v>
+        <v>0.683431390935084</v>
       </c>
       <c r="C6">
-        <v>0.5785753914697693</v>
+        <v>0.1008709226490296</v>
       </c>
       <c r="D6">
-        <v>0.3003924113335898</v>
+        <v>0.2433195240429598</v>
       </c>
       <c r="E6">
-        <v>0.09113555851009281</v>
+        <v>0.0637992287871203</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.605919384022229</v>
+        <v>0.4979363652471918</v>
       </c>
       <c r="H6">
-        <v>0.9825753347541024</v>
+        <v>0.01991794173364569</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01607543255279253</v>
       </c>
       <c r="J6">
-        <v>0.03065947568395444</v>
+        <v>0.4343660479681404</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4802576665177796</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.02731551062561177</v>
       </c>
       <c r="M6">
-        <v>0.7029766432856448</v>
+        <v>0.5913267774491544</v>
       </c>
       <c r="N6">
-        <v>1.063675553095408</v>
+        <v>0.1683307670933232</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1679592589824992</v>
+      </c>
+      <c r="P6">
+        <v>1.150865731222849</v>
+      </c>
+      <c r="Q6">
+        <v>1.910121880381851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.457214298006704</v>
+        <v>0.7161531809318262</v>
       </c>
       <c r="C7">
-        <v>0.6087235198784811</v>
+        <v>0.1030796016780258</v>
       </c>
       <c r="D7">
-        <v>0.3078878847916258</v>
+        <v>0.2485343541709426</v>
       </c>
       <c r="E7">
-        <v>0.09272435126869283</v>
+        <v>0.06463879392462779</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.652488194778442</v>
+        <v>0.5004880584604408</v>
       </c>
       <c r="H7">
-        <v>1.001256908728834</v>
+        <v>0.0189366257007948</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0153287050147437</v>
       </c>
       <c r="J7">
-        <v>0.03074485362466284</v>
+        <v>0.4343628907101618</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4801159893855598</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.02786041924471316</v>
       </c>
       <c r="M7">
-        <v>0.7353824838935381</v>
+        <v>0.6205470809977385</v>
       </c>
       <c r="N7">
-        <v>1.047660302038828</v>
+        <v>0.1734438208888989</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1752712907239591</v>
+      </c>
+      <c r="P7">
+        <v>1.141551129852357</v>
+      </c>
+      <c r="Q7">
+        <v>1.915608130475604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.983787726326455</v>
+        <v>0.8618027270732682</v>
       </c>
       <c r="C8">
-        <v>0.7436973099209752</v>
+        <v>0.1124147930506609</v>
       </c>
       <c r="D8">
-        <v>0.3422366158714709</v>
+        <v>0.2719569453865205</v>
       </c>
       <c r="E8">
-        <v>0.1001034758819017</v>
+        <v>0.06839328105771791</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.867543983141445</v>
+        <v>0.5136213484004841</v>
       </c>
       <c r="H8">
-        <v>1.088830284761002</v>
+        <v>0.01503674829872281</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01218399237996604</v>
       </c>
       <c r="J8">
-        <v>0.03121887889396469</v>
+        <v>0.4354588224222482</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4809536427268384</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.0302368406153839</v>
       </c>
       <c r="M8">
-        <v>0.8811461497870283</v>
+        <v>0.7493292336039872</v>
       </c>
       <c r="N8">
-        <v>0.98074052150222</v>
+        <v>0.1958114626063789</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2076506162570517</v>
+      </c>
+      <c r="P8">
+        <v>1.102024407451376</v>
+      </c>
+      <c r="Q8">
+        <v>1.946096568005132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.055338965337569</v>
+        <v>1.148764253865409</v>
       </c>
       <c r="C9">
-        <v>1.017965564578759</v>
+        <v>0.1300958956045406</v>
       </c>
       <c r="D9">
-        <v>0.4151243966016267</v>
+        <v>0.3191487429059379</v>
       </c>
       <c r="E9">
-        <v>0.1161417209085904</v>
+        <v>0.07580294332358939</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.3317333139276</v>
+        <v>0.5443937863502271</v>
       </c>
       <c r="H9">
-        <v>1.282800861226605</v>
+        <v>0.00907704606549857</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.007268027450912484</v>
       </c>
       <c r="J9">
-        <v>0.03254406916862962</v>
+        <v>0.4406829407985668</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4861949658642217</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.03482409955774646</v>
       </c>
       <c r="M9">
-        <v>1.179913948304645</v>
+        <v>1.001458811970451</v>
       </c>
       <c r="N9">
-        <v>0.8644860340339946</v>
+        <v>0.2396207736426987</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2713532611852294</v>
+      </c>
+      <c r="P9">
+        <v>1.029743941976811</v>
+      </c>
+      <c r="Q9">
+        <v>2.022901918348651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.877121253834332</v>
+        <v>1.351498134345945</v>
       </c>
       <c r="C10">
-        <v>1.228196451230815</v>
+        <v>0.1443619990835074</v>
       </c>
       <c r="D10">
-        <v>0.4730874080204615</v>
+        <v>0.3496851079475078</v>
       </c>
       <c r="E10">
-        <v>0.1291474276310254</v>
+        <v>0.07915375964828897</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.707502793570001</v>
+        <v>0.5627594203136113</v>
       </c>
       <c r="H10">
-        <v>1.442990319338918</v>
+        <v>0.00619540955852127</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.00498336525532217</v>
       </c>
       <c r="J10">
-        <v>0.03380902117906714</v>
+        <v>0.4426883010536642</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.486618969890479</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.03849163007801426</v>
       </c>
       <c r="M10">
-        <v>1.410569260801097</v>
+        <v>1.184810903570337</v>
       </c>
       <c r="N10">
-        <v>0.7898198492641484</v>
+        <v>0.2643097377370793</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3135638923221933</v>
+      </c>
+      <c r="P10">
+        <v>0.9792291779268893</v>
+      </c>
+      <c r="Q10">
+        <v>2.066459972192263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.261254228339567</v>
+        <v>1.389320995958911</v>
       </c>
       <c r="C11">
-        <v>1.326481625567112</v>
+        <v>0.1592722759398271</v>
       </c>
       <c r="D11">
-        <v>0.5006837615840709</v>
+        <v>0.3233051654339931</v>
       </c>
       <c r="E11">
-        <v>0.135398517363523</v>
+        <v>0.06518566249656743</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.888284409007468</v>
+        <v>0.5213154275584202</v>
       </c>
       <c r="H11">
-        <v>1.520773014593146</v>
+        <v>0.0247275187685041</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.005001288038897655</v>
       </c>
       <c r="J11">
-        <v>0.03446075418437289</v>
+        <v>0.4185322559130924</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4512058936058914</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.04655394972094484</v>
       </c>
       <c r="M11">
-        <v>1.518769179071356</v>
+        <v>1.252164683443766</v>
       </c>
       <c r="N11">
-        <v>0.7586073235478423</v>
+        <v>0.210322005765363</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2937412344491008</v>
+      </c>
+      <c r="P11">
+        <v>0.9570240085608894</v>
+      </c>
+      <c r="Q11">
+        <v>1.928187282329901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.408465380890163</v>
+        <v>1.380872220608779</v>
       </c>
       <c r="C12">
-        <v>1.364153574791374</v>
+        <v>0.1687398161131881</v>
       </c>
       <c r="D12">
-        <v>0.511336475765745</v>
+        <v>0.2956427497775422</v>
       </c>
       <c r="E12">
-        <v>0.13782044708352</v>
+        <v>0.05545160124716553</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.958379312246876</v>
+        <v>0.4849933458363864</v>
       </c>
       <c r="H12">
-        <v>1.551037336070692</v>
+        <v>0.06362604372924352</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004932495988795971</v>
       </c>
       <c r="J12">
-        <v>0.03471978310692592</v>
+        <v>0.3988594750424994</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4238172726908189</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.05751633336183204</v>
       </c>
       <c r="M12">
-        <v>1.560294264457767</v>
+        <v>1.269972181842689</v>
       </c>
       <c r="N12">
-        <v>0.7472253046517849</v>
+        <v>0.1651208956784345</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2689458295821368</v>
+      </c>
+      <c r="P12">
+        <v>0.9535658401154876</v>
+      </c>
+      <c r="Q12">
+        <v>1.810050422491969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.376678418229915</v>
+        <v>1.333171239879533</v>
       </c>
       <c r="C13">
-        <v>1.356018813881633</v>
+        <v>0.1752132114849587</v>
       </c>
       <c r="D13">
-        <v>0.5090327632526339</v>
+        <v>0.2652041365064832</v>
       </c>
       <c r="E13">
-        <v>0.1372962893317897</v>
+        <v>0.04827450662556476</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.943206463341511</v>
+        <v>0.4486305447116976</v>
       </c>
       <c r="H13">
-        <v>1.544481559725853</v>
+        <v>0.1198670029676094</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.005195992519435144</v>
       </c>
       <c r="J13">
-        <v>0.03466343064306798</v>
+        <v>0.3805041437916756</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3993312408106817</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07113239169475705</v>
       </c>
       <c r="M13">
-        <v>1.551325121687071</v>
+        <v>1.250414399414353</v>
       </c>
       <c r="N13">
-        <v>0.7496564440999265</v>
+        <v>0.1247788331251911</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2388088284815169</v>
+      </c>
+      <c r="P13">
+        <v>0.9632184728192037</v>
+      </c>
+      <c r="Q13">
+        <v>1.694503515383559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.273328678047903</v>
+        <v>1.281590198122871</v>
       </c>
       <c r="C14">
-        <v>1.329571379556626</v>
+        <v>0.1786093130419317</v>
       </c>
       <c r="D14">
-        <v>0.5015559459839665</v>
+        <v>0.2428980248701151</v>
       </c>
       <c r="E14">
-        <v>0.1355966318486921</v>
+        <v>0.04477025705325088</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.894016975729073</v>
+        <v>0.4231813304803254</v>
       </c>
       <c r="H14">
-        <v>1.523246007285735</v>
+        <v>0.1696688260721686</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.005635571763765057</v>
       </c>
       <c r="J14">
-        <v>0.03448181166824327</v>
+        <v>0.3682320907995731</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3835123100410271</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08240120340720836</v>
       </c>
       <c r="M14">
-        <v>1.522173901256238</v>
+        <v>1.219829851579249</v>
       </c>
       <c r="N14">
-        <v>0.7576618912526243</v>
+        <v>0.09985370205171051</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.215547193592549</v>
+      </c>
+      <c r="P14">
+        <v>0.9762692081458226</v>
+      </c>
+      <c r="Q14">
+        <v>1.61480011568824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.210260214654113</v>
+        <v>1.260053175676376</v>
       </c>
       <c r="C15">
-        <v>1.313432943068108</v>
+        <v>0.1789588719652215</v>
       </c>
       <c r="D15">
-        <v>0.4970033890962497</v>
+        <v>0.2367640639413509</v>
       </c>
       <c r="E15">
-        <v>0.134562888875795</v>
+        <v>0.04411388175277642</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.864107254633581</v>
+        <v>0.4165570437850192</v>
       </c>
       <c r="H15">
-        <v>1.51034737848687</v>
+        <v>0.1823989115910791</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.00595487544446005</v>
       </c>
       <c r="J15">
-        <v>0.03437219809159586</v>
+        <v>0.3653242567925901</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3798753992311426</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08506287265897328</v>
       </c>
       <c r="M15">
-        <v>1.504392445718807</v>
+        <v>1.204464619292054</v>
       </c>
       <c r="N15">
-        <v>0.762623764903239</v>
+        <v>0.09414039319354117</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2086697606309542</v>
+      </c>
+      <c r="P15">
+        <v>0.981716744047759</v>
+      </c>
+      <c r="Q15">
+        <v>1.594635996110156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.852246554791691</v>
+        <v>1.182379105933933</v>
       </c>
       <c r="C16">
-        <v>1.221832573185566</v>
+        <v>0.1715252172579937</v>
       </c>
       <c r="D16">
-        <v>0.4713107807082508</v>
+        <v>0.2302863237102031</v>
       </c>
       <c r="E16">
-        <v>0.1287461876577218</v>
+        <v>0.04422646615660941</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.695904597760745</v>
+        <v>0.4154687890213893</v>
       </c>
       <c r="H16">
-        <v>1.438014395116511</v>
+        <v>0.1708807137846691</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.007003270769439851</v>
       </c>
       <c r="J16">
-        <v>0.03376806809749411</v>
+        <v>0.3677628375521493</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3840485627989914</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08026015752950144</v>
       </c>
       <c r="M16">
-        <v>1.403570724190416</v>
+        <v>1.129649949388124</v>
       </c>
       <c r="N16">
-        <v>0.7919184897943836</v>
+        <v>0.09286098324889736</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1973597792039463</v>
+      </c>
+      <c r="P16">
+        <v>0.9990776612264511</v>
+      </c>
+      <c r="Q16">
+        <v>1.59725701152837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.635433973083195</v>
+        <v>1.150078369220751</v>
       </c>
       <c r="C17">
-        <v>1.166365901880965</v>
+        <v>0.1640402812340511</v>
       </c>
       <c r="D17">
-        <v>0.4558812526105953</v>
+        <v>0.2369988879295306</v>
       </c>
       <c r="E17">
-        <v>0.1252680159933739</v>
+        <v>0.04591442568762627</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.595386932484786</v>
+        <v>0.4280525013730809</v>
       </c>
       <c r="H17">
-        <v>1.394967718492751</v>
+        <v>0.1338129002168955</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.007611397010344412</v>
       </c>
       <c r="J17">
-        <v>0.03341784031877282</v>
+        <v>0.3761409216913947</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3955480867650714</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07024569239410994</v>
       </c>
       <c r="M17">
-        <v>1.342612855207292</v>
+        <v>1.088614347542858</v>
       </c>
       <c r="N17">
-        <v>0.8106228858849462</v>
+        <v>0.1044315792114148</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2008393711804679</v>
+      </c>
+      <c r="P17">
+        <v>1.005570529291035</v>
+      </c>
+      <c r="Q17">
+        <v>1.641369956631706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.511680643928571</v>
+        <v>1.154541874942367</v>
       </c>
       <c r="C18">
-        <v>1.134707495004022</v>
+        <v>0.1554074975702093</v>
       </c>
       <c r="D18">
-        <v>0.4471205065599122</v>
+        <v>0.25646799402017</v>
       </c>
       <c r="E18">
-        <v>0.1232985233562616</v>
+        <v>0.05049951626113636</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.538483317036167</v>
+        <v>0.4551317344350707</v>
       </c>
       <c r="H18">
-        <v>1.370663762501721</v>
+        <v>0.08114111524786694</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.007522793257883187</v>
       </c>
       <c r="J18">
-        <v>0.03322349552155401</v>
+        <v>0.3911746733034107</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4159227445697056</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.05684714498510601</v>
       </c>
       <c r="M18">
-        <v>1.307854160532372</v>
+        <v>1.07177139541011</v>
       </c>
       <c r="N18">
-        <v>0.821637531714039</v>
+        <v>0.1313914134849412</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2179962967980913</v>
+      </c>
+      <c r="P18">
+        <v>1.005246825515847</v>
+      </c>
+      <c r="Q18">
+        <v>1.730201852312305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.469935750790171</v>
+        <v>1.184348116294274</v>
       </c>
       <c r="C19">
-        <v>1.124028459000215</v>
+        <v>0.1480644006328049</v>
       </c>
       <c r="D19">
-        <v>0.4441730990847077</v>
+        <v>0.2854697137639306</v>
       </c>
       <c r="E19">
-        <v>0.1226368332841474</v>
+        <v>0.05899251597909405</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.519367009123215</v>
+        <v>0.4911039875941299</v>
       </c>
       <c r="H19">
-        <v>1.36251014165731</v>
+        <v>0.03535885933015948</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.007447585243958166</v>
       </c>
       <c r="J19">
-        <v>0.03315887695141839</v>
+        <v>0.4099395757694779</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4414538827637919</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.04515882224924894</v>
       </c>
       <c r="M19">
-        <v>1.296135141525966</v>
+        <v>1.075344957761587</v>
       </c>
       <c r="N19">
-        <v>0.8254097595297409</v>
+        <v>0.1741532127192826</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2454992019733311</v>
+      </c>
+      <c r="P19">
+        <v>1.002796818657233</v>
+      </c>
+      <c r="Q19">
+        <v>1.845746846522687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.658413740381718</v>
+        <v>1.291667066674478</v>
       </c>
       <c r="C20">
-        <v>1.172244620436118</v>
+        <v>0.1421948251592937</v>
       </c>
       <c r="D20">
-        <v>0.4575117863305991</v>
+        <v>0.3408663714278219</v>
       </c>
       <c r="E20">
-        <v>0.1256350134296724</v>
+        <v>0.07793985848107177</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.605991364494429</v>
+        <v>0.5540056133307019</v>
       </c>
       <c r="H20">
-        <v>1.399502278736009</v>
+        <v>0.006892750961180028</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.006388869382514706</v>
       </c>
       <c r="J20">
-        <v>0.03345437956792097</v>
+        <v>0.4401402561053231</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4831059727039069</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.03753677482405315</v>
       </c>
       <c r="M20">
-        <v>1.349070045605544</v>
+        <v>1.136414333649782</v>
       </c>
       <c r="N20">
-        <v>0.8086049547247214</v>
+        <v>0.2585503417919739</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3018000840874038</v>
+      </c>
+      <c r="P20">
+        <v>0.991771557773899</v>
+      </c>
+      <c r="Q20">
+        <v>2.042457052648558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.303635240971516</v>
+        <v>1.457122909957434</v>
       </c>
       <c r="C21">
-        <v>1.337326696446723</v>
+        <v>0.1516919687202503</v>
       </c>
       <c r="D21">
-        <v>0.5037463467172643</v>
+        <v>0.3719177506167739</v>
       </c>
       <c r="E21">
-        <v>0.1360943183225487</v>
+        <v>0.08364267023191729</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.90841877899058</v>
+        <v>0.5783642799843847</v>
       </c>
       <c r="H21">
-        <v>1.529460533056749</v>
+        <v>0.004539213043629031</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004746188791743933</v>
       </c>
       <c r="J21">
-        <v>0.03453481468896413</v>
+        <v>0.4469442567911557</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4908035408036682</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.039880124071205</v>
       </c>
       <c r="M21">
-        <v>1.530720632425655</v>
+        <v>1.279983985499882</v>
       </c>
       <c r="N21">
-        <v>0.7552982638666421</v>
+        <v>0.2899728252995288</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3412989295263102</v>
+      </c>
+      <c r="P21">
+        <v>0.9549280953760961</v>
+      </c>
+      <c r="Q21">
+        <v>2.108662499760442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.735667070106956</v>
+        <v>1.564830890641389</v>
       </c>
       <c r="C22">
-        <v>1.447902010200494</v>
+        <v>0.1577289363874144</v>
       </c>
       <c r="D22">
-        <v>0.5351587464462284</v>
+        <v>0.3902026171863895</v>
       </c>
       <c r="E22">
-        <v>0.1432531351623609</v>
+        <v>0.08645262875927173</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.115739310041022</v>
+        <v>0.593303415615452</v>
       </c>
       <c r="H22">
-        <v>1.619174181722087</v>
+        <v>0.003400280043284742</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003588739760369997</v>
       </c>
       <c r="J22">
-        <v>0.03531295386574129</v>
+        <v>0.4509524226459831</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4953086631402783</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.04157871991431694</v>
       </c>
       <c r="M22">
-        <v>1.652704238558286</v>
+        <v>1.373052253535405</v>
       </c>
       <c r="N22">
-        <v>0.7230329788246479</v>
+        <v>0.3060202345080398</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.365045345373737</v>
+      </c>
+      <c r="P22">
+        <v>0.9314038584393378</v>
+      </c>
+      <c r="Q22">
+        <v>2.148926522941053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.504039056602323</v>
+        <v>1.509817126848787</v>
       </c>
       <c r="C23">
-        <v>1.388613540938763</v>
+        <v>0.1539051345638143</v>
       </c>
       <c r="D23">
-        <v>0.518274465174585</v>
+        <v>0.3806427227087994</v>
       </c>
       <c r="E23">
-        <v>0.1394003393354737</v>
+        <v>0.08505008944322867</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.004122431553185</v>
+        <v>0.5866316283300819</v>
       </c>
       <c r="H23">
-        <v>1.570817044656536</v>
+        <v>0.00397818311914655</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003851973534054309</v>
       </c>
       <c r="J23">
-        <v>0.03489059388842364</v>
+        <v>0.4494702271389031</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4940722287881556</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.04067200734763787</v>
       </c>
       <c r="M23">
-        <v>1.587270676305522</v>
+        <v>1.323441282483032</v>
       </c>
       <c r="N23">
-        <v>0.7400027643550828</v>
+        <v>0.2970256499703936</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3525587999812174</v>
+      </c>
+      <c r="P23">
+        <v>0.944053456503501</v>
+      </c>
+      <c r="Q23">
+        <v>2.131572424637653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.648021819226187</v>
+        <v>1.29727671946813</v>
       </c>
       <c r="C24">
-        <v>1.169586140336719</v>
+        <v>0.1404953884444353</v>
       </c>
       <c r="D24">
-        <v>0.4567742816468012</v>
+        <v>0.3444065913639491</v>
       </c>
       <c r="E24">
-        <v>0.1254690004541139</v>
+        <v>0.07957627349255958</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.601194359524442</v>
+        <v>0.5601749514140266</v>
       </c>
       <c r="H24">
-        <v>1.397450828247685</v>
+        <v>0.006660985179653023</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.00583203125575249</v>
       </c>
       <c r="J24">
-        <v>0.03343783844474757</v>
+        <v>0.443348057482325</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.488031787899736</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.03725531454230957</v>
       </c>
       <c r="M24">
-        <v>1.346149862523276</v>
+        <v>1.135602769012706</v>
       </c>
       <c r="N24">
-        <v>0.8095164507678163</v>
+        <v>0.2638271454770944</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3050184760137284</v>
+      </c>
+      <c r="P24">
+        <v>0.9930086372507549</v>
+      </c>
+      <c r="Q24">
+        <v>2.062249717222727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.760249873720909</v>
+        <v>1.06765330773689</v>
       </c>
       <c r="C25">
-        <v>0.9424658035785285</v>
+        <v>0.1261638245730268</v>
       </c>
       <c r="D25">
-        <v>0.3947140716541213</v>
+        <v>0.3059460101817848</v>
       </c>
       <c r="E25">
-        <v>0.111609445300008</v>
+        <v>0.07365881000287899</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.200761315552199</v>
+        <v>0.5336561472945078</v>
       </c>
       <c r="H25">
-        <v>1.227549525269723</v>
+        <v>0.01051550462854703</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.008901404650984546</v>
       </c>
       <c r="J25">
-        <v>0.03213839428453724</v>
+        <v>0.4379846170566992</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4827317167797389</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.03358505326046224</v>
       </c>
       <c r="M25">
-        <v>1.097390865833326</v>
+        <v>0.9331804182549206</v>
       </c>
       <c r="N25">
-        <v>0.8941777582558146</v>
+        <v>0.2283347814805552</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.2538359417963569</v>
+      </c>
+      <c r="P25">
+        <v>1.04840946851212</v>
+      </c>
+      <c r="Q25">
+        <v>1.994323873819042</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9039784573645306</v>
+        <v>0.8627416720676138</v>
       </c>
       <c r="C2">
-        <v>0.1142805569504048</v>
+        <v>0.1082571681086719</v>
       </c>
       <c r="D2">
-        <v>0.278618855777566</v>
+        <v>0.2745703700986297</v>
       </c>
       <c r="E2">
-        <v>0.06952076874354773</v>
+        <v>0.0673845698944131</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5189989252200817</v>
+        <v>0.4695348764635483</v>
       </c>
       <c r="H2">
-        <v>0.0140731248656927</v>
+        <v>0.0121227768549661</v>
       </c>
       <c r="I2">
-        <v>0.01106980640707711</v>
+        <v>0.008453365578679595</v>
       </c>
       <c r="J2">
-        <v>0.4367234490110476</v>
+        <v>0.4279330361590539</v>
       </c>
       <c r="K2">
-        <v>0.4827517749769861</v>
+        <v>0.4371039514478916</v>
       </c>
       <c r="L2">
-        <v>0.03087745586112778</v>
+        <v>0.1906074982755968</v>
       </c>
       <c r="M2">
-        <v>0.7842523554227512</v>
+        <v>0.1395556684699191</v>
       </c>
       <c r="N2">
-        <v>0.2014161102907366</v>
+        <v>0.03038290974709223</v>
       </c>
       <c r="O2">
-        <v>0.2166377400804258</v>
+        <v>0.7865920177166856</v>
       </c>
       <c r="P2">
-        <v>1.091974738502951</v>
+        <v>0.2164815678274437</v>
       </c>
       <c r="Q2">
-        <v>1.96023660477843</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2132733739521449</v>
+      </c>
+      <c r="R2">
+        <v>1.049893297857754</v>
+      </c>
+      <c r="S2">
+        <v>1.825391200741507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7892853040369232</v>
+        <v>0.7554942550067665</v>
       </c>
       <c r="C3">
-        <v>0.1070495311460391</v>
+        <v>0.09862172724260176</v>
       </c>
       <c r="D3">
-        <v>0.2600617130551512</v>
+        <v>0.256685870598659</v>
       </c>
       <c r="E3">
-        <v>0.06656290008623955</v>
+        <v>0.06476108853614804</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5080529181575102</v>
+        <v>0.4631250147065487</v>
       </c>
       <c r="H3">
-        <v>0.01694077090234081</v>
+        <v>0.01462179438644579</v>
       </c>
       <c r="I3">
-        <v>0.01338993115257514</v>
+        <v>0.01024516310514167</v>
       </c>
       <c r="J3">
-        <v>0.4354810482510132</v>
+        <v>0.4247963753877642</v>
       </c>
       <c r="K3">
-        <v>0.481634863748539</v>
+        <v>0.4379576168151722</v>
       </c>
       <c r="L3">
-        <v>0.02902180636244722</v>
+        <v>0.1946868659725745</v>
       </c>
       <c r="M3">
-        <v>0.6831191676277371</v>
+        <v>0.137798142564705</v>
       </c>
       <c r="N3">
-        <v>0.1838666202501145</v>
+        <v>0.02855749310906486</v>
       </c>
       <c r="O3">
-        <v>0.1911663319538732</v>
+        <v>0.6855481098360485</v>
       </c>
       <c r="P3">
-        <v>1.122441104900192</v>
+        <v>0.1978941830974108</v>
       </c>
       <c r="Q3">
-        <v>1.934161031151262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.188322738828294</v>
+      </c>
+      <c r="R3">
+        <v>1.077861328580807</v>
+      </c>
+      <c r="S3">
+        <v>1.807483550698464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7185646483839037</v>
+        <v>0.6891870427105573</v>
       </c>
       <c r="C4">
-        <v>0.1026307761842205</v>
+        <v>0.09278665137925657</v>
       </c>
       <c r="D4">
-        <v>0.2487782573920612</v>
+        <v>0.2458062066617259</v>
       </c>
       <c r="E4">
-        <v>0.06473317152715019</v>
+        <v>0.06313459743644501</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5016862476346802</v>
+        <v>0.4595544824194846</v>
       </c>
       <c r="H4">
-        <v>0.01890839711645659</v>
+        <v>0.01633836674348482</v>
       </c>
       <c r="I4">
-        <v>0.01502097461204333</v>
+        <v>0.01152176370141733</v>
       </c>
       <c r="J4">
-        <v>0.4349650238907898</v>
+        <v>0.4229436134194202</v>
       </c>
       <c r="K4">
-        <v>0.4811632068663343</v>
+        <v>0.438619666102813</v>
       </c>
       <c r="L4">
-        <v>0.02786975961514804</v>
+        <v>0.1972504939592064</v>
       </c>
       <c r="M4">
-        <v>0.6209383075602517</v>
+        <v>0.1372706523422984</v>
       </c>
       <c r="N4">
-        <v>0.1731555824226021</v>
+        <v>0.02742553033586237</v>
       </c>
       <c r="O4">
-        <v>0.1755129313106529</v>
+        <v>0.6233900353029327</v>
       </c>
       <c r="P4">
-        <v>1.141737601153427</v>
+        <v>0.1865775071520019</v>
       </c>
       <c r="Q4">
-        <v>1.91941063340208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.172973191938194</v>
+      </c>
+      <c r="R4">
+        <v>1.095635861528956</v>
+      </c>
+      <c r="S4">
+        <v>1.797445416743116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6890687832878371</v>
+        <v>0.6614583839005093</v>
       </c>
       <c r="C5">
-        <v>0.1009738332397561</v>
+        <v>0.09059146203293267</v>
       </c>
       <c r="D5">
-        <v>0.2441525076350928</v>
+        <v>0.2413430035898187</v>
       </c>
       <c r="E5">
-        <v>0.0639588233312427</v>
+        <v>0.06244306721101545</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4988303525158528</v>
+        <v>0.4578561045950522</v>
       </c>
       <c r="H5">
-        <v>0.0197660447051568</v>
+        <v>0.01708719555329979</v>
       </c>
       <c r="I5">
-        <v>0.01582417725392959</v>
+        <v>0.01218497538322794</v>
       </c>
       <c r="J5">
-        <v>0.4346362569201432</v>
+        <v>0.4220240816153407</v>
       </c>
       <c r="K5">
-        <v>0.4807113088405046</v>
+        <v>0.4386271475061534</v>
       </c>
       <c r="L5">
-        <v>0.02739562583532118</v>
+        <v>0.1981615709532036</v>
       </c>
       <c r="M5">
-        <v>0.5955601044725398</v>
+        <v>0.1371200960807624</v>
       </c>
       <c r="N5">
-        <v>0.1689087811147516</v>
+        <v>0.02696087313093543</v>
       </c>
       <c r="O5">
-        <v>0.1690836691993738</v>
+        <v>0.5980136905376838</v>
       </c>
       <c r="P5">
-        <v>1.149654227787602</v>
+        <v>0.1820946228575551</v>
       </c>
       <c r="Q5">
-        <v>1.912595294123548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1666638965108582</v>
+      </c>
+      <c r="R5">
+        <v>1.10296300657559</v>
+      </c>
+      <c r="S5">
+        <v>1.792507841812622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.683431390935084</v>
+        <v>0.6561216168058195</v>
       </c>
       <c r="C6">
-        <v>0.1008709226490296</v>
+        <v>0.09042979042752108</v>
       </c>
       <c r="D6">
-        <v>0.2433195240429598</v>
+        <v>0.2405371298862491</v>
       </c>
       <c r="E6">
-        <v>0.0637992287871203</v>
+        <v>0.06229780209401525</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4979363652471918</v>
+        <v>0.457173799488217</v>
       </c>
       <c r="H6">
-        <v>0.01991794173364569</v>
+        <v>0.01722006753976968</v>
       </c>
       <c r="I6">
-        <v>0.01607543255279253</v>
+        <v>0.01242846086821192</v>
       </c>
       <c r="J6">
-        <v>0.4343660479681404</v>
+        <v>0.4216493289992869</v>
       </c>
       <c r="K6">
-        <v>0.4802576665177796</v>
+        <v>0.4382687598626163</v>
       </c>
       <c r="L6">
-        <v>0.02731551062561177</v>
+        <v>0.1981330868306372</v>
       </c>
       <c r="M6">
-        <v>0.5913267774491544</v>
+        <v>0.1370124420543277</v>
       </c>
       <c r="N6">
-        <v>0.1683307670933232</v>
+        <v>0.0268834389808319</v>
       </c>
       <c r="O6">
-        <v>0.1679592589824992</v>
+        <v>0.5937801963617062</v>
       </c>
       <c r="P6">
-        <v>1.150865731222849</v>
+        <v>0.1814812907084473</v>
       </c>
       <c r="Q6">
-        <v>1.910121880381851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1655591599708508</v>
+      </c>
+      <c r="R6">
+        <v>1.104110987964545</v>
+      </c>
+      <c r="S6">
+        <v>1.790381572677418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7161531809318262</v>
+        <v>0.6864446472447412</v>
       </c>
       <c r="C7">
-        <v>0.1030796016780258</v>
+        <v>0.09316245801580436</v>
       </c>
       <c r="D7">
-        <v>0.2485343541709426</v>
+        <v>0.2456059026549013</v>
       </c>
       <c r="E7">
-        <v>0.06463879392462779</v>
+        <v>0.06305716123352489</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5004880584604408</v>
+        <v>0.4609548106182402</v>
       </c>
       <c r="H7">
-        <v>0.0189366257007948</v>
+        <v>0.01637203980457708</v>
       </c>
       <c r="I7">
-        <v>0.0153287050147437</v>
+        <v>0.01187658811988168</v>
       </c>
       <c r="J7">
-        <v>0.4343628907101618</v>
+        <v>0.418534342473734</v>
       </c>
       <c r="K7">
-        <v>0.4801159893855598</v>
+        <v>0.4372573431861291</v>
       </c>
       <c r="L7">
-        <v>0.02786041924471316</v>
+        <v>0.1965986915918982</v>
       </c>
       <c r="M7">
-        <v>0.6205470809977385</v>
+        <v>0.1369085684961533</v>
       </c>
       <c r="N7">
-        <v>0.1734438208888989</v>
+        <v>0.02740918817298166</v>
       </c>
       <c r="O7">
-        <v>0.1752712907239591</v>
+        <v>0.6223514209233798</v>
       </c>
       <c r="P7">
-        <v>1.141551129852357</v>
+        <v>0.1867997062135984</v>
       </c>
       <c r="Q7">
-        <v>1.915608130475604</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1726439966127487</v>
+      </c>
+      <c r="R7">
+        <v>1.095461903159978</v>
+      </c>
+      <c r="S7">
+        <v>1.791531526623203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8618027270732682</v>
+        <v>0.821928606964093</v>
       </c>
       <c r="C8">
-        <v>0.1124147930506609</v>
+        <v>0.1051664678958559</v>
       </c>
       <c r="D8">
-        <v>0.2719569453865205</v>
+        <v>0.2682818751238045</v>
       </c>
       <c r="E8">
-        <v>0.06839328105771791</v>
+        <v>0.0664242178389447</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5136213484004841</v>
+        <v>0.4742617146797627</v>
       </c>
       <c r="H8">
-        <v>0.01503674829872281</v>
+        <v>0.01298592602790426</v>
       </c>
       <c r="I8">
-        <v>0.01218399237996604</v>
+        <v>0.009464901210544774</v>
       </c>
       <c r="J8">
-        <v>0.4354588224222482</v>
+        <v>0.4137239646167572</v>
       </c>
       <c r="K8">
-        <v>0.4809536427268384</v>
+        <v>0.434850967680255</v>
       </c>
       <c r="L8">
-        <v>0.0302368406153839</v>
+        <v>0.1908749208475271</v>
       </c>
       <c r="M8">
-        <v>0.7493292336039872</v>
+        <v>0.1380691124629685</v>
       </c>
       <c r="N8">
-        <v>0.1958114626063789</v>
+        <v>0.02972351922755401</v>
       </c>
       <c r="O8">
-        <v>0.2076506162570517</v>
+        <v>0.7495345737773107</v>
       </c>
       <c r="P8">
-        <v>1.102024407451376</v>
+        <v>0.2102851565776689</v>
       </c>
       <c r="Q8">
-        <v>1.946096568005132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2041704379947511</v>
+      </c>
+      <c r="R8">
+        <v>1.059057999304947</v>
+      </c>
+      <c r="S8">
+        <v>1.806889446324064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.148764253865409</v>
+        <v>1.08898461764727</v>
       </c>
       <c r="C9">
-        <v>0.1300958956045406</v>
+        <v>0.1289432770227279</v>
       </c>
       <c r="D9">
-        <v>0.3191487429059379</v>
+        <v>0.3137807850364709</v>
       </c>
       <c r="E9">
-        <v>0.07580294332358939</v>
+        <v>0.07300110732784937</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5443937863502271</v>
+        <v>0.4960764976477492</v>
       </c>
       <c r="H9">
-        <v>0.00907704606549857</v>
+        <v>0.007799540724734572</v>
       </c>
       <c r="I9">
-        <v>0.007268027450912484</v>
+        <v>0.00564015789704797</v>
       </c>
       <c r="J9">
-        <v>0.4406829407985668</v>
+        <v>0.4193490496174874</v>
       </c>
       <c r="K9">
-        <v>0.4861949658642217</v>
+        <v>0.4343667488306799</v>
       </c>
       <c r="L9">
-        <v>0.03482409955774646</v>
+        <v>0.1815520034487363</v>
       </c>
       <c r="M9">
-        <v>1.001458811970451</v>
+        <v>0.1456341842096762</v>
       </c>
       <c r="N9">
-        <v>0.2396207736426987</v>
+        <v>0.03422985877028673</v>
       </c>
       <c r="O9">
-        <v>0.2713532611852294</v>
+        <v>1.000591035964248</v>
       </c>
       <c r="P9">
-        <v>1.029743941976811</v>
+        <v>0.2567812596383305</v>
       </c>
       <c r="Q9">
-        <v>2.022901918348651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2663899041572968</v>
+      </c>
+      <c r="R9">
+        <v>0.9930723030048476</v>
+      </c>
+      <c r="S9">
+        <v>1.859474292264451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.351498134345945</v>
+        <v>1.274847822765054</v>
       </c>
       <c r="C10">
-        <v>0.1443619990835074</v>
+        <v>0.1471058422703919</v>
       </c>
       <c r="D10">
-        <v>0.3496851079475078</v>
+        <v>0.3433813437317212</v>
       </c>
       <c r="E10">
-        <v>0.07915375964828897</v>
+        <v>0.07591604287274301</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5627594203136113</v>
+        <v>0.5238705606448093</v>
       </c>
       <c r="H10">
-        <v>0.00619540955852127</v>
+        <v>0.005352135744035369</v>
       </c>
       <c r="I10">
-        <v>0.00498336525532217</v>
+        <v>0.004017502452812849</v>
       </c>
       <c r="J10">
-        <v>0.4426883010536642</v>
+        <v>0.4009720640783243</v>
       </c>
       <c r="K10">
-        <v>0.486618969890479</v>
+        <v>0.4288665142229107</v>
       </c>
       <c r="L10">
-        <v>0.03849163007801426</v>
+        <v>0.1729040861331761</v>
       </c>
       <c r="M10">
-        <v>1.184810903570337</v>
+        <v>0.1515417641698633</v>
       </c>
       <c r="N10">
-        <v>0.2643097377370793</v>
+        <v>0.03788561040870242</v>
       </c>
       <c r="O10">
-        <v>0.3135638923221933</v>
+        <v>1.179034962026236</v>
       </c>
       <c r="P10">
-        <v>0.9792291779268893</v>
+        <v>0.2828017078020366</v>
       </c>
       <c r="Q10">
-        <v>2.066459972192263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3069760924629534</v>
+      </c>
+      <c r="R10">
+        <v>0.9481215758803643</v>
+      </c>
+      <c r="S10">
+        <v>1.873261508712176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.389320995958911</v>
+        <v>1.308738669190831</v>
       </c>
       <c r="C11">
-        <v>0.1592722759398271</v>
+        <v>0.1618978762975871</v>
       </c>
       <c r="D11">
-        <v>0.3233051654339931</v>
+        <v>0.3179050930835388</v>
       </c>
       <c r="E11">
-        <v>0.06518566249656743</v>
+        <v>0.06264468240953036</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5213154275584202</v>
+        <v>0.5174102382176073</v>
       </c>
       <c r="H11">
-        <v>0.0247275187685041</v>
+        <v>0.02397089630117932</v>
       </c>
       <c r="I11">
-        <v>0.005001288038897655</v>
+        <v>0.004313594278875676</v>
       </c>
       <c r="J11">
-        <v>0.4185322559130924</v>
+        <v>0.3447984453823807</v>
       </c>
       <c r="K11">
-        <v>0.4512058936058914</v>
+        <v>0.3939276228694304</v>
       </c>
       <c r="L11">
-        <v>0.04655394972094484</v>
+        <v>0.1579748968212815</v>
       </c>
       <c r="M11">
-        <v>1.252164683443766</v>
+        <v>0.1412973281596983</v>
       </c>
       <c r="N11">
-        <v>0.210322005765363</v>
+        <v>0.04656355708109317</v>
       </c>
       <c r="O11">
-        <v>0.2937412344491008</v>
+        <v>1.237456413440668</v>
       </c>
       <c r="P11">
-        <v>0.9570240085608894</v>
+        <v>0.2257024844046498</v>
       </c>
       <c r="Q11">
-        <v>1.928187282329901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2863768372245588</v>
+      </c>
+      <c r="R11">
+        <v>0.9362199910927167</v>
+      </c>
+      <c r="S11">
+        <v>1.721838446963346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.380872220608779</v>
+        <v>1.302082488335429</v>
       </c>
       <c r="C12">
-        <v>0.1687398161131881</v>
+        <v>0.1705396559285361</v>
       </c>
       <c r="D12">
-        <v>0.2956427497775422</v>
+        <v>0.2909977651948878</v>
       </c>
       <c r="E12">
-        <v>0.05545160124716553</v>
+        <v>0.05343612890597527</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4849933458363864</v>
+        <v>0.4975591005284627</v>
       </c>
       <c r="H12">
-        <v>0.06362604372924352</v>
+        <v>0.06287608930572475</v>
       </c>
       <c r="I12">
-        <v>0.004932495988795971</v>
+        <v>0.004273801466993632</v>
       </c>
       <c r="J12">
-        <v>0.3988594750424994</v>
+        <v>0.3176289605356573</v>
       </c>
       <c r="K12">
-        <v>0.4238172726908189</v>
+        <v>0.3695101118539839</v>
       </c>
       <c r="L12">
-        <v>0.05751633336183204</v>
+        <v>0.1488826763906026</v>
       </c>
       <c r="M12">
-        <v>1.269972181842689</v>
+        <v>0.1325018683155434</v>
       </c>
       <c r="N12">
-        <v>0.1651208956784345</v>
+        <v>0.05792095551686316</v>
       </c>
       <c r="O12">
-        <v>0.2689458295821368</v>
+        <v>1.251169041365074</v>
       </c>
       <c r="P12">
-        <v>0.9535658401154876</v>
+        <v>0.1780589245017836</v>
       </c>
       <c r="Q12">
-        <v>1.810050422491969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2616499514858965</v>
+      </c>
+      <c r="R12">
+        <v>0.9402595092944992</v>
+      </c>
+      <c r="S12">
+        <v>1.607619775566832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.333171239879533</v>
+        <v>1.261761721999051</v>
       </c>
       <c r="C13">
-        <v>0.1752132114849587</v>
+        <v>0.1763157128397239</v>
       </c>
       <c r="D13">
-        <v>0.2652041365064832</v>
+        <v>0.2611519833191949</v>
       </c>
       <c r="E13">
-        <v>0.04827450662556476</v>
+        <v>0.04670293714210061</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4486305447116976</v>
+        <v>0.4585554301503123</v>
       </c>
       <c r="H13">
-        <v>0.1198670029676094</v>
+        <v>0.1190501871528227</v>
       </c>
       <c r="I13">
-        <v>0.005195992519435144</v>
+        <v>0.004448425110186172</v>
       </c>
       <c r="J13">
-        <v>0.3805041437916756</v>
+        <v>0.3098825286588038</v>
       </c>
       <c r="K13">
-        <v>0.3993312408106817</v>
+        <v>0.3505435571120472</v>
       </c>
       <c r="L13">
-        <v>0.07113239169475705</v>
+        <v>0.1427841855659615</v>
       </c>
       <c r="M13">
-        <v>1.250414399414353</v>
+        <v>0.1242039801673975</v>
       </c>
       <c r="N13">
-        <v>0.1247788331251911</v>
+        <v>0.07192505474019484</v>
       </c>
       <c r="O13">
-        <v>0.2388088284815169</v>
+        <v>1.232865474700276</v>
       </c>
       <c r="P13">
-        <v>0.9632184728192037</v>
+        <v>0.1357289889991264</v>
       </c>
       <c r="Q13">
-        <v>1.694503515383559</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2323795624017571</v>
+      </c>
+      <c r="R13">
+        <v>0.954241919049359</v>
+      </c>
+      <c r="S13">
+        <v>1.512710751219814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.281590198122871</v>
+        <v>1.217746997507106</v>
       </c>
       <c r="C14">
-        <v>0.1786093130419317</v>
+        <v>0.1793175410797971</v>
       </c>
       <c r="D14">
-        <v>0.2428980248701151</v>
+        <v>0.2391996689567009</v>
       </c>
       <c r="E14">
-        <v>0.04477025705325088</v>
+        <v>0.0434910805853761</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4231813304803254</v>
+        <v>0.4240874585204324</v>
       </c>
       <c r="H14">
-        <v>0.1696688260721686</v>
+        <v>0.168769736933541</v>
       </c>
       <c r="I14">
-        <v>0.005635571763765057</v>
+        <v>0.004783587552568136</v>
       </c>
       <c r="J14">
-        <v>0.3682320907995731</v>
+        <v>0.3113672918285104</v>
       </c>
       <c r="K14">
-        <v>0.3835123100410271</v>
+        <v>0.3394329333075703</v>
       </c>
       <c r="L14">
-        <v>0.08240120340720836</v>
+        <v>0.1396026586942476</v>
       </c>
       <c r="M14">
-        <v>1.219829851579249</v>
+        <v>0.1186701441536329</v>
       </c>
       <c r="N14">
-        <v>0.09985370205171051</v>
+        <v>0.08349004439747887</v>
       </c>
       <c r="O14">
-        <v>0.215547193592549</v>
+        <v>1.205478463997906</v>
       </c>
       <c r="P14">
-        <v>0.9762692081458226</v>
+        <v>0.1095951604218541</v>
       </c>
       <c r="Q14">
-        <v>1.61480011568824</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2100220794655741</v>
+      </c>
+      <c r="R14">
+        <v>0.9683308594760263</v>
+      </c>
+      <c r="S14">
+        <v>1.453590330200072</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.260053175676376</v>
+        <v>1.199117812089924</v>
       </c>
       <c r="C15">
-        <v>0.1789588719652215</v>
+        <v>0.1796469354009815</v>
       </c>
       <c r="D15">
-        <v>0.2367640639413509</v>
+        <v>0.2331367624539666</v>
       </c>
       <c r="E15">
-        <v>0.04411388175277642</v>
+        <v>0.04291109010283134</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4165570437850192</v>
+        <v>0.4124256718883146</v>
       </c>
       <c r="H15">
-        <v>0.1823989115910791</v>
+        <v>0.1814587730131478</v>
       </c>
       <c r="I15">
-        <v>0.00595487544446005</v>
+        <v>0.005070925166848816</v>
       </c>
       <c r="J15">
-        <v>0.3653242567925901</v>
+        <v>0.3146502246784806</v>
       </c>
       <c r="K15">
-        <v>0.3798753992311426</v>
+        <v>0.3373480075894619</v>
       </c>
       <c r="L15">
-        <v>0.08506287265897328</v>
+        <v>0.1391836650998446</v>
       </c>
       <c r="M15">
-        <v>1.204464619292054</v>
+        <v>0.1173142811643757</v>
       </c>
       <c r="N15">
-        <v>0.09414039319354117</v>
+        <v>0.08625172986225493</v>
       </c>
       <c r="O15">
-        <v>0.2086697606309542</v>
+        <v>1.191878379480983</v>
       </c>
       <c r="P15">
-        <v>0.981716744047759</v>
+        <v>0.1036341398256297</v>
       </c>
       <c r="Q15">
-        <v>1.594635996110156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.20349480590097</v>
+      </c>
+      <c r="R15">
+        <v>0.9732509501824396</v>
+      </c>
+      <c r="S15">
+        <v>1.441150687704038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.182379105933933</v>
+        <v>1.130595689647436</v>
       </c>
       <c r="C16">
-        <v>0.1715252172579937</v>
+        <v>0.172435040153232</v>
       </c>
       <c r="D16">
-        <v>0.2302863237102031</v>
+        <v>0.2265823096410742</v>
       </c>
       <c r="E16">
-        <v>0.04422646615660941</v>
+        <v>0.0430789304974164</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4154687890213893</v>
+        <v>0.3882575264592205</v>
       </c>
       <c r="H16">
-        <v>0.1708807137846691</v>
+        <v>0.1697274918584526</v>
       </c>
       <c r="I16">
-        <v>0.007003270769439851</v>
+        <v>0.005867172510968466</v>
       </c>
       <c r="J16">
-        <v>0.3677628375521493</v>
+        <v>0.3430218987476223</v>
       </c>
       <c r="K16">
-        <v>0.3840485627989914</v>
+        <v>0.3449184605973663</v>
       </c>
       <c r="L16">
-        <v>0.08026015752950144</v>
+        <v>0.1432956501391907</v>
       </c>
       <c r="M16">
-        <v>1.129649949388124</v>
+        <v>0.1178668294247984</v>
       </c>
       <c r="N16">
-        <v>0.09286098324889736</v>
+        <v>0.08165670612799403</v>
       </c>
       <c r="O16">
-        <v>0.1973597792039463</v>
+        <v>1.125156596024141</v>
       </c>
       <c r="P16">
-        <v>0.9990776612264511</v>
+        <v>0.10266199531317</v>
       </c>
       <c r="Q16">
-        <v>1.59725701152837</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.193322290719852</v>
+      </c>
+      <c r="R16">
+        <v>0.9841165572138735</v>
+      </c>
+      <c r="S16">
+        <v>1.466785638799323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.150078369220751</v>
+        <v>1.100706703154202</v>
       </c>
       <c r="C17">
-        <v>0.1640402812340511</v>
+        <v>0.164989976267762</v>
       </c>
       <c r="D17">
-        <v>0.2369988879295306</v>
+        <v>0.233096846699496</v>
       </c>
       <c r="E17">
-        <v>0.04591442568762627</v>
+        <v>0.04463516779561516</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4280525013730809</v>
+        <v>0.3904898264927184</v>
       </c>
       <c r="H17">
-        <v>0.1338129002168955</v>
+        <v>0.1325411756367885</v>
       </c>
       <c r="I17">
-        <v>0.007611397010344412</v>
+        <v>0.006341155244697028</v>
       </c>
       <c r="J17">
-        <v>0.3761409216913947</v>
+        <v>0.3627376856129843</v>
       </c>
       <c r="K17">
-        <v>0.3955480867650714</v>
+        <v>0.3564179081391323</v>
       </c>
       <c r="L17">
-        <v>0.07024569239410994</v>
+        <v>0.1483607686115587</v>
       </c>
       <c r="M17">
-        <v>1.088614347542858</v>
+        <v>0.1209513272339375</v>
       </c>
       <c r="N17">
-        <v>0.1044315792114148</v>
+        <v>0.07155131461385977</v>
       </c>
       <c r="O17">
-        <v>0.2008393711804679</v>
+        <v>1.087506285056492</v>
       </c>
       <c r="P17">
-        <v>1.005570529291035</v>
+        <v>0.1150792748161891</v>
       </c>
       <c r="Q17">
-        <v>1.641369956631706</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1971233934149659</v>
+      </c>
+      <c r="R17">
+        <v>0.9862597622391966</v>
+      </c>
+      <c r="S17">
+        <v>1.516107811698348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.154541874942367</v>
+        <v>1.103028719414596</v>
       </c>
       <c r="C18">
-        <v>0.1554074975702093</v>
+        <v>0.1564973961898914</v>
       </c>
       <c r="D18">
-        <v>0.25646799402017</v>
+        <v>0.2521392028646687</v>
       </c>
       <c r="E18">
-        <v>0.05049951626113636</v>
+        <v>0.0488767428643726</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4551317344350707</v>
+        <v>0.410838079981275</v>
       </c>
       <c r="H18">
-        <v>0.08114111524786694</v>
+        <v>0.07983911000128074</v>
       </c>
       <c r="I18">
-        <v>0.007522793257883187</v>
+        <v>0.00616652278329255</v>
       </c>
       <c r="J18">
-        <v>0.3911746733034107</v>
+        <v>0.3817012329955531</v>
       </c>
       <c r="K18">
-        <v>0.4159227445697056</v>
+        <v>0.3743756803406519</v>
       </c>
       <c r="L18">
-        <v>0.05684714498510601</v>
+        <v>0.1555478235338867</v>
       </c>
       <c r="M18">
-        <v>1.07177139541011</v>
+        <v>0.1270357262573203</v>
       </c>
       <c r="N18">
-        <v>0.1313914134849412</v>
+        <v>0.05782274628947803</v>
       </c>
       <c r="O18">
-        <v>0.2179962967980913</v>
+        <v>1.071999753027541</v>
       </c>
       <c r="P18">
-        <v>1.005246825515847</v>
+        <v>0.1436118965790101</v>
       </c>
       <c r="Q18">
-        <v>1.730201852312305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2141205539313553</v>
+      </c>
+      <c r="R18">
+        <v>0.9819965547180551</v>
+      </c>
+      <c r="S18">
+        <v>1.599369187008435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.184348116294274</v>
+        <v>1.127618674185868</v>
       </c>
       <c r="C19">
-        <v>0.1480644006328049</v>
+        <v>0.1495835038771958</v>
       </c>
       <c r="D19">
-        <v>0.2854697137639306</v>
+        <v>0.2805019752711644</v>
       </c>
       <c r="E19">
-        <v>0.05899251597909405</v>
+        <v>0.05684145144508079</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4911039875941299</v>
+        <v>0.4413999862232956</v>
       </c>
       <c r="H19">
-        <v>0.03535885933015948</v>
+        <v>0.03411625466717538</v>
       </c>
       <c r="I19">
-        <v>0.007447585243958166</v>
+        <v>0.006164196776055064</v>
       </c>
       <c r="J19">
-        <v>0.4099395757694779</v>
+        <v>0.4001396470336118</v>
       </c>
       <c r="K19">
-        <v>0.4414538827637919</v>
+        <v>0.3958846538069416</v>
       </c>
       <c r="L19">
-        <v>0.04515882224924894</v>
+        <v>0.1637699673722519</v>
       </c>
       <c r="M19">
-        <v>1.075344957761587</v>
+        <v>0.1349308071697166</v>
       </c>
       <c r="N19">
-        <v>0.1741532127192826</v>
+        <v>0.04561072458185222</v>
       </c>
       <c r="O19">
-        <v>0.2454992019733311</v>
+        <v>1.075817077714504</v>
       </c>
       <c r="P19">
-        <v>1.002796818657233</v>
+        <v>0.1886061948620181</v>
       </c>
       <c r="Q19">
-        <v>1.845746846522687</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2411359944104952</v>
+      </c>
+      <c r="R19">
+        <v>0.9756886230247197</v>
+      </c>
+      <c r="S19">
+        <v>1.702406159462825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.291667066674478</v>
+        <v>1.221117949989775</v>
       </c>
       <c r="C20">
-        <v>0.1421948251592937</v>
+        <v>0.1448131890129218</v>
       </c>
       <c r="D20">
-        <v>0.3408663714278219</v>
+        <v>0.3346639025328955</v>
       </c>
       <c r="E20">
-        <v>0.07793985848107177</v>
+        <v>0.07477262383930849</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5540056133307019</v>
+        <v>0.5034042894212689</v>
       </c>
       <c r="H20">
-        <v>0.006892750961180028</v>
+        <v>0.005928203747870509</v>
       </c>
       <c r="I20">
-        <v>0.006388869382514706</v>
+        <v>0.005403081553351896</v>
       </c>
       <c r="J20">
-        <v>0.4401402561053231</v>
+        <v>0.416319950835323</v>
       </c>
       <c r="K20">
-        <v>0.4831059727039069</v>
+        <v>0.4285256433869407</v>
       </c>
       <c r="L20">
-        <v>0.03753677482405315</v>
+        <v>0.1744865538308318</v>
       </c>
       <c r="M20">
-        <v>1.136414333649782</v>
+        <v>0.1491737862182738</v>
       </c>
       <c r="N20">
-        <v>0.2585503417919739</v>
+        <v>0.03698832694000931</v>
       </c>
       <c r="O20">
-        <v>0.3018000840874038</v>
+        <v>1.134366533377545</v>
       </c>
       <c r="P20">
-        <v>0.991771557773899</v>
+        <v>0.2769676216857562</v>
       </c>
       <c r="Q20">
-        <v>2.042457052648558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2959818416831723</v>
+      </c>
+      <c r="R20">
+        <v>0.9596241137354227</v>
+      </c>
+      <c r="S20">
+        <v>1.865759001862926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.457122909957434</v>
+        <v>1.364370493920205</v>
       </c>
       <c r="C21">
-        <v>0.1516919687202503</v>
+        <v>0.154330982380543</v>
       </c>
       <c r="D21">
-        <v>0.3719177506167739</v>
+        <v>0.3656674837961447</v>
       </c>
       <c r="E21">
-        <v>0.08364267023191729</v>
+        <v>0.08030980514252306</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5783642799843847</v>
+        <v>0.5865193924696399</v>
       </c>
       <c r="H21">
-        <v>0.004539213043629031</v>
+        <v>0.00393998523870609</v>
       </c>
       <c r="I21">
-        <v>0.004746188791743933</v>
+        <v>0.00424497632132681</v>
       </c>
       <c r="J21">
-        <v>0.4469442567911557</v>
+        <v>0.3488701496012112</v>
       </c>
       <c r="K21">
-        <v>0.4908035408036682</v>
+        <v>0.4236395951396084</v>
       </c>
       <c r="L21">
-        <v>0.039880124071205</v>
+        <v>0.1678755281742603</v>
       </c>
       <c r="M21">
-        <v>1.279983985499882</v>
+        <v>0.1539473290440725</v>
       </c>
       <c r="N21">
-        <v>0.2899728252995288</v>
+        <v>0.03898735977434953</v>
       </c>
       <c r="O21">
-        <v>0.3412989295263102</v>
+        <v>1.261187053008541</v>
       </c>
       <c r="P21">
-        <v>0.9549280953760961</v>
+        <v>0.3086183024997382</v>
       </c>
       <c r="Q21">
-        <v>2.108662499760442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3322795770259006</v>
+      </c>
+      <c r="R21">
+        <v>0.9264701376062217</v>
+      </c>
+      <c r="S21">
+        <v>1.863328512154766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.564830890641389</v>
+        <v>1.456981671088357</v>
       </c>
       <c r="C22">
-        <v>0.1577289363874144</v>
+        <v>0.1600628204160586</v>
       </c>
       <c r="D22">
-        <v>0.3902026171863895</v>
+        <v>0.3840704411451696</v>
       </c>
       <c r="E22">
-        <v>0.08645262875927173</v>
+        <v>0.08310520525940746</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.593303415615452</v>
+        <v>0.6488857260027743</v>
       </c>
       <c r="H22">
-        <v>0.003400280043284742</v>
+        <v>0.0029855015295851</v>
       </c>
       <c r="I22">
-        <v>0.003588739760369997</v>
+        <v>0.003278760722936092</v>
       </c>
       <c r="J22">
-        <v>0.4509524226459831</v>
+        <v>0.3098667523992091</v>
       </c>
       <c r="K22">
-        <v>0.4953086631402783</v>
+        <v>0.4194858313395216</v>
       </c>
       <c r="L22">
-        <v>0.04157871991431694</v>
+        <v>0.1633678586191074</v>
       </c>
       <c r="M22">
-        <v>1.373052253535405</v>
+        <v>0.1569676150449659</v>
       </c>
       <c r="N22">
-        <v>0.3060202345080398</v>
+        <v>0.04050628833693626</v>
       </c>
       <c r="O22">
-        <v>0.365045345373737</v>
+        <v>1.341987284160155</v>
       </c>
       <c r="P22">
-        <v>0.9314038584393378</v>
+        <v>0.3244986062732949</v>
       </c>
       <c r="Q22">
-        <v>2.148926522941053</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3537746046370813</v>
+      </c>
+      <c r="R22">
+        <v>0.9059250244015438</v>
+      </c>
+      <c r="S22">
+        <v>1.855566142132602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.509817126848787</v>
+        <v>1.411050929031177</v>
       </c>
       <c r="C23">
-        <v>0.1539051345638143</v>
+        <v>0.1566945069374128</v>
       </c>
       <c r="D23">
-        <v>0.3806427227087994</v>
+        <v>0.3743201582438616</v>
       </c>
       <c r="E23">
-        <v>0.08505008944322867</v>
+        <v>0.08165839298372113</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5866316283300819</v>
+        <v>0.6086693201093851</v>
       </c>
       <c r="H23">
-        <v>0.00397818311914655</v>
+        <v>0.003463686144829281</v>
       </c>
       <c r="I23">
-        <v>0.003851973534054309</v>
+        <v>0.003378458473203949</v>
       </c>
       <c r="J23">
-        <v>0.4494702271389031</v>
+        <v>0.3366601569090406</v>
       </c>
       <c r="K23">
-        <v>0.4940722287881556</v>
+        <v>0.4236850004780912</v>
       </c>
       <c r="L23">
-        <v>0.04067200734763787</v>
+        <v>0.1664193022664548</v>
       </c>
       <c r="M23">
-        <v>1.323441282483032</v>
+        <v>0.1561619157505127</v>
       </c>
       <c r="N23">
-        <v>0.2970256499703936</v>
+        <v>0.03971272644352286</v>
       </c>
       <c r="O23">
-        <v>0.3525587999812174</v>
+        <v>1.300751369272803</v>
       </c>
       <c r="P23">
-        <v>0.944053456503501</v>
+        <v>0.3157776460562332</v>
       </c>
       <c r="Q23">
-        <v>2.131572424637653</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3427431353603367</v>
+      </c>
+      <c r="R23">
+        <v>0.9166044172696317</v>
+      </c>
+      <c r="S23">
+        <v>1.869354342090247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.29727671946813</v>
+        <v>1.226223149020342</v>
       </c>
       <c r="C24">
-        <v>0.1404953884444353</v>
+        <v>0.1429036696295753</v>
       </c>
       <c r="D24">
-        <v>0.3444065913639491</v>
+        <v>0.3381255395468088</v>
       </c>
       <c r="E24">
-        <v>0.07957627349255958</v>
+        <v>0.07633513990631258</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5601749514140266</v>
+        <v>0.5085453428776532</v>
       </c>
       <c r="H24">
-        <v>0.006660985179653023</v>
+        <v>0.005705665091778001</v>
       </c>
       <c r="I24">
-        <v>0.00583203125575249</v>
+        <v>0.004751603389072656</v>
       </c>
       <c r="J24">
-        <v>0.443348057482325</v>
+        <v>0.4198675373230571</v>
       </c>
       <c r="K24">
-        <v>0.488031787899736</v>
+        <v>0.4328666892908259</v>
       </c>
       <c r="L24">
-        <v>0.03725531454230957</v>
+        <v>0.1761567349307889</v>
       </c>
       <c r="M24">
-        <v>1.135602769012706</v>
+        <v>0.1507508068348393</v>
       </c>
       <c r="N24">
-        <v>0.2638271454770944</v>
+        <v>0.03662285885803396</v>
       </c>
       <c r="O24">
-        <v>0.3050184760137284</v>
+        <v>1.13367812619984</v>
       </c>
       <c r="P24">
-        <v>0.9930086372507549</v>
+        <v>0.2825017887186618</v>
       </c>
       <c r="Q24">
-        <v>2.062249717222727</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2991589166194544</v>
+      </c>
+      <c r="R24">
+        <v>0.9599926038720668</v>
+      </c>
+      <c r="S24">
+        <v>1.884089059164978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.06765330773689</v>
+        <v>1.014038377511497</v>
       </c>
       <c r="C25">
-        <v>0.1261638245730268</v>
+        <v>0.1237182652596189</v>
       </c>
       <c r="D25">
-        <v>0.3059460101817848</v>
+        <v>0.3009868421960675</v>
       </c>
       <c r="E25">
-        <v>0.07365881000287899</v>
+        <v>0.07106683702961725</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5336561472945078</v>
+        <v>0.4841789395543046</v>
       </c>
       <c r="H25">
-        <v>0.01051550462854703</v>
+        <v>0.009042529267073079</v>
       </c>
       <c r="I25">
-        <v>0.008901404650984546</v>
+        <v>0.007080107256949297</v>
       </c>
       <c r="J25">
-        <v>0.4379846170566992</v>
+        <v>0.4219213764476777</v>
       </c>
       <c r="K25">
-        <v>0.4827317167797389</v>
+        <v>0.4331879067471966</v>
       </c>
       <c r="L25">
-        <v>0.03358505326046224</v>
+        <v>0.1835494892492733</v>
       </c>
       <c r="M25">
-        <v>0.9331804182549206</v>
+        <v>0.1426999150878423</v>
       </c>
       <c r="N25">
-        <v>0.2283347814805552</v>
+        <v>0.0330331468802143</v>
       </c>
       <c r="O25">
-        <v>0.2538359417963569</v>
+        <v>0.9335835317982912</v>
       </c>
       <c r="P25">
-        <v>1.04840946851212</v>
+        <v>0.2448664431843639</v>
       </c>
       <c r="Q25">
-        <v>1.994323873819042</v>
+        <v>0.2494202827566028</v>
+      </c>
+      <c r="R25">
+        <v>1.010297380961111</v>
+      </c>
+      <c r="S25">
+        <v>1.841197644742152</v>
       </c>
     </row>
   </sheetData>
